--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -134,9 +134,6 @@
     <t>en-gb</t>
   </si>
   <si>
-    <t>en-us</t>
-  </si>
-  <si>
     <t>LITTERING_TEXT_1</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>LITTERING_TEXT_3</t>
-  </si>
-  <si>
-    <t>nl</t>
   </si>
   <si>
     <t>es</t>
@@ -625,24 +619,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="49.15625" customWidth="1"/>
-    <col min="2" max="2" width="58.20703125" customWidth="1"/>
-    <col min="3" max="3" width="55.83984375" customWidth="1"/>
-    <col min="4" max="4" width="54.62890625" customWidth="1"/>
-    <col min="5" max="5" width="58.9453125" customWidth="1"/>
-    <col min="6" max="6" width="55" customWidth="1"/>
-    <col min="7" max="7" width="48.47265625" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -650,24 +642,18 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B2" s="2">
         <f>COUNTIF(A1:A10000,"*LOITERING_TEXT_*")</f>
@@ -685,18 +671,10 @@
         <f>B2</f>
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <f>B2</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <f>B2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -710,16 +688,10 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -733,16 +705,10 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -756,16 +722,10 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(A1:A10000,"*LITTERING_TEXT_*")</f>
@@ -783,18 +743,10 @@
         <f>B6</f>
         <v>4</v>
       </c>
-      <c r="F6" s="1">
-        <f>B6</f>
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <f>B6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -808,16 +760,10 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -831,16 +777,10 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -854,16 +794,10 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -877,16 +811,10 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <f>COUNTIF(A1:A10000,"*NOISECOMPLAINT_TEXT_*")</f>
@@ -904,18 +832,10 @@
         <f t="shared" ref="E11:E42" si="2">B11</f>
         <v>6</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F42" si="3">B11</f>
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11:G42" si="4">B11</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -929,16 +849,10 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -952,16 +866,10 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -975,16 +883,10 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -998,16 +900,10 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1021,16 +917,10 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1044,16 +934,10 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <f>COUNTIF(A1:A10000,"*LANDARGUMENT_TEXT_*")</f>
@@ -1071,18 +955,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1096,16 +972,10 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1119,16 +989,10 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1142,16 +1006,10 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <f>COUNTIF(A1:A10000,"*DISCRIMINATION_TEXT_*")</f>
@@ -1169,18 +1027,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1194,16 +1044,10 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <f>COUNTIF(A1:A10000,"*DOMESTICABUSE_TEXT_*")</f>
@@ -1221,18 +1065,10 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -1246,16 +1082,10 @@
       <c r="E25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1269,16 +1099,10 @@
       <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <f>COUNTIF(A1:A10000,"*ASSAULT_TEXT_*")</f>
@@ -1296,18 +1120,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1321,16 +1137,10 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1344,16 +1154,10 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1367,16 +1171,10 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1390,16 +1188,10 @@
       <c r="E31" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -1413,16 +1205,10 @@
       <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <f>COUNTIF(A1:A10000,"*MULTIPLEASSAULTS_TEXT_*")</f>
@@ -1440,18 +1226,10 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -1465,16 +1243,10 @@
       <c r="E34" t="s">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -1488,16 +1260,10 @@
       <c r="E35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -1511,16 +1277,10 @@
       <c r="E36" t="s">
         <v>33</v>
       </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1">
         <f>COUNTIF(A1:A10000,"*TRAFFICINCIDENT_TEXT_*")</f>
@@ -1538,18 +1298,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:5" ht="11.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -1563,16 +1315,10 @@
       <c r="E38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -1586,16 +1332,10 @@
       <c r="E39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -1609,16 +1349,10 @@
       <c r="E40" t="s">
         <v>33</v>
       </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
@@ -1632,16 +1366,10 @@
       <c r="E41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1">
         <f>COUNTIF(A1:A10000,"*FATALITY_TEXT_*")</f>
@@ -1659,18 +1387,10 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -1684,16 +1404,10 @@
       <c r="E43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -1705,12 +1419,6 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>LANDARGUMENT_TEXT_3</t>
+  </si>
+  <si>
+    <t>LITTERING_LENGTH</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -725,7 +728,7 @@
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(A1:A10000,"*LITTERING_TEXT_*")</f>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
   </bookViews>
   <sheets>
-    <sheet name="IncidentSpreadsheet" sheetId="3" r:id="rId1"/>
+    <sheet name="StringLocalizations" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -270,6 +270,24 @@
   </si>
   <si>
     <t>LITTERING_LENGTH</t>
+  </si>
+  <si>
+    <t>START_SCREEN_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.\nBut be careful, officers are limited so use them wisely</t>
+  </si>
+  <si>
+    <t>APP_NAME</t>
+  </si>
+  <si>
+    <t>ResourceForce</t>
+  </si>
+  <si>
+    <t>START_SCREEN_TAP</t>
+  </si>
+  <si>
+    <t>Tap to start!</t>
   </si>
 </sst>
 </file>
@@ -333,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -341,6 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1425,6 +1444,57 @@
         <v>33</v>
       </c>
     </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="138">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -275,9 +275,6 @@
     <t>START_SCREEN_DESCRIPTION</t>
   </si>
   <si>
-    <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.\nBut be careful, officers are limited so use them wisely</t>
-  </si>
-  <si>
     <t>APP_NAME</t>
   </si>
   <si>
@@ -288,6 +285,159 @@
   </si>
   <si>
     <t>Tap to start!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_OK</t>
+  </si>
+  <si>
+    <t>OK!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_WAIT</t>
+  </si>
+  <si>
+    <t>Wait!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_DEVELOPED</t>
+  </si>
+  <si>
+    <t>Developed Case</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SEND_ONE</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SEND_MANY</t>
+  </si>
+  <si>
+    <t>Send {0} officers for {1} turns</t>
+  </si>
+  <si>
+    <t>Send 1 officer for {0} turns</t>
+  </si>
+  <si>
+    <t>Arrests have been made</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ARREST_FAIL</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ARREST_SUCCESS</t>
+  </si>
+  <si>
+    <t>Officers fail to make any arrests regarding the case</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CITIZEN_SUCCESS</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CITIZEN_FAIL</t>
+  </si>
+  <si>
+    <t>Citizens provide evidence through the INSPEC2T app, 2 have been charged</t>
+  </si>
+  <si>
+    <t>Citizen fails to provide any solid evidence for the case</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_NO_MORE_INCIDENTS</t>
+  </si>
+  <si>
+    <t>No more incidents to check this turn</t>
+  </si>
+  <si>
+    <t>INCIDENT_NEW</t>
+  </si>
+  <si>
+    <t>INCIDENT_ONGOING</t>
+  </si>
+  <si>
+    <t>INCIDENT_RESOLVED</t>
+  </si>
+  <si>
+    <t>INCIDENT_CASE</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>INCIDENT_CASE_SUBJECT</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_RESOLVED_CASES</t>
+  </si>
+  <si>
+    <t>Arrests</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ACTIVE_CASES</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TURN</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_GAMEOVER</t>
+  </si>
+  <si>
+    <t>INCIDENT_OFFICERS</t>
+  </si>
+  <si>
+    <t>Officers</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_AVAILABLE</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TURNS_UNTIL_AVAILABLE</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>turns until available</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ASK_CITIZEN</t>
+  </si>
+  <si>
+    <t>Ask citizen for help</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_NEXT_TURN</t>
+  </si>
+  <si>
+    <t>Next Turn</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_GAMEOVER_BODY</t>
+  </si>
+  <si>
+    <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.*n*But be careful, officers are limited so use them wisely</t>
+  </si>
+  <si>
+    <t>Game Over*n*Too many unresolved cases</t>
+  </si>
+  <si>
+    <t>You Survived {0} Turns*n*And Made Arrests for {1}% of Cases</t>
   </si>
 </sst>
 </file>
@@ -641,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -678,7 +828,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2">
-        <f>COUNTIF(A1:A10000,"*LOITERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="2">
@@ -750,7 +900,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="1">
-        <f>COUNTIF(A1:A10000,"*LITTERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -839,7 +989,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(A1:A10000,"*NOISECOMPLAINT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
       <c r="C11" s="1">
@@ -962,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(A1:A10000,"*LANDARGUMENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -1034,7 +1184,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(A1:A10000,"*DISCRIMINATION_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -1072,7 +1222,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIF(A1:A10000,"*DOMESTICABUSE_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C24" s="1">
@@ -1127,7 +1277,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1">
-        <f>COUNTIF(A1:A10000,"*ASSAULT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
       <c r="C27" s="1">
@@ -1233,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="1">
-        <f>COUNTIF(A1:A10000,"*MULTIPLEASSAULTS_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C33" s="1">
@@ -1305,7 +1455,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <f>COUNTIF(A1:A10000,"*TRAFFICINCIDENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C37" s="1">
@@ -1394,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1">
-        <f>COUNTIF(A1:A10000,"*FATALITY_TEXT_*")</f>
+        <f>COUNTIF(A1:A10005,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C42" s="1">
@@ -1449,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>33</v>
@@ -1463,10 +1613,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
         <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
@@ -1480,18 +1630,443 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -431,13 +431,13 @@
     <t>BASIC_TEXT_GAMEOVER_BODY</t>
   </si>
   <si>
-    <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.*n*But be careful, officers are limited so use them wisely</t>
-  </si>
-  <si>
-    <t>Game Over*n*Too many unresolved cases</t>
-  </si>
-  <si>
-    <t>You Survived {0} Turns*n*And Made Arrests for {1}% of Cases</t>
+    <t>You Survived {0} Turns*2n*And Made Arrests for {1}% of Cases</t>
+  </si>
+  <si>
+    <t>Game Over*2n*Too many unresolved cases</t>
+  </si>
+  <si>
+    <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.*2n*But be careful, officers are limited so use them wisely</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="11.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>33</v>
@@ -2024,7 +2024,7 @@
         <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations" sheetId="3" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,7 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1577,7 +1576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -1594,20 +1593,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.*2n*But be careful, officers are limited so use them wisely</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_OFFICERS_REQUIRED</t>
+  </si>
+  <si>
+    <t>Officers required</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2069,6 +2075,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -431,12 +431,6 @@
     <t>BASIC_TEXT_GAMEOVER_BODY</t>
   </si>
   <si>
-    <t>You Survived {0} Turns*2n*And Made Arrests for {1}% of Cases</t>
-  </si>
-  <si>
-    <t>Game Over*2n*Too many unresolved cases</t>
-  </si>
-  <si>
     <t>Welcome to resource force, take on the role of a police operator and help to solve crimes across the city. You must use your resources carefully to solve cases and keep civilians happy and feeling safe.*2n*But be careful, officers are limited so use them wisely</t>
   </si>
   <si>
@@ -444,6 +438,18 @@
   </si>
   <si>
     <t>Officers required</t>
+  </si>
+  <si>
+    <t>Citizen Happines</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CITIZEN_HAPPINESS</t>
+  </si>
+  <si>
+    <t>You Survived {0} Turns*2n*Before citizen happiness fell too low, Citizens no longer feel safe under your control</t>
+  </si>
+  <si>
+    <t>Game Over*2n*Citizens not happy with your performance</t>
   </si>
 </sst>
 </file>
@@ -796,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1604,7 +1610,7 @@
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -2012,7 +2018,7 @@
         <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -2029,7 +2035,7 @@
         <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
@@ -2077,18 +2083,35 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -446,10 +446,22 @@
     <t>BASIC_TEXT_CITIZEN_HAPPINESS</t>
   </si>
   <si>
-    <t>You Survived {0} Turns*2n*Before citizen happiness fell too low, Citizens no longer feel safe under your control</t>
-  </si>
-  <si>
-    <t>Game Over*2n*Citizens not happy with your performance</t>
+    <t>BASIC_TEXT_SCORE</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_BEST</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>You Survived {0} Turns*2n*Citizen happiness fallen below 20%, citizens no longer feel safe under your control</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2018,7 +2030,7 @@
         <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -2035,7 +2047,7 @@
         <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
@@ -2112,6 +2124,40 @@
         <v>33</v>
       </c>
       <c r="E74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="148">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -311,24 +311,12 @@
     <t>BASIC_TEXT_SEND_MANY</t>
   </si>
   <si>
-    <t>Send {0} officers for {1} turns</t>
-  </si>
-  <si>
-    <t>Send 1 officer for {0} turns</t>
-  </si>
-  <si>
-    <t>Arrests have been made</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_ARREST_FAIL</t>
   </si>
   <si>
     <t>BASIC_TEXT_ARREST_SUCCESS</t>
   </si>
   <si>
-    <t>Officers fail to make any arrests regarding the case</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_CITIZEN_SUCCESS</t>
   </si>
   <si>
@@ -462,6 +450,24 @@
   </si>
   <si>
     <t>You Survived {0} Turns*2n*Citizen happiness fallen below 20%, citizens no longer feel safe under your control</t>
+  </si>
+  <si>
+    <t>Arrests have been made for the following case:</t>
+  </si>
+  <si>
+    <t>Officers fail to make any arrests regarding the case:</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TURNS_REQUIRED</t>
+  </si>
+  <si>
+    <t>Turns required</t>
+  </si>
+  <si>
+    <t>Send officers</t>
+  </si>
+  <si>
+    <t>Send officer</t>
   </si>
 </sst>
 </file>
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -851,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2">
-        <f>COUNTIF(A1:A10005,"*LOITERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="2">
@@ -923,7 +929,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="1">
-        <f>COUNTIF(A1:A10005,"*LITTERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -1012,7 +1018,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(A1:A10005,"*NOISECOMPLAINT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
       <c r="C11" s="1">
@@ -1135,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(A1:A10005,"*LANDARGUMENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -1207,7 +1213,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(A1:A10005,"*DISCRIMINATION_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -1245,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIF(A1:A10005,"*DOMESTICABUSE_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C24" s="1">
@@ -1300,7 +1306,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1">
-        <f>COUNTIF(A1:A10005,"*ASSAULT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
       <c r="C27" s="1">
@@ -1406,7 +1412,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="1">
-        <f>COUNTIF(A1:A10005,"*MULTIPLEASSAULTS_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C33" s="1">
@@ -1478,7 +1484,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <f>COUNTIF(A1:A10005,"*TRAFFICINCIDENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C37" s="1">
@@ -1567,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1">
-        <f>COUNTIF(A1:A10005,"*FATALITY_TEXT_*")</f>
+        <f>COUNTIF(A1:A10006,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C42" s="1">
@@ -1622,7 +1628,7 @@
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -1707,7 +1713,7 @@
         <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -1724,7 +1730,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
@@ -1755,10 +1761,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -1772,10 +1778,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
@@ -1789,10 +1795,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
         <v>33</v>
@@ -1806,10 +1812,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -1823,10 +1829,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
@@ -1840,10 +1846,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
@@ -1857,10 +1863,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
@@ -1874,10 +1880,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
         <v>107</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
@@ -1891,10 +1897,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
         <v>108</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -1908,10 +1914,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
@@ -1925,10 +1931,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
         <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
@@ -1942,10 +1948,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
@@ -1959,10 +1965,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
         <v>33</v>
@@ -1976,10 +1982,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>33</v>
@@ -1993,10 +1999,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
@@ -2010,10 +2016,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
@@ -2027,10 +2033,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
@@ -2044,10 +2050,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
@@ -2061,10 +2067,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
@@ -2078,10 +2084,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
@@ -2095,10 +2101,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -2112,10 +2118,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
@@ -2129,10 +2135,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
@@ -2146,10 +2152,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
@@ -2158,6 +2164,23 @@
         <v>33</v>
       </c>
       <c r="E76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="190">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -407,9 +407,6 @@
     <t>BASIC_TEXT_ASK_CITIZEN</t>
   </si>
   <si>
-    <t>Ask citizen for help</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_NEXT_TURN</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Game Over</t>
   </si>
   <si>
-    <t>You Survived {0} Turns*2n*Citizen happiness fallen below 20%, citizens no longer feel safe under your control</t>
-  </si>
-  <si>
     <t>Arrests have been made for the following case:</t>
   </si>
   <si>
@@ -468,13 +462,145 @@
   </si>
   <si>
     <t>Send officer</t>
+  </si>
+  <si>
+    <t>You Survived {0} Turns*2n*Citizen happiness fallen below 10%, citizens no longer feel safe under your control</t>
+  </si>
+  <si>
+    <t>CITIZEN_HELP_TEXT</t>
+  </si>
+  <si>
+    <t>A citizen has come forward saying that they can provide information</t>
+  </si>
+  <si>
+    <t>Ask citizen for information</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_6</t>
+  </si>
+  <si>
+    <t>Woman has been reported missing from her home</t>
+  </si>
+  <si>
+    <t>Officer sent to investigate and finds more information about the woman, and gets a recent photo</t>
+  </si>
+  <si>
+    <t>Photo uploaded to INSPEC2T app, a member of the public has informed local police she saw her on top of a bus stop</t>
+  </si>
+  <si>
+    <t>Officers locate the missing woman and take her to hospital for a checkup, she later returned home and is now safe</t>
+  </si>
+  <si>
+    <t>Officers search a larger area and eventually find the woman and return her to her home</t>
+  </si>
+  <si>
+    <t>Body has been found in a river and has been identified as the missing person</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_11</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_12</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_13</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_INDEX_14</t>
+  </si>
+  <si>
+    <t>Reports of someone moving a wheelie bin</t>
+  </si>
+  <si>
+    <t>The 2 neighbours have started a verbal argument outside the property</t>
+  </si>
+  <si>
+    <t>Reported that one of the neighbours has assaulted the other outside the property</t>
+  </si>
+  <si>
+    <t>A man has been stabbed and is slumped next to the wheelie bin</t>
+  </si>
+  <si>
+    <t>Member of the public provides photographic evidence of man with a mechete using the INSPEC2T app</t>
+  </si>
+  <si>
+    <t>A citizen has informed the police that he saw which person assaulted the other</t>
+  </si>
+  <si>
+    <t>Issue dissolves itself and is no longer a problem</t>
+  </si>
+  <si>
+    <t>The officer has managed to stop the incident from developing, both neighbours have agreed to ignore the incident</t>
+  </si>
+  <si>
+    <t>The officer has calmed down the two neighbours and the verbal abuse stops</t>
+  </si>
+  <si>
+    <t>The officer manages to break up the fight and send the two neighbours on their way</t>
+  </si>
+  <si>
+    <t>Man has been left on the street until paramedics arrive, no arrests made, general public happiness decreases</t>
+  </si>
+  <si>
+    <t>Offender has been arrested by police after finding him in a shed nearby</t>
+  </si>
+  <si>
+    <t>Officers clean up and a man is arrested for the assault</t>
+  </si>
+  <si>
+    <t>Using citizen information, the officers manage to locate the man and arrest him</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +614,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,13 +663,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,1367 +958,1725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="49.15625" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" customWidth="1"/>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <f>COUNTIF(A1:A10006,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <f>B2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>B2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>B2</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f>COUNTIF(A1:A10006,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f>B6</f>
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f>B6</f>
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f>B6</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f>COUNTIF(A1:A10006,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:C42" si="0">B11</f>
         <v>6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" ref="D11:D42" si="1">B11</f>
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" ref="E11:E42" si="2">B11</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f>COUNTIF(A1:A10006,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f>COUNTIF(A1:A10006,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f>COUNTIF(A1:A10006,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f>COUNTIF(A1:A10006,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f>COUNTIF(A1:A10006,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f>COUNTIF(A1:A10006,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f>COUNTIF(A1:A10006,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="B78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="196">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -594,6 +594,24 @@
   </si>
   <si>
     <t>Using citizen information, the officers manage to locate the man and arrest him</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_LOCATION</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_STATUS</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -958,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -996,7 +1014,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIF(A1:A10006,"*LOITERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="3">
@@ -1068,7 +1086,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTIF(A1:A10006,"*LITTERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -1157,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNTIF(A1:A10006,"*NOISECOMPLAINT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
       <c r="C11" s="2">
@@ -1280,7 +1298,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="2">
-        <f>COUNTIF(A1:A10006,"*LANDARGUMENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C18" s="2">
@@ -1352,7 +1370,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <f>COUNTIF(A1:A10006,"*DISCRIMINATION_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
       <c r="C22" s="2">
@@ -1390,7 +1408,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2">
-        <f>COUNTIF(A1:A10006,"*DOMESTICABUSE_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C24" s="2">
@@ -1445,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2">
-        <f>COUNTIF(A1:A10006,"*ASSAULT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
       <c r="C27" s="2">
@@ -1551,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2">
-        <f>COUNTIF(A1:A10006,"*MULTIPLEASSAULTS_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C33" s="2">
@@ -1623,7 +1641,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="2">
-        <f>COUNTIF(A1:A10006,"*TRAFFICINCIDENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C37" s="2">
@@ -1712,7 +1730,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <f>COUNTIF(A1:A10006,"*FATALITY_TEXT_*")</f>
+        <f>COUNTIF(A1:A10009,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C42" s="2">
@@ -2342,61 +2360,61 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
@@ -2410,61 +2428,61 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
@@ -2478,10 +2496,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
@@ -2495,10 +2513,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
@@ -2510,12 +2528,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -2529,10 +2547,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -2546,10 +2564,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -2563,10 +2581,10 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
@@ -2580,10 +2598,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>33</v>
@@ -2595,12 +2613,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>33</v>
@@ -2614,10 +2632,10 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
@@ -2631,52 +2649,103 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="198">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TYPE</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -976,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1014,7 +1020,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIF(A1:A10009,"*LOITERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="3">
@@ -1086,7 +1092,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTIF(A1:A10009,"*LITTERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -1175,7 +1181,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNTIF(A1:A10009,"*NOISECOMPLAINT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
       <c r="C11" s="2">
@@ -1298,7 +1304,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="2">
-        <f>COUNTIF(A1:A10009,"*LANDARGUMENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C18" s="2">
@@ -1370,7 +1376,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <f>COUNTIF(A1:A10009,"*DISCRIMINATION_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
       <c r="C22" s="2">
@@ -1408,7 +1414,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2">
-        <f>COUNTIF(A1:A10009,"*DOMESTICABUSE_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C24" s="2">
@@ -1463,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2">
-        <f>COUNTIF(A1:A10009,"*ASSAULT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
       <c r="C27" s="2">
@@ -1569,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2">
-        <f>COUNTIF(A1:A10009,"*MULTIPLEASSAULTS_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C33" s="2">
@@ -1641,7 +1647,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="2">
-        <f>COUNTIF(A1:A10009,"*TRAFFICINCIDENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C37" s="2">
@@ -1730,7 +1736,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <f>COUNTIF(A1:A10009,"*FATALITY_TEXT_*")</f>
+        <f>COUNTIF(A1:A10010,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C42" s="2">
@@ -2377,10 +2383,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
@@ -2394,10 +2400,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>33</v>
@@ -2411,27 +2417,27 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>33</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>33</v>
@@ -2462,10 +2468,10 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>33</v>
@@ -2479,27 +2485,27 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
@@ -2513,10 +2519,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
@@ -2530,10 +2536,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -2547,10 +2553,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -2564,44 +2570,44 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>33</v>
@@ -2615,61 +2621,61 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
@@ -2683,27 +2689,27 @@
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
@@ -2717,10 +2723,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>33</v>
@@ -2734,18 +2740,35 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -425,9 +425,6 @@
     <t>Officers required</t>
   </si>
   <si>
-    <t>Citizen Happines</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_CITIZEN_HAPPINESS</t>
   </si>
   <si>
@@ -470,12 +467,6 @@
     <t>CITIZEN_HELP_TEXT</t>
   </si>
   <si>
-    <t>A citizen has come forward saying that they can provide information</t>
-  </si>
-  <si>
-    <t>Ask citizen for information</t>
-  </si>
-  <si>
     <t>SCENARIO_1_INDEX_1</t>
   </si>
   <si>
@@ -618,6 +609,15 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Citizens may be able to help in this case</t>
+  </si>
+  <si>
+    <t>Citizen Satisfaction</t>
+  </si>
+  <si>
+    <t>Ask citizens for help!</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1876,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>33</v>
@@ -1893,7 +1893,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
@@ -1927,7 +1927,7 @@
         <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>33</v>
@@ -1944,7 +1944,7 @@
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>33</v>
@@ -1961,7 +1961,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -2199,7 +2199,7 @@
         <v>119</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>33</v>
@@ -2216,7 +2216,7 @@
         <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>33</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>33</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>33</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>33</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>33</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
@@ -2400,10 +2400,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>33</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>33</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>33</v>
@@ -2468,10 +2468,10 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>33</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>33</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>33</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>33</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>33</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>33</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>33</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>33</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="200">
   <si>
     <t>A group of people have been reported loitering in {0} area</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>Ask citizens for help!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TRY_AGAIN</t>
+  </si>
+  <si>
+    <t>Try Again</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1020,7 +1026,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIF(A1:A10010,"*LOITERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*LOITERING_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C2" s="3">
@@ -1092,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTIF(A1:A10010,"*LITTERING_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*LITTERING_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -1181,7 +1187,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="2">
-        <f>COUNTIF(A1:A10010,"*NOISECOMPLAINT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*NOISECOMPLAINT_TEXT_*")</f>
         <v>6</v>
       </c>
       <c r="C11" s="2">
@@ -1304,7 +1310,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="2">
-        <f>COUNTIF(A1:A10010,"*LANDARGUMENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*LANDARGUMENT_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C18" s="2">
@@ -1376,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <f>COUNTIF(A1:A10010,"*DISCRIMINATION_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*DISCRIMINATION_TEXT_*")</f>
         <v>1</v>
       </c>
       <c r="C22" s="2">
@@ -1414,7 +1420,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="2">
-        <f>COUNTIF(A1:A10010,"*DOMESTICABUSE_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*DOMESTICABUSE_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C24" s="2">
@@ -1469,7 +1475,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="2">
-        <f>COUNTIF(A1:A10010,"*ASSAULT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*ASSAULT_TEXT_*")</f>
         <v>5</v>
       </c>
       <c r="C27" s="2">
@@ -1575,7 +1581,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2">
-        <f>COUNTIF(A1:A10010,"*MULTIPLEASSAULTS_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*MULTIPLEASSAULTS_TEXT_*")</f>
         <v>3</v>
       </c>
       <c r="C33" s="2">
@@ -1647,7 +1653,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="2">
-        <f>COUNTIF(A1:A10010,"*TRAFFICINCIDENT_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*TRAFFICINCIDENT_TEXT_*")</f>
         <v>4</v>
       </c>
       <c r="C37" s="2">
@@ -1736,7 +1742,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <f>COUNTIF(A1:A10010,"*FATALITY_TEXT_*")</f>
+        <f>COUNTIF(A1:A10011,"*FATALITY_TEXT_*")</f>
         <v>2</v>
       </c>
       <c r="C42" s="2">
@@ -1873,10 +1879,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>33</v>
@@ -1890,10 +1896,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>33</v>
@@ -1907,10 +1913,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>33</v>
@@ -1924,10 +1930,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>33</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>33</v>
@@ -1958,10 +1964,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>33</v>
@@ -1975,10 +1981,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>33</v>
@@ -1992,10 +1998,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>33</v>
@@ -2009,10 +2015,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>33</v>
@@ -2026,10 +2032,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>33</v>
@@ -2043,10 +2049,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>33</v>
@@ -2060,10 +2066,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>33</v>
@@ -2077,10 +2083,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
@@ -2094,10 +2100,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>33</v>
@@ -2111,10 +2117,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>33</v>
@@ -2128,10 +2134,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>33</v>
@@ -2145,10 +2151,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>33</v>
@@ -2162,10 +2168,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>33</v>
@@ -2179,10 +2185,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>33</v>
@@ -2196,44 +2202,44 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>33</v>
@@ -2264,10 +2270,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>33</v>
@@ -2281,10 +2287,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>33</v>
@@ -2298,10 +2304,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>33</v>
@@ -2315,10 +2321,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>33</v>
@@ -2332,10 +2338,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
@@ -2349,10 +2355,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>33</v>
@@ -2366,10 +2372,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>33</v>
@@ -2383,10 +2389,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>33</v>
@@ -2400,10 +2406,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>33</v>
@@ -2417,10 +2423,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
@@ -2434,27 +2440,27 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>33</v>
@@ -2468,10 +2474,10 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>33</v>
@@ -2485,10 +2491,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>33</v>
@@ -2502,27 +2508,27 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
@@ -2536,10 +2542,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>33</v>
@@ -2553,10 +2559,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>33</v>
@@ -2570,10 +2576,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -2587,44 +2593,44 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>33</v>
@@ -2638,61 +2644,61 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -2706,27 +2712,27 @@
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>33</v>
@@ -2740,10 +2746,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -2757,18 +2763,35 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -419,9 +419,6 @@
     <t>TUTORIAL_TEXT_OFFICERS</t>
   </si>
   <si>
-    <t>The officer indicatior informs you how many officers are available and how many turns until officers in the field return</t>
-  </si>
-  <si>
     <t>TUTORIAL_TEXT_INFORMATION</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>Each case will need a number of officers to attend  for a set number of turns</t>
+  </si>
+  <si>
+    <t>The officer indicator informs you how many officers are available and how many turns until officers in the field return and become available again</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1865,7 +1865,7 @@
         <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t>XXXX</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>The officer indicator informs you how many officers are available and how many turns until officers in the field return and become available again</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_IGNORE_WARNING</t>
+  </si>
+  <si>
+    <t>WARNING! Selecting wait will cause the case to expire, reducing citizen satisfaction</t>
   </si>
 </sst>
 </file>
@@ -773,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1469,29 +1475,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -1505,10 +1511,10 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -1522,10 +1528,10 @@
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -1539,27 +1545,27 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -1573,10 +1579,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -1590,10 +1596,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -1607,10 +1613,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -1624,44 +1630,44 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -1675,61 +1681,61 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -1743,27 +1749,27 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -1777,10 +1783,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -1794,10 +1800,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -1811,27 +1817,27 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -1845,10 +1851,10 @@
     </row>
     <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -1862,10 +1868,10 @@
     </row>
     <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -1879,44 +1885,44 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -1930,18 +1936,35 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="StringLocalizations" sheetId="3" r:id="rId1"/>
+    <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
+    <sheet name="StringLocalizations_Belfast" sheetId="4" r:id="rId2"/>
+    <sheet name="StringLocalizations_Nicosia" sheetId="5" r:id="rId3"/>
+    <sheet name="StringLocalizations_Groningen" sheetId="6" r:id="rId4"/>
+    <sheet name="StringLocalizations_Valencia" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="142">
   <si>
     <t>XXXX</t>
   </si>
@@ -781,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1972,4 +1976,4788 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="146">
   <si>
     <t>XXXX</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>WARNING! Selecting wait will cause the case to expire, reducing citizen satisfaction</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_GO</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>WELCOME_SCREEN_SET_LOCATION</t>
+  </si>
+  <si>
+    <t>Please set your location below to get the best experience!</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,1238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1073,10 +2316,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1090,10 +2333,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1107,10 +2350,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -1124,10 +2367,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -1141,10 +2384,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -1158,10 +2401,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -1175,10 +2418,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -1192,10 +2435,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -1209,10 +2452,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -1226,10 +2469,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -1243,44 +2486,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1294,10 +2537,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -1311,10 +2554,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -1328,10 +2571,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -1345,10 +2588,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -1362,10 +2605,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -1379,10 +2622,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -1396,10 +2639,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -1413,10 +2656,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -1430,10 +2673,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -1447,10 +2690,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -1464,78 +2707,78 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -1549,10 +2792,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -1566,44 +2809,44 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -1617,10 +2860,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -1634,10 +2877,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -1651,10 +2894,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -1666,12 +2909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -1685,44 +2928,44 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -1736,10 +2979,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -1753,61 +2996,61 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -1821,10 +3064,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -1838,44 +3081,44 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -1889,10 +3132,10 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -1906,10 +3149,10 @@
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -1921,12 +3164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -1940,47 +3183,80 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -2270,10 +3546,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -2287,10 +3563,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -2304,10 +3580,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -2321,10 +3597,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -2338,10 +3614,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -2355,10 +3631,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -2372,10 +3648,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -2389,10 +3665,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2406,10 +3682,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2423,10 +3699,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2440,44 +3716,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -2491,10 +3767,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2508,10 +3784,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2525,10 +3801,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2542,10 +3818,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -2559,10 +3835,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2576,10 +3852,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2593,10 +3869,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2610,10 +3886,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2627,10 +3903,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2644,10 +3920,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2661,78 +3937,78 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2746,10 +4022,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -2763,44 +4039,44 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -2814,10 +4090,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -2831,10 +4107,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -2848,10 +4124,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -2863,12 +4139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -2882,44 +4158,44 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -2933,10 +4209,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -2950,61 +4226,61 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -3018,10 +4294,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -3035,44 +4311,44 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -3086,10 +4362,10 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -3103,10 +4379,10 @@
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -3118,12 +4394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -3137,35 +4413,69 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3174,9 +4484,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3466,10 +4776,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -3483,10 +4793,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -3500,10 +4810,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -3517,10 +4827,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -3534,10 +4844,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -3551,10 +4861,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -3568,10 +4878,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -3585,10 +4895,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -3602,10 +4912,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -3619,10 +4929,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -3636,44 +4946,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -3687,10 +4997,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -3704,10 +5014,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -3721,10 +5031,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -3738,10 +5048,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -3755,10 +5065,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -3772,10 +5082,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -3789,10 +5099,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -3806,10 +5116,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -3823,10 +5133,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -3840,10 +5150,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -3857,78 +5167,78 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -3942,10 +5252,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -3959,44 +5269,44 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -4010,10 +5320,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -4027,10 +5337,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -4044,10 +5354,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -4059,12 +5369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -4078,44 +5388,44 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -4129,10 +5439,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -4146,61 +5456,61 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -4214,10 +5524,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -4231,44 +5541,44 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -4282,10 +5592,10 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -4299,10 +5609,10 @@
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -4314,12 +5624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -4333,35 +5643,69 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4370,9 +5714,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -4662,10 +6006,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -4679,10 +6023,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -4696,10 +6040,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4713,10 +6057,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -4730,10 +6074,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4747,10 +6091,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4764,10 +6108,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4781,10 +6125,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4798,10 +6142,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4815,10 +6159,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4832,44 +6176,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -4883,10 +6227,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -4900,10 +6244,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -4917,10 +6261,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -4934,10 +6278,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -4951,10 +6295,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -4968,10 +6312,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -4985,10 +6329,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -5002,10 +6346,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5019,10 +6363,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -5036,10 +6380,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -5053,78 +6397,78 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -5138,10 +6482,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5155,44 +6499,44 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -5206,10 +6550,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5223,10 +6567,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5240,10 +6584,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5255,12 +6599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5274,44 +6618,44 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -5325,10 +6669,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5342,61 +6686,61 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -5410,10 +6754,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -5427,44 +6771,44 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -5478,10 +6822,10 @@
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -5495,10 +6839,10 @@
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -5510,12 +6854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -5529,1231 +6873,69 @@
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="413">
   <si>
     <t>XXXX</t>
   </si>
@@ -466,13 +466,1044 @@
   </si>
   <si>
     <t>Please set your location below to get the best experience!</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_6</t>
+  </si>
+  <si>
+    <t>Report of a young female running through the city centre partially clothed and appears distressed.</t>
+  </si>
+  <si>
+    <t>Resolution due to delay in rape being reported vital evidence is lost no arrests made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer eventually locates female who discloses that she has been raped. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait to start rape investigation leading to evidence being lost and although suspect arrested not enough evidence to secure a charge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information allows officers to locate female quickly who discloses that she has been raped </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rape investigation conducted and offender identified and arrested </t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_5</t>
+  </si>
+  <si>
+    <t>Report of a vehicle being park in an inconsiderate manner on a residential street.</t>
+  </si>
+  <si>
+    <t>Patrol attends and fines that vehicle is not causing an obstruction &amp; cannot do anything refers the matter to council parking services.</t>
+  </si>
+  <si>
+    <t>Information allows dispatch to determine that the matter is not a police one &amp; issue is referred to council parking services.</t>
+  </si>
+  <si>
+    <t>Public are asking for police to dispatch officers to the location</t>
+  </si>
+  <si>
+    <t>Information allows dispatch to determine that the matter is not a police one &amp; issue is referred to council parking services. However due to the delay in resolving matter confidence is lost.</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_7</t>
+  </si>
+  <si>
+    <t>Report of a disabled female in a wheelchair being verbally abused by a young male in the street, there are no cctv cameras in the area.</t>
+  </si>
+  <si>
+    <t>Due to lack of deployment not enough evidence can be obtained to identify &amp; prosecute the offender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer attends and take statement from victim and witnesses. Using information suspect is identified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrest the suspect, using victim &amp; witness statements suspect is successfully prosecuted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspect eventually arrested and successfully prosecuted at the cost of public confidence </t>
+  </si>
+  <si>
+    <t>Information allows officers to quickly identify the suspect who is arrested a short distance away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspect is successfully prosecuted </t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_INDEX_8</t>
+  </si>
+  <si>
+    <t>Report of two homeless males fighting over a bottle of wine in the city centre.</t>
+  </si>
+  <si>
+    <t>Fight escalates resulting in one of the males smashing the bottle and stabbing the other.</t>
+  </si>
+  <si>
+    <t>Victim bleeds out &amp; dies due to lack of deployment</t>
+  </si>
+  <si>
+    <t>Deploy officers, arrest the offender. Due to the severity of the injury a scene is identified and officers allocated to staff it awaiting CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensic evidence allows offender to be successfully prosecuted </t>
+  </si>
+  <si>
+    <t>Information allows officers to identify which of the males was the aggressor. Officer attends and arrests aggressor thus preventing situation escalating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressor is successfully prosecuted </t>
+  </si>
+  <si>
+    <t>Officer attends and defuses the situation before it gets out of hand however unable to identify who was the aggressor. Both males warned and go their separate ways</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_11</t>
+  </si>
+  <si>
+    <t>Report from a drunk male stating that he has been assaulted inside a busy nightclub. Male refuses an ambulance as he is not seriously injured.</t>
+  </si>
+  <si>
+    <t>Drunk male becomes aggressive with doorstaff and tries picking a fight</t>
+  </si>
+  <si>
+    <t>Drunk male has started attacking a member of doorstaff</t>
+  </si>
+  <si>
+    <t>Deploy an officer, male is arrested for assault after attacking a member of doorstaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male is successfully prosecuted however still wants to report assault inside the club </t>
+  </si>
+  <si>
+    <t>Male reporting assault inside the club is unable to provide full information and no further arrests can be made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy an officer male is arrested for drunk &amp; disorderly however still wanting to report assault once sober in the morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to drunken state male isn’t able to provide full information and no arrests can be made </t>
+  </si>
+  <si>
+    <t>Drunk male becomes aggressive with officers which results in him being arrested disorderly however still wanting to report assault once sober in the morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information allows officers to identify a suspect and make an arrest </t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_8</t>
+  </si>
+  <si>
+    <t>Report of a group of 10-15 youths gathering outside a fast food restaurant causing a nuisance</t>
+  </si>
+  <si>
+    <t>Officer attends resolves current problem but fails to address long term issues.</t>
+  </si>
+  <si>
+    <t>Information leads to finding identity of youths and reason for them causing problems</t>
+  </si>
+  <si>
+    <t>Officer attends, resolves current issue &amp; long term issues.</t>
+  </si>
+  <si>
+    <t>Nuisance escalates into criminal damage leading to window being smashed.</t>
+  </si>
+  <si>
+    <t>Groups behaviour escalates further &amp; staff member gets assaulted whilst challenging them</t>
+  </si>
+  <si>
+    <t>Offenders identified and arrested</t>
+  </si>
+  <si>
+    <t>Due to time taken key evidence is lost meaning arrests cannot be made</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_6</t>
+  </si>
+  <si>
+    <t>Report of an elderly male being found in a confused state by staff on the train station.</t>
+  </si>
+  <si>
+    <t>Officer attend and discovers that male has been reported missing</t>
+  </si>
+  <si>
+    <t>Officer returns male to family address &amp; submits reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male is eventually returned home however becomes increasingly distressed during the wait and requires officer to spend additional time calming him down </t>
+  </si>
+  <si>
+    <t>Officer calms down the elderly man who was distressed</t>
+  </si>
+  <si>
+    <t>Information obtained identify man as a missing person</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_3</t>
+  </si>
+  <si>
+    <t>Report of a collision between two vehicles on a busy road, report states that no persons are injured.</t>
+  </si>
+  <si>
+    <t>Report resolved without police deployment. Slight lose of happiness.</t>
+  </si>
+  <si>
+    <t>Officer attends no offences have taken place advices both parties to exchange details. Report resolved</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_6</t>
+  </si>
+  <si>
+    <t>Report of a collision involving two vehicles on a busy road, report is unable to give a specific junction &amp; states that one of the drivers is complaining of neck pain.</t>
+  </si>
+  <si>
+    <t>Delay in reporting causes problems with congestion leading to several incidents of road rage.</t>
+  </si>
+  <si>
+    <t>Officers attend &amp; closes part of the road and take details. One of the drivers smells of alcohol.</t>
+  </si>
+  <si>
+    <t>Driver successfully charged with drink driving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 driver arrested at scene but wait until additional resources are available to transport into custody </t>
+  </si>
+  <si>
+    <t>Driver eventually transported to custody, due to delay in driver getting into custody alcohol level reduced and driver released without being charged</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_5</t>
+  </si>
+  <si>
+    <t>Report of a shoplifter being detained by security staff at a large retailer</t>
+  </si>
+  <si>
+    <t>Male becomes aggressive and runs away from security, assaulting them in the process</t>
+  </si>
+  <si>
+    <t>Male eventually arrested and prosecuted for theft and assault</t>
+  </si>
+  <si>
+    <t>Due to delay in deployment key evidence is lost &amp; prosecution no longer possible</t>
+  </si>
+  <si>
+    <t>Information reveals that shoplifter has never been in trouble previously and can issued a fixed penalty for the theft. Report concluded</t>
+  </si>
+  <si>
+    <t>A neighbor complains about noise from nearby house</t>
+  </si>
+  <si>
+    <t>A neighbor's dog is barking</t>
+  </si>
+  <si>
+    <t>As a result of the fight a woman is screaming out of her lungs to her husband regarding a difference they had related to their child.</t>
+  </si>
+  <si>
+    <t>A citizen reports that a kid is heard crying produsely from the back side of the house looking through the slightly open door</t>
+  </si>
+  <si>
+    <t>As soon as the parents realise the absense of the kid they decide to file a report through the INSPEC2T app.</t>
+  </si>
+  <si>
+    <t>The woman rushes out of the house gets in the car and starts looking for the kid; she is in panic mode and drives recklessly. As a result she hits an electricity pillar</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_11</t>
+  </si>
+  <si>
+    <t>The police surrounds the area to avoid any chances of electrocution or the generation of fire</t>
+  </si>
+  <si>
+    <t>returned to the nearby police station</t>
+  </si>
+  <si>
+    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. None of the parents wanted to file the incident.</t>
+  </si>
+  <si>
+    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. However the officer needed to transfer the child to the social services and ensure that everything is ok</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_12</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_13</t>
+  </si>
+  <si>
+    <t>Officers find the kid and they immediately contact hs parents</t>
+  </si>
+  <si>
+    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by citizens</t>
+  </si>
+  <si>
+    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by officers</t>
+  </si>
+  <si>
+    <t>A citizen reported littering in around his neighbourhood. His newly moved neighbors do not seem to respect others' space</t>
+  </si>
+  <si>
+    <t>The citizen's trust in police is decreased</t>
+  </si>
+  <si>
+    <t>A citizen reported littering in around his neighbourhood for the second time</t>
+  </si>
+  <si>
+    <t>The two neighbours are involved in an argument</t>
+  </si>
+  <si>
+    <t>The argument escalated on a fight which required the intervention of the police. The two neighbours seem to be unfriendly with each other with the issue between them still unresolved</t>
+  </si>
+  <si>
+    <t>A police officer resolves the issue and the two neighbours restored their trust in police and managed to build a strong relationship</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_INDEX_8</t>
+  </si>
+  <si>
+    <t>A citizen reported that her dog got sick after their walk around the neighbourhood and claimed the existence of pet poison around the area</t>
+  </si>
+  <si>
+    <t>Multiple citizens reported the existense of pet poison through the use of the INSPEC2T app. Some of them also associated the event with a number of locations. Thanks to the spatiotemporal processing in INSPEC2T. The system suggested the correlation of some reports and provided an estimation of the location.</t>
+  </si>
+  <si>
+    <t>Thanks to system indications and the contribution of citizens the officer managed to find and remove the poison within the area</t>
+  </si>
+  <si>
+    <t>The officers spent a long time on this but it paid off. They have managed to identify the poison and cleared the area.</t>
+  </si>
+  <si>
+    <t>Broadcasted a message to the area and urged anyone knowing anything about the event to contact the police or file a report. The case is not closed until the perpetrator is found</t>
+  </si>
+  <si>
+    <t>Multiple citizens provided key information to the police about a person that seems to be responsible for putting the poison to the area</t>
+  </si>
+  <si>
+    <t>The suspect is being arrested and is sent for questioning</t>
+  </si>
+  <si>
+    <t>The public seems to be losing trust in the police. They feel that the system does not work and get discouraged in providing input in the future</t>
+  </si>
+  <si>
+    <t>Youth group making graffiti</t>
+  </si>
+  <si>
+    <t>The group makes more damage by throwing stones to the windows of the library</t>
+  </si>
+  <si>
+    <t>When the patrol arrives, the group escapes</t>
+  </si>
+  <si>
+    <t>The patrol localizes one suspect, but is not sure that is implicated</t>
+  </si>
+  <si>
+    <r>
+      <t>A citizen sends in a recording of the incident via the INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T app</t>
+    </r>
+  </si>
+  <si>
+    <t>The supervisor recognizes one of the teenagers as a user of the library, making possible to catch the group</t>
+  </si>
+  <si>
+    <t>Two drug-addicts are injecting heroine near the school</t>
+  </si>
+  <si>
+    <t>One of the fathers reprimands for their actions and starts arguing. He gets injured.</t>
+  </si>
+  <si>
+    <t>A school-boy founds the syringe used by drug-addicts and pinches himself with a needle.</t>
+  </si>
+  <si>
+    <t>A witness records drug-addicts and the place where they leave their syringes</t>
+  </si>
+  <si>
+    <t>Drug-addicts are identified, fined and the syringes are localized</t>
+  </si>
+  <si>
+    <t>The injured receive medical assistance; one of the drug-addicts is arrested for the result of his aggression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the drag-addicts is identified, but the other one tries to run, throwing away the syringes. </t>
+  </si>
+  <si>
+    <t>Two cars had an accident inside of the tunnel. The drivers started an argument</t>
+  </si>
+  <si>
+    <t>Other drivers are inattentive watching the scene; and another accident happen, this time with serious injuries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the injured dies without having been attended. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The incident is reported, seriously wounded are taken to the hospital. One of the culprits runs. </t>
+  </si>
+  <si>
+    <t>The incident is reported, the traffic is brought back to normal, but one of the drivers involved managed to run.</t>
+  </si>
+  <si>
+    <t>The incident is reported the victims are taken to the hospital if necessary, the traffic is brought back to normal, but one of the of the drivers involved ran and there was one death.</t>
+  </si>
+  <si>
+    <t>The accident is taken care of and however one of the drivers ran, it was possible to localize him knowing license plate numbers of his car</t>
+  </si>
+  <si>
+    <r>
+      <t>One of the witnesses shares a photo of the incident with plates of the vehicles involved via INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.</t>
+    </r>
+  </si>
+  <si>
+    <t>Grupo de jóvenes haciendo grafitis</t>
+  </si>
+  <si>
+    <t>El encargado de la biblioteca no puede ser localizado</t>
+  </si>
+  <si>
+    <t>El grupo causa más daños lanzando piedras a las ventanas de la biblioteca</t>
+  </si>
+  <si>
+    <t>Cuando las patrullas llegan, el grupo escapa</t>
+  </si>
+  <si>
+    <t>La patrulla localiza a un sospechoso, pero no es seguro que esté implicado</t>
+  </si>
+  <si>
+    <t>El supervisor reconoce a uno de los jóvenes como usuario de la biblioteca, haciendo posible identificar al resto del grupo</t>
+  </si>
+  <si>
+    <t>Dos toxicómanos inyectándose heroína junto a un colegio</t>
+  </si>
+  <si>
+    <t>El padre de un alumno les reprocha su actitud y se inicia una pelea. Es herido</t>
+  </si>
+  <si>
+    <t>Un menor escolar se pincha con una aguja de una jeringuilla de los toxicómanos</t>
+  </si>
+  <si>
+    <t>Un testigo graba a los toxicómanos y dónde dejan las jeringuillas</t>
+  </si>
+  <si>
+    <t>Los toxicómanos son identificados y multados y las jeringuillas localizadas</t>
+  </si>
+  <si>
+    <t>Los heridos son atendidos y uno de los toxicómanos es detenidos por el resultado de la agresión</t>
+  </si>
+  <si>
+    <t>Uno de los toxicómanos es identificado pero el otro emprende la huida, tirando la jeringuill</t>
+  </si>
+  <si>
+    <t>Accidente entre dos turismos en el interior de un túnel. Los conductores se enzarzan en una discusión.</t>
+  </si>
+  <si>
+    <t>Debido al efecto “mirón”, se produce otro accidente, esta vez con heridos graves.</t>
+  </si>
+  <si>
+    <t>Uno de los heridos fallece al no ser atendido urgentemente</t>
+  </si>
+  <si>
+    <t>Se instruye atestado y varios heridos graves son trasladados al hospital. Fuga de uno de los implicados en el accidente.</t>
+  </si>
+  <si>
+    <t>Se instruye atestado y se normaliza el tráfico, pero una unidad implicada en el accidente ha huido.</t>
+  </si>
+  <si>
+    <t>Se instruye atestado, se atiende a los heridos y se normaliza el tráfico, pero una unidad implicada en el accidente ha huido y hay un fallecido.</t>
+  </si>
+  <si>
+    <t>Se logra atender el accidente, y pese a que un conductor ha huido, es localizado a través de la placa de matrícula de su vehículo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Un ciudadano envía una grabación a través de la App de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Un conductor testigo de los hechos comparte a través de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T una foto con la matrícula de los vehículos implicados.</t>
+    </r>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_7</t>
+  </si>
+  <si>
+    <t>A group of young people is drinking alcohol in residential area with the music blasting from one of their cars</t>
+  </si>
+  <si>
+    <t>Upon seeing the patrol, they turn the music down. One of the vehicles tries to flee</t>
+  </si>
+  <si>
+    <t>A taxi driver is returning home sees the situation and reprimands the culprits, which causes a fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The claimant has photos of the whole situation and of license plates of cars involved taken. </t>
+  </si>
+  <si>
+    <t>The police is able to intercept the fled vehicle and detains the driver for previous charges. The others, though, go on consuming alcohol and blasting music</t>
+  </si>
+  <si>
+    <t>The fight was stopped, but two officers had been injured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They could intercept the fled car and detain the driver. Thanks to the INSPEC2T they manage to find the rest of the group. </t>
+  </si>
+  <si>
+    <t>SCENARIO_5_INDEX_8</t>
+  </si>
+  <si>
+    <t>A man hits his wife in presence of their child.</t>
+  </si>
+  <si>
+    <t>The victim and the minor receive assistance from the CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aggressor takes the minor somewhere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace the aggressor, but not provide the victim with proper medical assistance. </t>
+  </si>
+  <si>
+    <t>They provide medical assistance for the victim and her child. The police couldn´t find the aggressor</t>
+  </si>
+  <si>
+    <t>Guarantee medical assistance for the victim and prevent the aggression against the minor due to his prompt localization.</t>
+  </si>
+  <si>
+    <r>
+      <t>Via INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T a witness uploads the recording of the escape of the aggressor and his location</t>
+    </r>
+  </si>
+  <si>
+    <t>They are able to localize the minor, but he is injured and his mother has irreversible head injuries since she never was given medical assistance</t>
+  </si>
+  <si>
+    <t>The owner of the dog was injured while trying to stop the fight between his dog and another one on the dog beach</t>
+  </si>
+  <si>
+    <t>After having searched the area, the police wasn’t able to find neither the aggressor dog, nor his owner.</t>
+  </si>
+  <si>
+    <t>They provided medical assistance for the injured person. The aggressor dog is still being sought. The injured dog dies</t>
+  </si>
+  <si>
+    <t>The aggressor dog is still being sought, but the injured person and his dog receive medical assistance on time</t>
+  </si>
+  <si>
+    <t>The injured person received medical assistance, the wounded dog was saved and due to the photo that added to the verbal description provided, the police was able to localize the owner of the aggressor dog with his pet</t>
+  </si>
+  <si>
+    <t>In the surrounding area of the Mestalla football stadium broke windows and robbed from the inside few vehicles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide deterrent police presence and help and guidance for victims. </t>
+  </si>
+  <si>
+    <t>A witness shares through INSPEC2T the picture of a suspect who he has seen trying to force the lock of the vehicle.</t>
+  </si>
+  <si>
+    <t>New robberies in another area occurred, one of them with physical violence. The suspect is still missing</t>
+  </si>
+  <si>
+    <t>The author of the robberies is found and more damages are avoided. The owners of the damaged vehicles aren’t attended or advised</t>
+  </si>
+  <si>
+    <t>The affected people are attended; however the thief is missing</t>
+  </si>
+  <si>
+    <r>
+      <t>Via INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T a swimmer shares a panoramic photo of the area. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The police officer that coordinates theINSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T compares the information from the ID from the wallet with the photo of the suspect and deduces that this is the same man. Later he found and detained due to the photos and documents..</t>
+    </r>
+  </si>
+  <si>
+    <t>Un grupo de jóvenes se encuentra con sus vehículos en zona residencial con la música alta y bebiendo alcohol</t>
+  </si>
+  <si>
+    <t>Un taxista que finaliza su turno de trabajo les llama la atención  y se inicia una pelea</t>
+  </si>
+  <si>
+    <t>El reclamante ha grabado la escena y posee imágenes de las matrículas de los  vehículos  que se encuentran allí</t>
+  </si>
+  <si>
+    <t>Se logra interceptar al vehículo fugado y se detiene a su conductor al tener antecedentes. El resto de los jóvenes vuelve a poner música y consumir alcohol</t>
+  </si>
+  <si>
+    <t>Se intercede en la pelea con el resultado de varios heridos</t>
+  </si>
+  <si>
+    <t>Se logra interceptar al vehículo fugado y se detiene a su conductor al tener antecedentes. El resto del grupo es localizado a posteriori gracias a INSPEC2T</t>
+  </si>
+  <si>
+    <t>Un varón golpea a su pareja en presencia del hijo de ambos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención a la víctima y al menor por parte del PB de la zona </t>
+  </si>
+  <si>
+    <t>El agresor se lleva al menor del lugar</t>
+  </si>
+  <si>
+    <t>Localización del agresor pero asistencia de la víctima deficiente</t>
+  </si>
+  <si>
+    <t>El menor ha sido localizado pero presenta lesiones de consideración, y la madre ha sufrido daños irreversibles por la demora en su atención sanitaria</t>
+  </si>
+  <si>
+    <t>No se localiza al agresor pero se atiende a las víctimas</t>
+  </si>
+  <si>
+    <t>Atención adecuada de la víctima y prevención de la agresión al menor al ser localizado con prontitud.</t>
+  </si>
+  <si>
+    <t>El dueño de un can ha sufrido heridas al interceder en una pelea entre su perro y otro, en la zona de baño para animales de la playa</t>
+  </si>
+  <si>
+    <t>Tras realizar batidas por la zona no se consigue localizar al perro agresor ni a su dueño</t>
+  </si>
+  <si>
+    <t>Se atiende a la persona lesionada y no se localiza al perro agresor. El perro agredido fallece.</t>
+  </si>
+  <si>
+    <t>No se localiza al perro agresor pero la víctima es tratada y el perro herido es tratado a tiempo y no fallece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto la persona que ha sufrido  el mordisco como su perro son atendidos a tiempo y gracias a la imagen compartida se logra contrastar la descripción verbal de los testigos , capturándose acto seguido al dueño y a su perro. </t>
+  </si>
+  <si>
+    <t>dEn la zona de estacionamiento contigua al estadio de fútbol de Mestalla varios vehículos han sufrido robo de enseres por el 
+método de fractura de luna</t>
+  </si>
+  <si>
+    <t>Presencia disuasoria policial y atención y asesoramiento a los afectados</t>
+  </si>
+  <si>
+    <t>Un aficionado localiza una cartera con documentación junto a uno de los vehículos dañados y lo comparte a través de INSPEC2T</t>
+  </si>
+  <si>
+    <t>localizada a posteriori gracias a la documentación y arrestada</t>
+  </si>
+  <si>
+    <t>Se localiza al autor de los daños y se evitan nuevos robos, pero no se asesora a los afectados</t>
+  </si>
+  <si>
+    <t>Se atiende y asiste a los afectados pero no se localiza al autor.</t>
+  </si>
+  <si>
+    <r>
+      <t>A través de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T un testigo de los hechos graba la huida del agresor y su localización</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A través de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T un bañista comparte una imagen panorámica de la zona </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Un testigo comparte a través de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T una imagen de un sospechoso que ha visto intentando abrir un vehículo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El agente de policía coordinador de INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T coteja la información de la documentación hallada con la imagen subida a INSPEC2T y deduce que es la misma persona. Es localizada a posteriori gracias a la documentación y arrestada</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,13 +1517,62 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7C0DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -507,12 +1587,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1544,10 +2651,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -1559,12 +2666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -1576,12 +2683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -1593,12 +2700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -1610,12 +2717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -1629,10 +2736,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -1644,12 +2751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -1661,12 +2768,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -1678,29 +2785,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -1714,10 +2821,10 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -1729,12 +2836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -1746,12 +2853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -1763,12 +2870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -1780,29 +2887,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -1814,12 +2921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -1833,10 +2940,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -1848,12 +2955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -1867,10 +2974,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -1884,10 +2991,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -1899,12 +3006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -1916,12 +3023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -1933,12 +3040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -1950,12 +3057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -1969,10 +3076,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -1984,12 +3091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -2001,12 +3108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -2015,6 +3122,1111 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3256,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4005,10 +6217,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -4020,12 +6232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -4037,12 +6249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -4054,12 +6266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -4071,12 +6283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -4090,10 +6302,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -4105,12 +6317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -4122,12 +6334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -4139,29 +6351,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>85</v>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -4175,10 +6387,10 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -4190,12 +6402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -4207,12 +6419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" ht="26.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -4226,10 +6438,10 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -4241,12 +6453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -4258,12 +6470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -4275,12 +6487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -4292,12 +6504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -4311,10 +6523,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -4326,12 +6538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -4343,12 +6555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>291</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -4360,29 +6572,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -4394,12 +6606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>85</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -4411,12 +6623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -4428,12 +6640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -4445,12 +6657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -4462,20 +6674,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="s">
+    <row r="71" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5716,18 +8047,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B105" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
@@ -6465,367 +8796,368 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
+      <c r="B52" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
+      <c r="B53" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
+      <c r="B54" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
+      <c r="B55" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
+      <c r="B56" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+      <c r="B57" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+      <c r="B59" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+      <c r="B60" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
+      <c r="B61" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+      <c r="B62" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+      <c r="B63" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+      <c r="B64" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
+      <c r="B65" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -6833,33 +9165,33 @@
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>325</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -6867,16 +9199,16 @@
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -6884,16 +9216,16 @@
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -6901,16 +9233,16 @@
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -6918,16 +9250,16 @@
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -6935,8 +9267,535 @@
       <c r="D71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>0</v>
+      <c r="E71" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="415">
   <si>
     <t>XXXX</t>
   </si>
@@ -1497,6 +1497,12 @@
       </rPr>
       <t>T coteja la información de la documentación hallada con la imagen subida a INSPEC2T y deduce que es la misma persona. Es localizada a posteriori gracias a la documentación y arrestada</t>
     </r>
+  </si>
+  <si>
+    <t>BASIC_TEXT_DOWNLOAD</t>
+  </si>
+  <si>
+    <t>Download the INSPEC2T App Now!</t>
   </si>
 </sst>
 </file>
@@ -8047,10 +8053,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B105" sqref="A1:XFD1048576"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8745,44 +8751,44 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -8796,27 +8802,27 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -8830,10 +8836,10 @@
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -8847,10 +8853,10 @@
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -8864,44 +8870,44 @@
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -8915,232 +8921,232 @@
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11" t="s">
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11" t="s">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B59" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="C60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -9149,190 +9155,190 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="C67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11" t="s">
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
@@ -9341,10 +9347,10 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
@@ -9353,352 +9359,352 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="C82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11" t="s">
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11" t="s">
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="11" t="s">
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="11" t="s">
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="C90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11" t="s">
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="11" t="s">
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11" t="s">
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="10" t="s">
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11" t="s">
+      <c r="C96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>378</v>
@@ -9709,92 +9715,109 @@
       <c r="D97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11" t="s">
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="10" t="s">
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="10" t="s">
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>408</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="417">
   <si>
     <t>XXXX</t>
   </si>
@@ -1503,6 +1503,12 @@
   </si>
   <si>
     <t>Download the INSPEC2T App Now!</t>
+  </si>
+  <si>
+    <t>Turns Survived</t>
+  </si>
+  <si>
+    <t>High Score</t>
   </si>
 </sst>
 </file>
@@ -8055,8 +8061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8652,7 +8658,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>415</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -8669,7 +8675,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="422">
   <si>
     <t>XXXX</t>
   </si>
@@ -1507,6 +1507,24 @@
   </si>
   <si>
     <t>No officers available!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_RESUME</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_QUIT</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SOUND</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Resume Game</t>
+  </si>
+  <si>
+    <t>Quit to Menu</t>
   </si>
 </sst>
 </file>
@@ -4396,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5161,10 +5179,10 @@
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>416</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>420</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5178,61 +5196,61 @@
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5246,10 +5264,10 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5261,12 +5279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5280,10 +5298,10 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5297,18 +5315,69 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="424">
   <si>
     <t>XXXX</t>
   </si>
@@ -1525,6 +1525,12 @@
   </si>
   <si>
     <t>Quit to Menu</t>
+  </si>
+  <si>
+    <t>START_SCREEN_INSPECT_TEXT</t>
+  </si>
+  <si>
+    <t>Help your local police force to solve real crimes with the Inspec2t app</t>
   </si>
 </sst>
 </file>
@@ -4414,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5247,27 +5253,27 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5281,10 +5287,10 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5298,10 +5304,10 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5315,44 +5321,44 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -5366,18 +5372,35 @@
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5907,7 +5930,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="426">
   <si>
     <t>XXXX</t>
   </si>
@@ -1531,6 +1531,12 @@
   </si>
   <si>
     <t>Help your local police force to solve real crimes with the Inspec2t app</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_BACK</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
 </sst>
 </file>
@@ -4420,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4743,10 +4749,10 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>424</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4760,10 +4766,10 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -4777,10 +4783,10 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4794,10 +4800,10 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4811,10 +4817,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4828,10 +4834,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4845,10 +4851,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4862,10 +4868,10 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4879,10 +4885,10 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4896,44 +4902,44 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -4947,10 +4953,10 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -4964,10 +4970,10 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -4981,10 +4987,10 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -4998,10 +5004,10 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -5015,10 +5021,10 @@
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>412</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -5032,10 +5038,10 @@
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -5049,10 +5055,10 @@
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5066,10 +5072,10 @@
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -5083,10 +5089,10 @@
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -5100,10 +5106,10 @@
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -5117,10 +5123,10 @@
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -5134,44 +5140,44 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -5185,10 +5191,10 @@
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5202,10 +5208,10 @@
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -5219,10 +5225,10 @@
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -5236,10 +5242,10 @@
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>418</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -5253,10 +5259,10 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>422</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5270,27 +5276,27 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5304,10 +5310,10 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5321,10 +5327,10 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -5338,44 +5344,44 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5389,18 +5395,35 @@
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="430">
   <si>
     <t>XXXX</t>
   </si>
@@ -1537,6 +1537,18 @@
   </si>
   <si>
     <t>Back</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SETTINGS</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CREDITS</t>
+  </si>
+  <si>
+    <t>Credits</t>
   </si>
 </sst>
 </file>
@@ -4426,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5259,10 +5271,10 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5276,10 +5288,10 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5293,44 +5305,44 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -5344,10 +5356,10 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -5361,10 +5373,10 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -5376,12 +5388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5395,35 +5407,69 @@
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="432">
   <si>
     <t>XXXX</t>
   </si>
@@ -1549,6 +1549,12 @@
   </si>
   <si>
     <t>Credits</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CHANGE_LOCATION</t>
+  </si>
+  <si>
+    <t>Change Location</t>
   </si>
 </sst>
 </file>
@@ -4438,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5305,10 +5311,10 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5322,10 +5328,10 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>422</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5339,27 +5345,27 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -5373,10 +5379,10 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -5390,10 +5396,10 @@
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5407,44 +5413,44 @@
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -5458,18 +5464,35 @@
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="434">
   <si>
     <t>XXXX</t>
   </si>
@@ -1555,6 +1555,12 @@
   </si>
   <si>
     <t>Change Location</t>
+  </si>
+  <si>
+    <t>TUTORIAL_TEXT_HOW_TO_PLAY</t>
+  </si>
+  <si>
+    <t>How To Play</t>
   </si>
 </sst>
 </file>
@@ -4444,10 +4450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5362,27 +5368,27 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -5396,10 +5402,10 @@
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5413,10 +5419,10 @@
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -5430,44 +5436,44 @@
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -5481,18 +5487,35 @@
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="438">
   <si>
     <t>XXXX</t>
   </si>
@@ -1561,6 +1561,18 @@
   </si>
   <si>
     <t>How To Play</t>
+  </si>
+  <si>
+    <t>START_SCREEN_FEEDBACK_TEXT</t>
+  </si>
+  <si>
+    <t>START_SCREEN_SEND_FEEDBACK</t>
+  </si>
+  <si>
+    <t>Send Feedback!</t>
+  </si>
+  <si>
+    <t>Help us to make the app better, by sending us your feedback!</t>
   </si>
 </sst>
 </file>
@@ -4450,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5516,6 +5528,40 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="445">
   <si>
     <t>XXXX</t>
   </si>
@@ -1573,6 +1573,27 @@
   </si>
   <si>
     <t>Help us to make the app better, by sending us your feedback!</t>
+  </si>
+  <si>
+    <t>INCIDENT_AVAILABLE</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SATISFACTION</t>
+  </si>
+  <si>
+    <t>{0}% Satisfaction</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SATISFACTION_END_TURN</t>
+  </si>
+  <si>
+    <t>{0} Ignored Case{1}, -{2}% Satisfaction</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_NO_IGNORED_CASES</t>
+  </si>
+  <si>
+    <t>0 Ignored Cases, No Satisfaction Change</t>
   </si>
 </sst>
 </file>
@@ -4462,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5562,6 +5583,74 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\ResourceForce\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\INSPEC2T\ResourceForce\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -514,9 +514,6 @@
     <t>SCENARIO_4_INDEX_5</t>
   </si>
   <si>
-    <t>Report of a vehicle being park in an inconsiderate manner on a residential street.</t>
-  </si>
-  <si>
     <t>Patrol attends and fines that vehicle is not causing an obstruction &amp; cannot do anything refers the matter to council parking services.</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t xml:space="preserve">Suspect eventually arrested and successfully prosecuted at the cost of public confidence </t>
   </si>
   <si>
-    <t>Information allows officers to quickly identify the suspect who is arrested a short distance away</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suspect is successfully prosecuted </t>
   </si>
   <si>
@@ -778,9 +772,6 @@
     <t>Report of a collision between two vehicles on a busy road, report states that no persons are injured.</t>
   </si>
   <si>
-    <t>Report resolved without police deployment. Slight lose of happiness.</t>
-  </si>
-  <si>
     <t>Officer attends no offences have taken place advices both parties to exchange details. Report resolved</t>
   </si>
   <si>
@@ -845,9 +836,6 @@
   </si>
   <si>
     <t>Due to delay in deployment key evidence is lost &amp; prosecution no longer possible</t>
-  </si>
-  <si>
-    <t>Information reveals that shoplifter has never been in trouble previously and can issued a fixed penalty for the theft. Report concluded</t>
   </si>
   <si>
     <t>A neighbor complains about noise from nearby house</t>
@@ -1594,6 +1582,18 @@
   </si>
   <si>
     <t>0 Ignored Cases, No Satisfaction Change</t>
+  </si>
+  <si>
+    <t>Report of a vehicle being parked in an inconsiderate manner on a residential street.</t>
+  </si>
+  <si>
+    <t>Information allows officers to quickly identify the suspect who is can be arrested a short distance away</t>
+  </si>
+  <si>
+    <t>Report resolved without police deployment. Slight loss of happiness.</t>
+  </si>
+  <si>
+    <t>Information reveals that shoplifter has never been in trouble previously and was issued a fixed penalty for the theft. Report concluded</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A2:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2474,12 +2474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>161</v>
+        <v>441</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>159</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="33" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="47" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="48" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>0</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>0</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>0</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>249</v>
+        <v>443</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>0</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>0</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>0</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -3488,7 +3488,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A2:XFD43"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4039,7 +4039,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="10" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="11" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>145</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>146</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4485,7 +4485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>48</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6232,7 +6232,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -6249,7 +6249,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6266,7 +6266,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6283,7 +6283,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6300,7 +6300,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -6309,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6335,7 +6335,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6352,7 +6352,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6369,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6386,7 +6386,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6403,7 +6403,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6420,7 +6420,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6437,7 +6437,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6454,7 +6454,7 @@
         <v>144</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6471,7 +6471,7 @@
         <v>145</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6488,7 +6488,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -6505,7 +6505,7 @@
         <v>147</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6522,7 +6522,7 @@
         <v>148</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6539,7 +6539,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -6548,15 +6548,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -6565,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6590,7 +6590,7 @@
         <v>156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6607,7 +6607,7 @@
         <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6624,7 +6624,7 @@
         <v>158</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6641,7 +6641,7 @@
         <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
@@ -6658,7 +6658,7 @@
         <v>160</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -6667,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -6684,15 +6684,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -6701,15 +6701,15 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
@@ -6718,15 +6718,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -6735,15 +6735,15 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -6752,15 +6752,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -6769,15 +6769,15 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -6786,15 +6786,15 @@
         <v>0</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -6803,15 +6803,15 @@
         <v>0</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -6820,15 +6820,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -6837,15 +6837,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -6854,15 +6854,15 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -6871,15 +6871,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -6888,15 +6888,15 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -6905,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -6922,15 +6922,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -6939,15 +6939,15 @@
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
@@ -6956,15 +6956,15 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -6973,15 +6973,15 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -6990,15 +6990,15 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -7007,15 +7007,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -7024,15 +7024,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -7041,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -7058,15 +7058,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -670,9 +670,6 @@
     <t xml:space="preserve">Due to drunken state male isn’t able to provide full information and no arrests can be made </t>
   </si>
   <si>
-    <t>Drunk male becomes aggressive with officers which results in him being arrested disorderly however still wanting to report assault once sober in the morning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Information allows officers to identify a suspect and make an arrest </t>
   </si>
   <si>
@@ -1594,6 +1591,9 @@
   </si>
   <si>
     <t>Information reveals that shoplifter has never been in trouble previously and was issued a fixed penalty for the theft. Report concluded</t>
+  </si>
+  <si>
+    <t>Drunk male becomes aggressive with officers which results in him being arrested, however he still wants to report assault once sober in the morning</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2479,7 +2479,7 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>202</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>444</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>0</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>0</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>0</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>0</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>0</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>0</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>0</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="10" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="11" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>145</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>146</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>48</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6232,7 +6232,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -6249,7 +6249,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6266,7 +6266,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6283,7 +6283,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6300,7 +6300,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -6309,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6335,7 +6335,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6352,7 +6352,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6369,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
@@ -6386,7 +6386,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6403,7 +6403,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6420,7 +6420,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6437,7 +6437,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6454,7 +6454,7 @@
         <v>144</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6471,7 +6471,7 @@
         <v>145</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6488,7 +6488,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -6505,7 +6505,7 @@
         <v>147</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6522,7 +6522,7 @@
         <v>148</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6539,7 +6539,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -6548,15 +6548,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -6565,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6590,7 +6590,7 @@
         <v>156</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6607,7 +6607,7 @@
         <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6624,7 +6624,7 @@
         <v>158</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6641,7 +6641,7 @@
         <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
@@ -6658,7 +6658,7 @@
         <v>160</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -6667,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -6684,15 +6684,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6709,7 +6709,7 @@
         <v>165</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6726,7 +6726,7 @@
         <v>166</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6743,7 +6743,7 @@
         <v>167</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -6760,7 +6760,7 @@
         <v>168</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6777,7 +6777,7 @@
         <v>169</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -6794,7 +6794,7 @@
         <v>170</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6811,7 +6811,7 @@
         <v>171</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -6820,15 +6820,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -6845,7 +6845,7 @@
         <v>178</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6862,7 +6862,7 @@
         <v>180</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -6879,7 +6879,7 @@
         <v>181</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6896,7 +6896,7 @@
         <v>179</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6913,7 +6913,7 @@
         <v>182</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
@@ -6930,7 +6930,7 @@
         <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -6947,7 +6947,7 @@
         <v>194</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -6964,7 +6964,7 @@
         <v>195</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
@@ -6981,7 +6981,7 @@
         <v>196</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
@@ -6998,7 +6998,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
@@ -7015,7 +7015,7 @@
         <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -7032,7 +7032,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
@@ -7049,7 +7049,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7066,7 +7066,7 @@
         <v>201</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="455">
   <si>
     <t>XXXX</t>
   </si>
@@ -1594,6 +1594,36 @@
   </si>
   <si>
     <t>Drunk male becomes aggressive with officers which results in him being arrested, however he still wants to report assault once sober in the morning</t>
+  </si>
+  <si>
+    <t>TIPS_CITIZEN_1</t>
+  </si>
+  <si>
+    <t>TIPS_CITIZEN_2</t>
+  </si>
+  <si>
+    <t>TIPS_CITIZEN_3</t>
+  </si>
+  <si>
+    <t>TIPS_CITIZEN_4</t>
+  </si>
+  <si>
+    <t>TIPS_CITIZEN_5</t>
+  </si>
+  <si>
+    <t>TIP:*n*You can save resources by asking citizens for more information!</t>
+  </si>
+  <si>
+    <t>TIP:*n*Citizens using the INSPEC2T app can help to identify key suspects</t>
+  </si>
+  <si>
+    <t>TIP:*n*Citizens may be able to help with cases with information or evidence, make the most of the option</t>
+  </si>
+  <si>
+    <t>TIP:*n*Maybe next time ask citizens for information, it could cut down the required officers</t>
+  </si>
+  <si>
+    <t>TIP:*n*Maybe next time ask for citizen help from the INSPEC2T app, it could reduce the number of turns required</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -4483,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5651,6 +5681,91 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="473">
   <si>
     <t>XXXX</t>
   </si>
@@ -1611,19 +1611,73 @@
     <t>TIPS_CITIZEN_5</t>
   </si>
   <si>
-    <t>TIP:*n*You can save resources by asking citizens for more information!</t>
-  </si>
-  <si>
-    <t>TIP:*n*Citizens using the INSPEC2T app can help to identify key suspects</t>
-  </si>
-  <si>
-    <t>TIP:*n*Citizens may be able to help with cases with information or evidence, make the most of the option</t>
-  </si>
-  <si>
-    <t>TIP:*n*Maybe next time ask citizens for information, it could cut down the required officers</t>
-  </si>
-  <si>
-    <t>TIP:*n*Maybe next time ask for citizen help from the INSPEC2T app, it could reduce the number of turns required</t>
+    <t>TIPS_WAIT_1</t>
+  </si>
+  <si>
+    <t>Ignoring a case will lower satisfaction at the end of the turn, try to close as many cases as possible</t>
+  </si>
+  <si>
+    <t>TIPS_WAIT_2</t>
+  </si>
+  <si>
+    <t>Sometimes it is better to save officers for a more severe case</t>
+  </si>
+  <si>
+    <t>TIPS_WAIT_3</t>
+  </si>
+  <si>
+    <t>TIPS_WAIT_4</t>
+  </si>
+  <si>
+    <t>TIPS_WAIT_5</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_1</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_2</t>
+  </si>
+  <si>
+    <t>Remember to keep an eye on upcoming incidents to keep officers for potentially more severe incidents</t>
+  </si>
+  <si>
+    <t>Ignoring incidents is more likely to give negative resolutions for incidents, try not to ignore cases</t>
+  </si>
+  <si>
+    <t>Some incidents will develop less than others, remember to evaluate the information provided carefully</t>
+  </si>
+  <si>
+    <t>Sending officers will always lead to a positive resolution, but at the cost of resources, make decisions carefully</t>
+  </si>
+  <si>
+    <t>Be Careful, sometimes ignoring incidents will cause them to develop.</t>
+  </si>
+  <si>
+    <t>Maybe next time ask for citizen help from the INSPEC2T app, it could reduce the number of turns required</t>
+  </si>
+  <si>
+    <t>Maybe next time ask citizens for information, it could cut down the required officers</t>
+  </si>
+  <si>
+    <t>Citizens may be able to help with cases with information or evidence, make the most of the option</t>
+  </si>
+  <si>
+    <t>Citizens using the INSPEC2T app can help to identify key suspects</t>
+  </si>
+  <si>
+    <t>You can save resources by asking citizens for more information!</t>
+  </si>
+  <si>
+    <t>Great Job!</t>
+  </si>
+  <si>
+    <t>Remember thet officers sent to incidents requiring just 1 turn will return at the start of the next turn</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_POSITIVE_1</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_NEGATIVE_1</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,6 +1803,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4513,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5689,7 +5744,7 @@
         <v>445</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -5706,7 +5761,7 @@
         <v>446</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -5723,7 +5778,7 @@
         <v>447</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -5740,7 +5795,7 @@
         <v>448</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -5757,18 +5812,173 @@
         <v>449</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B76" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="487">
   <si>
     <t>XXXX</t>
   </si>
@@ -1674,10 +1674,52 @@
     <t>Remember thet officers sent to incidents requiring just 1 turn will return at the start of the next turn</t>
   </si>
   <si>
-    <t>TIPS_OFFICER_POSITIVE_1</t>
-  </si>
-  <si>
-    <t>TIPS_OFFICER_NEGATIVE_1</t>
+    <t>TIPS_OFFICER_ONE_TURN_NEGATIVE_1</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_HIGH_SEVERITY_NEGATIVE_1</t>
+  </si>
+  <si>
+    <t>Well Done!</t>
+  </si>
+  <si>
+    <t>Ignoring high severity cases will have a large impact on satisfaction.</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_HIGH_SEVERITY_NEGATIVE_2</t>
+  </si>
+  <si>
+    <t>Make sure to give high severity cases priority, failing to resolve will give a big satisfaction penalty!</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER_ONE_TURN_NEGATIVE_2</t>
+  </si>
+  <si>
+    <t>Good Choice!</t>
+  </si>
+  <si>
+    <t>Sending officers to incidents that only require 1 turn is a great way to clear active cases</t>
+  </si>
+  <si>
+    <t>TIPS_POSITIVE_1</t>
+  </si>
+  <si>
+    <t>TIPS_POSITIVE_2</t>
+  </si>
+  <si>
+    <t>TIPS_POSITIVE_3</t>
+  </si>
+  <si>
+    <t>TIPS_POSITIVE_4</t>
+  </si>
+  <si>
+    <t>TIPS_POSITIVE_5</t>
+  </si>
+  <si>
+    <t>Nice!</t>
   </si>
 </sst>
 </file>
@@ -4568,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5943,42 +5985,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="84" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="489">
   <si>
     <t>XXXX</t>
   </si>
@@ -1572,15 +1572,9 @@
     <t>BASIC_TEXT_SATISFACTION_END_TURN</t>
   </si>
   <si>
-    <t>{0} Ignored Case{1}, -{2}% Satisfaction</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_NO_IGNORED_CASES</t>
   </si>
   <si>
-    <t>0 Ignored Cases, No Satisfaction Change</t>
-  </si>
-  <si>
     <t>Report of a vehicle being parked in an inconsiderate manner on a residential street.</t>
   </si>
   <si>
@@ -1720,6 +1714,18 @@
   </si>
   <si>
     <t>Nice!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_IGNORE</t>
+  </si>
+  <si>
+    <t>Ignore!</t>
+  </si>
+  <si>
+    <t>0 Ignored Cases*2n*No Satisfaction Change</t>
+  </si>
+  <si>
+    <t>{0} Ignored Case{1}*2n*-{2}% Satisfaction</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2612,7 @@
         <v>156</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -2776,7 +2782,7 @@
         <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -3082,7 +3088,7 @@
         <v>202</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3388,7 +3394,7 @@
         <v>243</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3592,7 +3598,7 @@
         <v>263</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -4610,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4729,27 +4735,27 @@
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -4763,10 +4769,10 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -4780,10 +4786,10 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4797,10 +4803,10 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4814,10 +4820,10 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4831,10 +4837,10 @@
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -4848,10 +4854,10 @@
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -4865,10 +4871,10 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -4882,10 +4888,10 @@
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -4899,10 +4905,10 @@
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -4916,10 +4922,10 @@
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -4933,10 +4939,10 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>420</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4950,10 +4956,10 @@
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -4967,10 +4973,10 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4984,10 +4990,10 @@
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -5001,10 +5007,10 @@
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -5018,10 +5024,10 @@
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -5035,10 +5041,10 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -5052,10 +5058,10 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -5069,10 +5075,10 @@
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -5086,10 +5092,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -5103,44 +5109,44 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -5154,10 +5160,10 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -5171,10 +5177,10 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -5188,10 +5194,10 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -5205,10 +5211,10 @@
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -5222,10 +5228,10 @@
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>407</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -5239,10 +5245,10 @@
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -5256,10 +5262,10 @@
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>408</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -5273,10 +5279,10 @@
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -5290,10 +5296,10 @@
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -5307,10 +5313,10 @@
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -5324,10 +5330,10 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -5341,44 +5347,44 @@
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -5392,10 +5398,10 @@
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -5409,10 +5415,10 @@
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -5426,10 +5432,10 @@
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -5443,10 +5449,10 @@
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -5460,10 +5466,10 @@
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -5477,10 +5483,10 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -5494,10 +5500,10 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>426</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -5511,10 +5517,10 @@
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>417</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>418</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -5528,10 +5534,10 @@
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -5545,27 +5551,27 @@
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -5579,10 +5585,10 @@
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -5613,44 +5619,44 @@
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -5664,27 +5670,27 @@
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -5698,44 +5704,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>433</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -5749,10 +5755,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>0</v>
@@ -5766,10 +5772,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -5783,10 +5789,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -5800,10 +5806,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -5815,12 +5821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -5834,10 +5840,10 @@
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -5851,10 +5857,10 @@
     </row>
     <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>0</v>
@@ -5868,44 +5874,44 @@
     </row>
     <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>0</v>
@@ -5919,44 +5925,44 @@
     </row>
     <row r="77" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
@@ -5970,10 +5976,10 @@
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -5987,10 +5993,10 @@
     </row>
     <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
@@ -6004,62 +6010,62 @@
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
       </c>
@@ -6069,14 +6075,13 @@
       <c r="E85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -6091,10 +6096,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
@@ -6109,10 +6114,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>0</v>
@@ -6127,10 +6132,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
@@ -6142,6 +6147,24 @@
         <v>0</v>
       </c>
       <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="495">
   <si>
     <t>XXXX</t>
   </si>
@@ -1727,12 +1727,30 @@
   <si>
     <t>{0} Ignored Case{1}*2n*-{2}% Satisfaction</t>
   </si>
+  <si>
+    <t>BASIC_TEXT_SELECT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>Multiple Scenario Languages available. Select a language</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ENGLISH</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SPANISH</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,6 +1795,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri   "/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1816,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1852,6 +1875,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2138,7 +2164,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
@@ -2148,7 +2174,7 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2165,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -2182,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2199,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -2216,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2233,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2250,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2267,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -2284,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
@@ -2301,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -2318,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2335,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -2352,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -2369,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -2386,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -2403,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2420,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -2454,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -2471,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -2488,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2505,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A22" s="3" t="s">
         <v>144</v>
       </c>
@@ -2522,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="25.5">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -2539,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
@@ -2556,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
@@ -2573,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="25.5">
       <c r="A26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2590,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>149</v>
       </c>
@@ -2607,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A28" s="3" t="s">
         <v>156</v>
       </c>
@@ -2624,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="25.5">
       <c r="A29" s="1" t="s">
         <v>157</v>
       </c>
@@ -2641,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" ht="25.5">
       <c r="A30" s="1" t="s">
         <v>158</v>
       </c>
@@ -2658,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>159</v>
       </c>
@@ -2675,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="37.799999999999997">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -2692,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A33" s="3" t="s">
         <v>165</v>
       </c>
@@ -2709,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" ht="25.5">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -2726,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
         <v>167</v>
       </c>
@@ -2743,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -2760,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -2777,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
         <v>170</v>
       </c>
@@ -2794,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
@@ -2811,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>178</v>
       </c>
@@ -2828,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="25.5">
       <c r="A41" s="1" t="s">
         <v>179</v>
       </c>
@@ -2845,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>180</v>
       </c>
@@ -2862,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="25.5">
       <c r="A43" s="1" t="s">
         <v>181</v>
       </c>
@@ -2879,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>182</v>
       </c>
@@ -2896,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="25.5">
       <c r="A45" s="1" t="s">
         <v>183</v>
       </c>
@@ -2913,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>184</v>
       </c>
@@ -2930,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="37.799999999999997">
       <c r="A47" s="1" t="s">
         <v>185</v>
       </c>
@@ -2947,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A48" s="3" t="s">
         <v>194</v>
       </c>
@@ -2964,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -2981,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
@@ -2998,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" ht="25.5">
       <c r="A51" s="1" t="s">
         <v>197</v>
       </c>
@@ -3015,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" ht="25.5">
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
@@ -3032,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" ht="25.5">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -3049,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" ht="25.5">
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
@@ -3066,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" ht="25.5">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -3083,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" ht="25.5">
       <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
@@ -3100,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
@@ -3117,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -3134,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A59" s="3" t="s">
         <v>214</v>
       </c>
@@ -3151,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>215</v>
       </c>
@@ -3168,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" ht="25.5">
       <c r="A61" s="1" t="s">
         <v>216</v>
       </c>
@@ -3185,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>217</v>
       </c>
@@ -3202,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>218</v>
       </c>
@@ -3219,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" ht="25.5">
       <c r="A64" s="1" t="s">
         <v>219</v>
       </c>
@@ -3236,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>220</v>
       </c>
@@ -3253,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>221</v>
       </c>
@@ -3270,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A67" s="3" t="s">
         <v>230</v>
       </c>
@@ -3287,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>231</v>
       </c>
@@ -3304,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>232</v>
       </c>
@@ -3321,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" ht="25.5">
       <c r="A70" s="1" t="s">
         <v>233</v>
       </c>
@@ -3338,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>234</v>
       </c>
@@ -3355,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>235</v>
       </c>
@@ -3372,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A73" s="3" t="s">
         <v>242</v>
       </c>
@@ -3389,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>243</v>
       </c>
@@ -3406,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" ht="25.5">
       <c r="A75" s="1" t="s">
         <v>244</v>
       </c>
@@ -3423,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A76" s="3" t="s">
         <v>247</v>
       </c>
@@ -3440,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" ht="25.5">
       <c r="A77" s="1" t="s">
         <v>248</v>
       </c>
@@ -3457,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" ht="25.5">
       <c r="A78" s="1" t="s">
         <v>249</v>
       </c>
@@ -3474,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>250</v>
       </c>
@@ -3491,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" ht="25.5">
       <c r="A80" s="1" t="s">
         <v>251</v>
       </c>
@@ -3508,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" ht="25.5">
       <c r="A81" s="1" t="s">
         <v>252</v>
       </c>
@@ -3525,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" s="3" customFormat="1">
       <c r="A82" s="3" t="s">
         <v>259</v>
       </c>
@@ -3542,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" ht="25.5">
       <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
@@ -3559,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>261</v>
       </c>
@@ -3576,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>262</v>
       </c>
@@ -3593,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" ht="25.5">
       <c r="A86" s="1" t="s">
         <v>263</v>
       </c>
@@ -3624,7 +3650,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
@@ -3634,7 +3660,7 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3651,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -3668,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3702,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -3719,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -3736,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -3770,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
@@ -3787,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -3804,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -3821,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -3838,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -3855,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -3872,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -3889,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -3906,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -3923,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -3940,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -3957,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -3974,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -3991,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>122</v>
       </c>
@@ -4008,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="28.8">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -4025,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -4042,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -4059,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -4076,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
@@ -4093,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
@@ -4110,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="28.8">
       <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
@@ -4140,7 +4166,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
@@ -4150,7 +4176,7 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4167,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -4184,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -4201,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -4218,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="26.1">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4252,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -4269,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
@@ -4286,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>275</v>
       </c>
@@ -4303,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="37.799999999999997">
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
@@ -4320,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="37.799999999999997">
       <c r="A11" s="1" t="s">
         <v>282</v>
       </c>
@@ -4337,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>277</v>
       </c>
@@ -4354,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="25.5">
       <c r="A13" s="1" t="s">
         <v>283</v>
       </c>
@@ -4371,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>284</v>
       </c>
@@ -4388,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
@@ -4405,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -4422,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -4439,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="37.799999999999997">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -4456,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -4473,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A20" s="3" t="s">
         <v>144</v>
       </c>
@@ -4490,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="62.4">
       <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
@@ -4507,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="25.5">
       <c r="A22" s="1" t="s">
         <v>146</v>
       </c>
@@ -4524,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="25.5">
       <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
@@ -4541,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="37.799999999999997">
       <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
@@ -4558,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
@@ -4575,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>293</v>
       </c>
@@ -4592,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" ht="25.5">
       <c r="A27" s="1" t="s">
         <v>294</v>
       </c>
@@ -4616,13 +4642,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" customWidth="1"/>
@@ -4631,7 +4657,7 @@
     <col min="5" max="5" width="48.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="57.6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4665,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4682,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4699,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -4750,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.7" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -4767,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4784,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4818,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4835,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -4852,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -4869,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -4886,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4903,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -4920,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -4937,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4954,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>419</v>
       </c>
@@ -4971,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -4988,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5005,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -5022,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5039,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -5056,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -5073,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -5090,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -5107,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5124,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5141,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -5158,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -5175,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -5192,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -5209,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -5226,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -5260,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -5277,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -5294,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -5311,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -5328,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -5345,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>405</v>
       </c>
@@ -5362,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
@@ -5379,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -5396,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
         <v>409</v>
       </c>
@@ -5413,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>411</v>
       </c>
@@ -5430,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>412</v>
       </c>
@@ -5447,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
         <v>413</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
         <v>421</v>
       </c>
@@ -5481,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
         <v>423</v>
       </c>
@@ -5498,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
         <v>425</v>
       </c>
@@ -5515,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
@@ -5532,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>417</v>
       </c>
@@ -5549,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>427</v>
       </c>
@@ -5566,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -5583,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
@@ -5600,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A58" s="1" t="s">
         <v>126</v>
       </c>
@@ -5617,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -5634,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -5651,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -5668,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -5685,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -5702,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>429</v>
       </c>
@@ -5719,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>430</v>
       </c>
@@ -5736,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>433</v>
       </c>
@@ -5753,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>434</v>
       </c>
@@ -5770,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>436</v>
       </c>
@@ -5787,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>437</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>443</v>
       </c>
@@ -5821,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>444</v>
       </c>
@@ -5838,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" ht="28.8">
       <c r="A72" s="1" t="s">
         <v>445</v>
       </c>
@@ -5855,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" ht="28.8">
       <c r="A73" s="1" t="s">
         <v>446</v>
       </c>
@@ -5872,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" ht="28.8">
       <c r="A74" s="1" t="s">
         <v>447</v>
       </c>
@@ -5889,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" ht="28.8">
       <c r="A75" s="1" t="s">
         <v>448</v>
       </c>
@@ -5906,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>450</v>
       </c>
@@ -5923,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A77" s="12" t="s">
         <v>452</v>
       </c>
@@ -5940,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" s="12" customFormat="1" ht="28.8">
       <c r="A78" s="12" t="s">
         <v>453</v>
       </c>
@@ -5957,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" s="12" customFormat="1">
       <c r="A79" s="12" t="s">
         <v>454</v>
       </c>
@@ -5974,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="28.8">
       <c r="A80" s="1" t="s">
         <v>455</v>
       </c>
@@ -5991,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A81" s="1" t="s">
         <v>456</v>
       </c>
@@ -6008,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A82" s="1" t="s">
         <v>469</v>
       </c>
@@ -6025,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A83" s="1" t="s">
         <v>476</v>
       </c>
@@ -6042,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
         <v>470</v>
       </c>
@@ -6059,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A85" s="1" t="s">
         <v>473</v>
       </c>
@@ -6076,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>479</v>
       </c>
@@ -6094,7 +6120,7 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>480</v>
       </c>
@@ -6112,7 +6138,7 @@
       </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>481</v>
       </c>
@@ -6130,7 +6156,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>482</v>
       </c>
@@ -6148,7 +6174,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>483</v>
       </c>
@@ -6166,8 +6192,60 @@
       </c>
       <c r="F90" s="1"/>
     </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>489</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6179,7 +6257,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
@@ -6189,7 +6267,7 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6206,7 +6284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -6223,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -6240,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -6257,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -6274,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6291,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -6308,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -6325,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
@@ -6342,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -6359,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -6376,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -6410,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -6427,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
@@ -6444,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -6461,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -6478,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -6495,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -6512,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -6529,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -6546,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>122</v>
       </c>
@@ -6563,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="28.8">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -6580,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -6597,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -6614,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -6631,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
@@ -6648,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="1" t="s">
         <v>131</v>
       </c>
@@ -6665,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="28.8">
       <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
@@ -6695,7 +6773,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
@@ -6705,7 +6783,7 @@
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6722,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
@@ -6739,7 +6817,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -6756,7 +6834,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -6773,7 +6851,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -6790,7 +6868,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6807,7 +6885,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="24.6">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -6825,7 +6903,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
@@ -6842,7 +6920,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
@@ -6859,7 +6937,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="24.6">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -6876,7 +6954,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="25.5">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -6893,7 +6971,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="24.6">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -6910,7 +6988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="25.5">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -6927,7 +7005,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -6944,7 +7022,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -6961,7 +7039,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>144</v>
       </c>
@@ -6978,7 +7056,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
@@ -6995,7 +7073,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -7012,7 +7090,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39.299999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="39.299999999999997">
       <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
@@ -7029,7 +7107,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="25.5">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -7046,7 +7124,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -7063,7 +7141,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="37.799999999999997">
       <c r="A22" s="1" t="s">
         <v>293</v>
       </c>
@@ -7080,7 +7158,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="37.799999999999997">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
@@ -7097,7 +7175,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A24" s="3" t="s">
         <v>156</v>
       </c>
@@ -7114,7 +7192,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
@@ -7131,7 +7209,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="25.5">
       <c r="A26" s="1" t="s">
         <v>158</v>
       </c>
@@ -7148,7 +7226,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" ht="25.5">
       <c r="A27" s="1" t="s">
         <v>159</v>
       </c>
@@ -7165,7 +7243,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" ht="36.9">
       <c r="A28" s="1" t="s">
         <v>160</v>
       </c>
@@ -7182,7 +7260,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>346</v>
       </c>
@@ -7199,7 +7277,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" ht="36.9">
       <c r="A30" s="1" t="s">
         <v>347</v>
       </c>
@@ -7216,7 +7294,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>165</v>
       </c>
@@ -7233,7 +7311,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>166</v>
       </c>
@@ -7250,7 +7328,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>167</v>
       </c>
@@ -7267,7 +7345,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" ht="27">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -7284,7 +7362,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
         <v>169</v>
       </c>
@@ -7301,7 +7379,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="37.799999999999997">
       <c r="A36" s="1" t="s">
         <v>170</v>
       </c>
@@ -7318,7 +7396,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="1" t="s">
         <v>171</v>
       </c>
@@ -7335,7 +7413,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
         <v>355</v>
       </c>
@@ -7352,7 +7430,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -7369,7 +7447,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" ht="25.5">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -7386,7 +7464,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="27">
       <c r="A41" s="1" t="s">
         <v>181</v>
       </c>
@@ -7403,7 +7481,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="25.5">
       <c r="A42" s="1" t="s">
         <v>179</v>
       </c>
@@ -7420,7 +7498,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="25.5">
       <c r="A43" s="1" t="s">
         <v>182</v>
       </c>
@@ -7437,7 +7515,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="49.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="49.2">
       <c r="A44" s="1" t="s">
         <v>183</v>
       </c>
@@ -7454,7 +7532,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
       <c r="A45" s="3" t="s">
         <v>194</v>
       </c>
@@ -7471,7 +7549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="25.5">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -7488,7 +7566,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="36.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="36.9">
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
@@ -7505,7 +7583,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="27">
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
@@ -7522,7 +7600,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="50.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" ht="50.7">
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
@@ -7539,7 +7617,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" ht="25.5">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -7556,7 +7634,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" ht="25.5">
       <c r="A51" s="1" t="s">
         <v>200</v>
       </c>
@@ -7573,7 +7651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>201</v>
       </c>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="589">
   <si>
     <t>XXXX</t>
   </si>
@@ -55,9 +55,6 @@
     <t>APP_NAME</t>
   </si>
   <si>
-    <t>ResourceForce</t>
-  </si>
-  <si>
     <t>START_SCREEN_TAP</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>Available</t>
-  </si>
-  <si>
-    <t>turns until available</t>
   </si>
   <si>
     <t>BASIC_TEXT_ASK_CITIZEN</t>
@@ -1731,9 +1725,6 @@
     <t>BASIC_TEXT_SELECT_LANGUAGE</t>
   </si>
   <si>
-    <t>Multiple Scenario Languages available. Select a language</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_ENGLISH</t>
   </si>
   <si>
@@ -1744,13 +1735,304 @@
   </si>
   <si>
     <t>Español</t>
+  </si>
+  <si>
+    <t>Resource Force</t>
+  </si>
+  <si>
+    <t>¡Pulsa para empezar!</t>
+  </si>
+  <si>
+    <t>¡OK!</t>
+  </si>
+  <si>
+    <t>¡Espere!</t>
+  </si>
+  <si>
+    <t>¡Ignorar!</t>
+  </si>
+  <si>
+    <t>Inténtalo de nuevo</t>
+  </si>
+  <si>
+    <t>Enviar oficial</t>
+  </si>
+  <si>
+    <t>Enviar oficiales</t>
+  </si>
+  <si>
+    <t>Caso desarrollada</t>
+  </si>
+  <si>
+    <t>Las detenciones se han hecho para el siguiente caso:</t>
+  </si>
+  <si>
+    <t>Los oficiales no pueden hacer ninguna detención en relación con el caso</t>
+  </si>
+  <si>
+    <t>¡Pedir a los ciudadanos en busca de ayuda!</t>
+  </si>
+  <si>
+    <t>Ciudadanos proporcionan evidencia a través de la aplicación INSPEC2T, 2 han sido acusados</t>
+  </si>
+  <si>
+    <t>Ciudadano no proporciona ninguna evidencia sólida para el caso</t>
+  </si>
+  <si>
+    <t>Sin más incidentes para comprobar esta vuelta</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Siguiente giro</t>
+  </si>
+  <si>
+    <t>Espalda</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>En marcha</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Oficiales</t>
+  </si>
+  <si>
+    <t>Detenciones</t>
+  </si>
+  <si>
+    <t>Casos activos</t>
+  </si>
+  <si>
+    <t>Giro</t>
+  </si>
+  <si>
+    <t>Juego terminado</t>
+  </si>
+  <si>
+    <t>Usted sobrevivió {0} Activa*2n*La felicidad ciudadana caído por debajo del 10%, los ciudadanos ya no se sienten seguros bajo su control</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>Turns until available</t>
+  </si>
+  <si>
+    <t>Resulta hasta disponibles</t>
+  </si>
+  <si>
+    <t>Satisfacción ciudadana</t>
+  </si>
+  <si>
+    <t>Vueltas requeridas</t>
+  </si>
+  <si>
+    <t>Oficiales requeridos</t>
+  </si>
+  <si>
+    <t>Sobrevivieron gira</t>
+  </si>
+  <si>
+    <t>Puntuación más alta</t>
+  </si>
+  <si>
+    <t>Los ciudadanos pueden ser capaces de ayudar en este caso</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Descargar la aplicación INSPEC2T Ahora!</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>¡ADVERTENCIA! Selección de espera hará que el caso de expirar, la reducción de satisfacción de los ciudadanos</t>
+  </si>
+  <si>
+    <t>No hay directores disponibles!</t>
+  </si>
+  <si>
+    <t>Reanudar juego</t>
+  </si>
+  <si>
+    <t>Salir al menú</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Créditos</t>
+  </si>
+  <si>
+    <t>Cambiar locación</t>
+  </si>
+  <si>
+    <t>Ayudar a su fuerza de policía local para resolver crímenes reales con la aplicación Inspeccionar</t>
+  </si>
+  <si>
+    <t>Cómo jugar</t>
+  </si>
+  <si>
+    <t>Pulse para continuar…</t>
+  </si>
+  <si>
+    <t>La parte superior de la pantalla muestra el estado actual de la satisfacción, más allá en rojo que vaya, cuanto más cerca esté a punto de perder. Resolver los casos de mantenerse fuera de la zona roja</t>
+  </si>
+  <si>
+    <t>La barra de estado muestra la satisfacción real, tratar de mantener esta por encima del 10% para el mayor número de vueltas como puedas</t>
+  </si>
+  <si>
+    <t>El indicador oficial le informa cuántos agentes están disponibles y el número de vueltas hasta que los oficiales en el campo, no vuelva y vuelven a estar disponibles</t>
+  </si>
+  <si>
+    <t>Este cuadro le dará información sobre el caso actual y mantendrá informados de su condición</t>
+  </si>
+  <si>
+    <t>Cada caso se necesita un número de oficiales para asistir a un número determinado de vueltas</t>
+  </si>
+  <si>
+    <t>Aquí podrás ver todos sus incidentes activos, que son de color coordinado por la gravedad. El rojo es más grave</t>
+  </si>
+  <si>
+    <t>Cada caso puede tener hasta 3 opciones, esperar a más oficiales, mandan a los funcionarios requeridos o pedir a los ciudadanos en busca de ayuda cuando esté disponible</t>
+  </si>
+  <si>
+    <t>Ayúdanos para que la aplicación mejor, mediante el envío de su respuesta!</t>
+  </si>
+  <si>
+    <t>Enviar comentarios!</t>
+  </si>
+  <si>
+    <t>{0}% de satisfacción</t>
+  </si>
+  <si>
+    <t>{0} No haga caso de la caja {1}*2n*-{2}% Satisfacción</t>
+  </si>
+  <si>
+    <t>0 Los casos omitidos *2n* No se Satisfacción Cambio</t>
+  </si>
+  <si>
+    <t>Puede ahorrar recursos preguntando a los ciudadanos para obtener más información!</t>
+  </si>
+  <si>
+    <t>Los ciudadanos que utilizan la aplicación CONTROLAR SI pueden ayudar a identificar a los sospechosos clave</t>
+  </si>
+  <si>
+    <t>Los ciudadanos pueden ser capaces de ayudar con los casos con información o pruebas, aprovechar al máximo la opción</t>
+  </si>
+  <si>
+    <t>Forse la prossima volta chiedere ai cittadini di informazioni, potrebbe ridurre gli ufficiali richiesti</t>
+  </si>
+  <si>
+    <t>Forse la prossima volta chiedere aiuto dei cittadini dalla INSPEC2T app, si potrebbe ridurre il numero di giri richiesto</t>
+  </si>
+  <si>
+    <t>Ignorando un caso abbasserà la soddisfazione alla fine del turno, cerca di chiudere il maggior numero di casi possibili</t>
+  </si>
+  <si>
+    <t>A volte è meglio risparmiare ufficiali per un caso più grave</t>
+  </si>
+  <si>
+    <t>Ignorando incidenti è più probabile che dare risoluzioni negativi per gli incidenti, cerca di non ignorare i casi</t>
+  </si>
+  <si>
+    <t>Alcuni incidenti si svilupperà meno di altri, ricordati di valutare le informazioni fornite con attenzione</t>
+  </si>
+  <si>
+    <t>Fare attenzione, a volte incidenti ignorando causerà loro di svilupparsi.</t>
+  </si>
+  <si>
+    <t>Ricordatevi di tenere d'occhio le prossime incidenti per mantenere ufficiali per gli incidenti potenzialmente più gravi</t>
+  </si>
+  <si>
+    <t>Agenti di invio condurranno sempre ad una risoluzione positiva, ma a costo di risorse, fare attenzione decisioni</t>
+  </si>
+  <si>
+    <t>Ricordate gli ufficiali inviati agli incidenti che richiedono solo 1 giro tornerà all'inizio del turno successivo</t>
+  </si>
+  <si>
+    <t>L'invio di agenti di incidenti che richiedono solo 1 giro è un ottimo modo per cancellare i casi attivi</t>
+  </si>
+  <si>
+    <t>Ignorando alti casi di gravità avrà un grande impatto sulla soddisfazione.</t>
+  </si>
+  <si>
+    <t>Assicurati di dare alta priorità gravità dei casi, non riuscendo a risolvere le darà un grande rigore soddisfazione!</t>
+  </si>
+  <si>
+    <t>¡Bello!</t>
+  </si>
+  <si>
+    <t>¡Eccezionale!</t>
+  </si>
+  <si>
+    <t>¡Ottimo lavoro!</t>
+  </si>
+  <si>
+    <t>¡Bella scelta!</t>
+  </si>
+  <si>
+    <t>¡Ben fatto!</t>
+  </si>
+  <si>
+    <t>Si prega di impostare la posizione qui sotto per ottenere la migliore esperienza!</t>
+  </si>
+  <si>
+    <t>Benvenuti a risorsa forza, assumere il ruolo di un operatore di polizia e contribuire a risolvere i crimini in tutta la città. È necessario utilizzare con attenzione le risorse per risolvere i casi e mantenere i civili felici e sentirsi al sicuro. *2n*Ma attenzione, gli ufficiali sono limitati in modo da utilizzare con saggezza</t>
+  </si>
+  <si>
+    <t>WARNING_TEXT_LOCATION</t>
+  </si>
+  <si>
+    <t>WARNING_TEXT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>establecer una posición</t>
+  </si>
+  <si>
+    <t>establecer un idioma</t>
+  </si>
+  <si>
+    <t>Set a location</t>
+  </si>
+  <si>
+    <t>Set a language</t>
+  </si>
+  <si>
+    <t>Select a language</t>
+  </si>
+  <si>
+    <t>Selecciona un idioma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,8 +2082,15 @@
       <color rgb="FF212121"/>
       <name val="Calibri   "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,6 +2115,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1836,10 +2130,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1874,12 +2169,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2193,10 +2500,10 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2210,10 +2517,10 @@
     </row>
     <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -2227,10 +2534,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -2244,10 +2551,10 @@
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -2261,10 +2568,10 @@
     </row>
     <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -2278,10 +2585,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -2295,10 +2602,10 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
@@ -2312,10 +2619,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -2329,10 +2636,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -2346,10 +2653,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -2363,10 +2670,10 @@
     </row>
     <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -2380,10 +2687,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -2397,10 +2704,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -2414,10 +2721,10 @@
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -2431,10 +2738,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -2448,10 +2755,10 @@
     </row>
     <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -2465,10 +2772,10 @@
     </row>
     <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -2482,10 +2789,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -2499,10 +2806,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -2516,10 +2823,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -2533,10 +2840,10 @@
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>0</v>
@@ -2550,10 +2857,10 @@
     </row>
     <row r="23" spans="1:5" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -2567,10 +2874,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2584,10 +2891,10 @@
     </row>
     <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -2601,10 +2908,10 @@
     </row>
     <row r="26" spans="1:5" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2618,10 +2925,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -2635,10 +2942,10 @@
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A28" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -2652,10 +2959,10 @@
     </row>
     <row r="29" spans="1:5" ht="25.5">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -2669,10 +2976,10 @@
     </row>
     <row r="30" spans="1:5" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -2686,10 +2993,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -2703,10 +3010,10 @@
     </row>
     <row r="32" spans="1:5" ht="37.799999999999997">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -2720,10 +3027,10 @@
     </row>
     <row r="33" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -2737,10 +3044,10 @@
     </row>
     <row r="34" spans="1:5" ht="25.5">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -2754,10 +3061,10 @@
     </row>
     <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -2771,10 +3078,10 @@
     </row>
     <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2788,10 +3095,10 @@
     </row>
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2805,10 +3112,10 @@
     </row>
     <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2822,10 +3129,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2839,10 +3146,10 @@
     </row>
     <row r="40" spans="1:5" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>0</v>
@@ -2856,10 +3163,10 @@
     </row>
     <row r="41" spans="1:5" ht="25.5">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2873,10 +3180,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -2890,10 +3197,10 @@
     </row>
     <row r="43" spans="1:5" ht="25.5">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2907,10 +3214,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2924,10 +3231,10 @@
     </row>
     <row r="45" spans="1:5" ht="25.5">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -2941,10 +3248,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -2958,10 +3265,10 @@
     </row>
     <row r="47" spans="1:5" ht="37.799999999999997">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -2975,10 +3282,10 @@
     </row>
     <row r="48" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A48" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>0</v>
@@ -2992,10 +3299,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -3009,10 +3316,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -3026,10 +3333,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5">
       <c r="A51" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -3043,10 +3350,10 @@
     </row>
     <row r="52" spans="1:5" ht="25.5">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -3060,10 +3367,10 @@
     </row>
     <row r="53" spans="1:5" ht="25.5">
       <c r="A53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
@@ -3077,10 +3384,10 @@
     </row>
     <row r="54" spans="1:5" ht="25.5">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -3094,10 +3401,10 @@
     </row>
     <row r="55" spans="1:5" ht="25.5">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -3111,10 +3418,10 @@
     </row>
     <row r="56" spans="1:5" ht="25.5">
       <c r="A56" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3128,10 +3435,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -3145,10 +3452,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -3162,10 +3469,10 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A59" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>0</v>
@@ -3179,10 +3486,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>0</v>
@@ -3196,10 +3503,10 @@
     </row>
     <row r="61" spans="1:5" ht="25.5">
       <c r="A61" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>0</v>
@@ -3213,10 +3520,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>0</v>
@@ -3230,10 +3537,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>0</v>
@@ -3247,10 +3554,10 @@
     </row>
     <row r="64" spans="1:5" ht="25.5">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>0</v>
@@ -3264,10 +3571,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>0</v>
@@ -3281,10 +3588,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>0</v>
@@ -3298,10 +3605,10 @@
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A67" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>0</v>
@@ -3315,10 +3622,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>0</v>
@@ -3332,10 +3639,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>0</v>
@@ -3349,10 +3656,10 @@
     </row>
     <row r="70" spans="1:5" ht="25.5">
       <c r="A70" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>0</v>
@@ -3366,10 +3673,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>0</v>
@@ -3383,10 +3690,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>0</v>
@@ -3400,10 +3707,10 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A73" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>0</v>
@@ -3417,10 +3724,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3434,10 +3741,10 @@
     </row>
     <row r="75" spans="1:5" ht="25.5">
       <c r="A75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>0</v>
@@ -3451,10 +3758,10 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A76" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>0</v>
@@ -3468,10 +3775,10 @@
     </row>
     <row r="77" spans="1:5" ht="25.5">
       <c r="A77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>0</v>
@@ -3485,10 +3792,10 @@
     </row>
     <row r="78" spans="1:5" ht="25.5">
       <c r="A78" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>0</v>
@@ -3502,10 +3809,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>0</v>
@@ -3519,10 +3826,10 @@
     </row>
     <row r="80" spans="1:5" ht="25.5">
       <c r="A80" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>0</v>
@@ -3536,10 +3843,10 @@
     </row>
     <row r="81" spans="1:5" ht="25.5">
       <c r="A81" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>0</v>
@@ -3553,10 +3860,10 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1">
       <c r="A82" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>0</v>
@@ -3570,10 +3877,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5">
       <c r="A83" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>0</v>
@@ -3587,10 +3894,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>0</v>
@@ -3604,10 +3911,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
@@ -3621,10 +3928,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5">
       <c r="A86" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -3679,10 +3986,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -3696,10 +4003,10 @@
     </row>
     <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -3713,10 +4020,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -3730,10 +4037,10 @@
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -3747,10 +4054,10 @@
     </row>
     <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -3764,10 +4071,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -3781,10 +4088,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -3798,10 +4105,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -3815,10 +4122,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -3832,10 +4139,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -3849,10 +4156,10 @@
     </row>
     <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -3866,10 +4173,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -3883,10 +4190,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -3900,10 +4207,10 @@
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -3917,10 +4224,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -3934,10 +4241,10 @@
     </row>
     <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -3951,10 +4258,10 @@
     </row>
     <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -3968,10 +4275,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -3985,10 +4292,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -4002,10 +4309,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4019,10 +4326,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4036,10 +4343,10 @@
     </row>
     <row r="23" spans="1:5" ht="28.8">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4053,10 +4360,10 @@
     </row>
     <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4070,10 +4377,10 @@
     </row>
     <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4087,10 +4394,10 @@
     </row>
     <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4104,10 +4411,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4121,10 +4428,10 @@
     </row>
     <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -4138,10 +4445,10 @@
     </row>
     <row r="29" spans="1:5" ht="28.8">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -4195,10 +4502,10 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -4212,10 +4519,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -4229,10 +4536,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -4246,10 +4553,10 @@
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -4263,10 +4570,10 @@
     </row>
     <row r="6" spans="1:5" ht="26.1">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -4280,10 +4587,10 @@
     </row>
     <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -4297,10 +4604,10 @@
     </row>
     <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -4314,10 +4621,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -4331,10 +4638,10 @@
     </row>
     <row r="10" spans="1:5" ht="37.799999999999997">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4348,10 +4655,10 @@
     </row>
     <row r="11" spans="1:5" ht="37.799999999999997">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4365,10 +4672,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4382,10 +4689,10 @@
     </row>
     <row r="13" spans="1:5" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -4399,10 +4706,10 @@
     </row>
     <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -4416,10 +4723,10 @@
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
@@ -4433,10 +4740,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -4450,10 +4757,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -4467,10 +4774,10 @@
     </row>
     <row r="18" spans="1:5" ht="37.799999999999997">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -4484,10 +4791,10 @@
     </row>
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -4501,10 +4808,10 @@
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A20" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
@@ -4518,10 +4825,10 @@
     </row>
     <row r="21" spans="1:5" ht="62.4">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -4535,10 +4842,10 @@
     </row>
     <row r="22" spans="1:5" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -4552,10 +4859,10 @@
     </row>
     <row r="23" spans="1:5" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -4569,10 +4876,10 @@
     </row>
     <row r="24" spans="1:5" ht="37.799999999999997">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -4586,10 +4893,10 @@
     </row>
     <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -4603,10 +4910,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4620,10 +4927,10 @@
     </row>
     <row r="27" spans="1:5" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4642,1605 +4949,1641 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.15625" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" customWidth="1"/>
+    <col min="1" max="1" width="49.15625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="57.6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="86.4">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="12" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="12" customFormat="1">
+      <c r="A18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="12" customFormat="1">
+      <c r="A20" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="12" customFormat="1">
+      <c r="A21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="12" customFormat="1">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="12" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="12" customFormat="1">
+      <c r="A24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="12" customFormat="1">
+      <c r="A25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="12" customFormat="1">
+      <c r="A26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="12" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="12" customFormat="1">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="12" customFormat="1">
+      <c r="A29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="12" customFormat="1">
+      <c r="A30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="12" customFormat="1" ht="43.2">
+      <c r="A31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1">
+      <c r="A32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="12" customFormat="1">
+      <c r="A33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="12" customFormat="1">
+      <c r="A34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+      <c r="C34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="12" customFormat="1">
+      <c r="A35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="12" customFormat="1">
+      <c r="A36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="12" customFormat="1">
+      <c r="A37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="12" customFormat="1">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="12" customFormat="1">
+      <c r="A39" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="12" customFormat="1">
+      <c r="A40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="12" customFormat="1">
+      <c r="A41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="12" customFormat="1">
+      <c r="A42" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="12" customFormat="1">
+      <c r="A43" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="12" customFormat="1">
+      <c r="A44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A45" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="12" customFormat="1">
+      <c r="A46" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="12" customFormat="1">
+      <c r="A47" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="12" customFormat="1">
+      <c r="A48" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="12" customFormat="1">
+      <c r="A49" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="12" customFormat="1">
+      <c r="A50" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="12" customFormat="1">
+      <c r="A51" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="12" customFormat="1">
+      <c r="A52" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A53" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A54" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="12" customFormat="1">
+      <c r="A55" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="12" customFormat="1">
+      <c r="A56" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="12" customFormat="1" ht="57.6">
+      <c r="A57" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="12" customFormat="1" ht="43.2">
+      <c r="A58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="12" customFormat="1" ht="43.2">
+      <c r="A59" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A61" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="12" customFormat="1" ht="43.2">
+      <c r="A63" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8">
+      <c r="A64" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1">
-      <c r="A20" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1">
-      <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1">
-      <c r="A40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1">
-      <c r="A42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1">
-      <c r="A43" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1">
-      <c r="A44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1">
-      <c r="A46" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1">
-      <c r="A47" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1">
-      <c r="A48" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="1" customFormat="1">
-      <c r="A49" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="1" customFormat="1">
-      <c r="A50" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="1" customFormat="1">
-      <c r="A51" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="1" customFormat="1">
-      <c r="A52" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="1" customFormat="1">
-      <c r="A53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="1" customFormat="1">
-      <c r="A54" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="1" customFormat="1">
-      <c r="A56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A57" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="1" customFormat="1">
-      <c r="A61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>433</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8">
+      <c r="A70" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8">
+      <c r="A71" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8">
+      <c r="A72" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8">
+      <c r="A73" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.8">
+      <c r="A74" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8">
+      <c r="A75" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28.8">
+      <c r="A77" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.8">
+      <c r="A78" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8">
+      <c r="A79" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="12" customFormat="1" ht="28.8">
+      <c r="A80" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="12" customFormat="1" ht="28.8">
+      <c r="A81" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="12" customFormat="1" ht="28.8">
+      <c r="A82" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="12" customFormat="1" ht="28.8">
+      <c r="A83" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="12" customFormat="1" ht="28.8">
+      <c r="A84" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="12" customFormat="1" ht="28.8">
+      <c r="A85" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.8">
-      <c r="A72" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.8">
-      <c r="A73" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8">
-      <c r="A74" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8">
-      <c r="A75" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A77" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A78" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="12" customFormat="1">
-      <c r="A79" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="28.8">
-      <c r="A80" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A81" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A82" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A83" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1">
-      <c r="A84" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A85" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="B92" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C92" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
+      <c r="B93" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>0</v>
+      <c r="C93" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6286,10 +6629,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -6303,10 +6646,10 @@
     </row>
     <row r="3" spans="1:5" ht="25.5">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6320,10 +6663,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -6337,10 +6680,10 @@
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -6354,10 +6697,10 @@
     </row>
     <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -6371,10 +6714,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -6388,10 +6731,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -6405,10 +6748,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -6422,10 +6765,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -6439,10 +6782,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -6456,10 +6799,10 @@
     </row>
     <row r="12" spans="1:5" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -6473,10 +6816,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -6490,10 +6833,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -6507,10 +6850,10 @@
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -6524,10 +6867,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
@@ -6541,10 +6884,10 @@
     </row>
     <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -6558,10 +6901,10 @@
     </row>
     <row r="18" spans="1:5" ht="25.5">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -6575,10 +6918,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -6592,10 +6935,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -6609,10 +6952,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -6626,10 +6969,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -6643,10 +6986,10 @@
     </row>
     <row r="23" spans="1:5" ht="28.8">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -6660,10 +7003,10 @@
     </row>
     <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -6677,10 +7020,10 @@
     </row>
     <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -6694,10 +7037,10 @@
     </row>
     <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -6711,10 +7054,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -6728,10 +7071,10 @@
     </row>
     <row r="28" spans="1:5" ht="28.8">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -6745,10 +7088,10 @@
     </row>
     <row r="29" spans="1:5" ht="28.8">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -6802,10 +7145,10 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6814,15 +7157,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6831,15 +7174,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -6848,15 +7191,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -6865,15 +7208,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -6882,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -6899,16 +7242,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -6917,15 +7260,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -6934,15 +7277,15 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -6951,15 +7294,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -6968,15 +7311,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -6985,15 +7328,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -7002,15 +7345,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -7019,15 +7362,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -7036,15 +7379,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -7053,15 +7396,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -7070,15 +7413,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -7087,15 +7430,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.299999999999997">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -7104,15 +7447,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -7121,15 +7464,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -7138,15 +7481,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.799999999999997">
       <c r="A22" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -7155,15 +7498,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.799999999999997">
       <c r="A23" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -7172,15 +7515,15 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
       <c r="A24" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -7189,15 +7532,15 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -7206,15 +7549,15 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -7223,15 +7566,15 @@
         <v>0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -7240,15 +7583,15 @@
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36.9">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -7257,15 +7600,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -7274,15 +7617,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="36.9">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -7291,15 +7634,15 @@
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
@@ -7308,15 +7651,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -7325,15 +7668,15 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -7342,15 +7685,15 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -7359,15 +7702,15 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -7376,15 +7719,15 @@
         <v>0</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="37.799999999999997">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -7393,15 +7736,15 @@
         <v>0</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -7410,15 +7753,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -7427,15 +7770,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
       <c r="A39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -7444,15 +7787,15 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -7461,15 +7804,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -7478,15 +7821,15 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -7495,15 +7838,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -7512,15 +7855,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="49.2">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -7529,15 +7872,15 @@
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
       <c r="A45" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
@@ -7546,15 +7889,15 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -7563,15 +7906,15 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.9">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -7580,15 +7923,15 @@
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -7597,15 +7940,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.7">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -7614,15 +7957,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -7631,15 +7974,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -7648,15 +7991,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -7665,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="597">
   <si>
     <t>XXXX</t>
   </si>
@@ -2026,6 +2026,30 @@
   </si>
   <si>
     <t>Selecciona un idioma</t>
+  </si>
+  <si>
+    <t>Requrires {0} officers for {1} turns</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_REQUIREMENT_PLURAL</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_REQUIREMENT_SINGULAR</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_REQUIREMENT_OFFICER_PLURAL</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_REQUIREMENT_TURN_PLURAL</t>
+  </si>
+  <si>
+    <t>Requires {0} officers for 1 turn</t>
+  </si>
+  <si>
+    <t>Requrires 1 officer for 1 turn</t>
+  </si>
+  <si>
+    <t>Requires 1 officer for {0} turns</t>
   </si>
 </sst>
 </file>
@@ -4950,10 +4974,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6584,6 +6608,74 @@
       </c>
       <c r="E95" s="16" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="571">
   <si>
     <t>XXXX</t>
   </si>
@@ -829,109 +829,13 @@
     <t>Due to delay in deployment key evidence is lost &amp; prosecution no longer possible</t>
   </si>
   <si>
-    <t>A neighbor complains about noise from nearby house</t>
-  </si>
-  <si>
-    <t>A neighbor's dog is barking</t>
-  </si>
-  <si>
-    <t>As a result of the fight a woman is screaming out of her lungs to her husband regarding a difference they had related to their child.</t>
-  </si>
-  <si>
-    <t>A citizen reports that a kid is heard crying produsely from the back side of the house looking through the slightly open door</t>
-  </si>
-  <si>
-    <t>As soon as the parents realise the absense of the kid they decide to file a report through the INSPEC2T app.</t>
-  </si>
-  <si>
-    <t>The woman rushes out of the house gets in the car and starts looking for the kid; she is in panic mode and drives recklessly. As a result she hits an electricity pillar</t>
-  </si>
-  <si>
     <t>SCENARIO_1_INDEX_7</t>
   </si>
   <si>
-    <t>SCENARIO_1_INDEX_8</t>
-  </si>
-  <si>
-    <t>SCENARIO_1_INDEX_9</t>
-  </si>
-  <si>
-    <t>SCENARIO_1_INDEX_11</t>
-  </si>
-  <si>
-    <t>The police surrounds the area to avoid any chances of electrocution or the generation of fire</t>
-  </si>
-  <si>
-    <t>returned to the nearby police station</t>
-  </si>
-  <si>
-    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. None of the parents wanted to file the incident.</t>
-  </si>
-  <si>
-    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. However the officer needed to transfer the child to the social services and ensure that everything is ok</t>
-  </si>
-  <si>
-    <t>SCENARIO_1_INDEX_10</t>
-  </si>
-  <si>
-    <t>SCENARIO_1_INDEX_12</t>
-  </si>
-  <si>
-    <t>SCENARIO_1_INDEX_13</t>
-  </si>
-  <si>
-    <t>Officers find the kid and they immediately contact hs parents</t>
-  </si>
-  <si>
-    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by citizens</t>
-  </si>
-  <si>
-    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by officers</t>
-  </si>
-  <si>
-    <t>A citizen reported littering in around his neighbourhood. His newly moved neighbors do not seem to respect others' space</t>
-  </si>
-  <si>
-    <t>A citizen reported littering in around his neighbourhood for the second time</t>
-  </si>
-  <si>
-    <t>The two neighbours are involved in an argument</t>
-  </si>
-  <si>
-    <t>The argument escalated on a fight which required the intervention of the police. The two neighbours seem to be unfriendly with each other with the issue between them still unresolved</t>
-  </si>
-  <si>
-    <t>A police officer resolves the issue and the two neighbours restored their trust in police and managed to build a strong relationship</t>
-  </si>
-  <si>
     <t>SCENARIO_3_INDEX_7</t>
   </si>
   <si>
     <t>SCENARIO_3_INDEX_8</t>
-  </si>
-  <si>
-    <t>A citizen reported that her dog got sick after their walk around the neighbourhood and claimed the existence of pet poison around the area</t>
-  </si>
-  <si>
-    <t>Multiple citizens reported the existense of pet poison through the use of the INSPEC2T app. Some of them also associated the event with a number of locations. Thanks to the spatiotemporal processing in INSPEC2T. The system suggested the correlation of some reports and provided an estimation of the location.</t>
-  </si>
-  <si>
-    <t>Thanks to system indications and the contribution of citizens the officer managed to find and remove the poison within the area</t>
-  </si>
-  <si>
-    <t>The officers spent a long time on this but it paid off. They have managed to identify the poison and cleared the area.</t>
-  </si>
-  <si>
-    <t>Broadcasted a message to the area and urged anyone knowing anything about the event to contact the police or file a report. The case is not closed until the perpetrator is found</t>
-  </si>
-  <si>
-    <t>Multiple citizens provided key information to the police about a person that seems to be responsible for putting the poison to the area</t>
-  </si>
-  <si>
-    <t>The suspect is being arrested and is sent for questioning</t>
-  </si>
-  <si>
-    <t>The public seems to be losing trust in the police. They feel that the system does not work and get discouraged in providing input in the future</t>
   </si>
   <si>
     <t>Youth group making graffiti</t>
@@ -2051,12 +1955,30 @@
   <si>
     <t>Requires 1 officer for {0} turns</t>
   </si>
+  <si>
+    <t>TUTORIAL_TEXT_BUTTON_WAIT</t>
+  </si>
+  <si>
+    <t>TUTORIAL_TEXT_BUTTON_CITIZEN</t>
+  </si>
+  <si>
+    <t>TUTORIAL_TEXT_BUTTON_OFFICER</t>
+  </si>
+  <si>
+    <t>Sending the required number of officers to an incident will uncover more information or lead to solving a case.*2n*Officers sent to an incident will be unavailable until they return</t>
+  </si>
+  <si>
+    <t>Sometimes the citizen button will be available where you can ask members of the public to help provide assistance with an incident.*2n*An effective resource, but asking for help in all incidents will not be beneficial and may endanger citizens</t>
+  </si>
+  <si>
+    <t>The ignore button will not send any officers to investigate an incident. *2n*Use this when you do not have enough officers available or the incident is too resource intensive. But, use the option with care, ignored incidents may develop to be much worse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,13 +1997,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2156,9 +2071,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2175,16 +2090,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2196,16 +2108,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2969,7 +2881,7 @@
         <v>154</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -3139,7 +3051,7 @@
         <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -3445,7 +3357,7 @@
         <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3751,7 +3663,7 @@
         <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3955,7 +3867,7 @@
         <v>261</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -3975,10 +3887,3590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.7">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.6">
+      <c r="A8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.6">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="37.799999999999997">
+      <c r="A22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5">
+      <c r="A23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5">
+      <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5">
+      <c r="A28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5">
+      <c r="A30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27">
+      <c r="A34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24.6">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5">
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.6">
+      <c r="A38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5">
+      <c r="A40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.7">
+      <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5">
+      <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5">
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="37.799999999999997">
+      <c r="A44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5">
+      <c r="A48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="39.299999999999997">
+      <c r="A49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.5">
+      <c r="A50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.5">
+      <c r="A51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.7">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.6">
+      <c r="A8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="25.5">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.6">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="37.799999999999997">
+      <c r="A22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5">
+      <c r="A23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5">
+      <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5">
+      <c r="A27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5">
+      <c r="A28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5">
+      <c r="A30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27">
+      <c r="A34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24.6">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5">
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.6">
+      <c r="A38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5">
+      <c r="A40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.7">
+      <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5">
+      <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5">
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="37.799999999999997">
+      <c r="A44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5">
+      <c r="A48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="39.299999999999997">
+      <c r="A49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.5">
+      <c r="A50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="25.5">
+      <c r="A51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="49.15625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="11" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="86.4">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1">
+      <c r="A7" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="11" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="11" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="11" customFormat="1">
+      <c r="A34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="11" customFormat="1">
+      <c r="A35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1">
+      <c r="A36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="11" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="11" customFormat="1">
+      <c r="A38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="11" customFormat="1">
+      <c r="A39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="11" customFormat="1">
+      <c r="A40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="11" customFormat="1">
+      <c r="A41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="11" customFormat="1">
+      <c r="A42" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="11" customFormat="1">
+      <c r="A43" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="11" customFormat="1">
+      <c r="A44" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="11" customFormat="1">
+      <c r="A46" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="11" customFormat="1">
+      <c r="A47" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="11" customFormat="1">
+      <c r="A48" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="11" customFormat="1">
+      <c r="A49" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="11" customFormat="1">
+      <c r="A50" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="11" customFormat="1">
+      <c r="A51" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="11" customFormat="1">
+      <c r="A52" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A54" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="11" customFormat="1">
+      <c r="A55" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="11" customFormat="1">
+      <c r="A56" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A57" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A59" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A61" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A62" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A63" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A64" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A65" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8">
+      <c r="A67" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8">
+      <c r="A73" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.8">
+      <c r="A74" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8">
+      <c r="A75" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8">
+      <c r="A76" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28.8">
+      <c r="A77" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.8">
+      <c r="A78" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8">
+      <c r="A80" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8">
+      <c r="A81" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8">
+      <c r="A82" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A83" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A84" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A85" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A86" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A87" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A88" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4348,2853 +7840,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8">
-      <c r="A23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8">
-      <c r="A24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8">
-      <c r="A25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8">
-      <c r="A26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8">
-      <c r="A28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8">
-      <c r="A29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.1">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5">
-      <c r="A8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.799999999999997">
-      <c r="A10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="37.799999999999997">
-      <c r="A11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="25.5">
-      <c r="A15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="37.799999999999997">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="25.5">
-      <c r="A20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="62.4">
-      <c r="A21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5">
-      <c r="A22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5">
-      <c r="A23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="37.799999999999997">
-      <c r="A24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="25.5">
-      <c r="A25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5">
-      <c r="A27" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F99"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="49.15625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.83984375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.89453125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="86.4">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1">
-      <c r="A7" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1">
-      <c r="A18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="12" customFormat="1">
-      <c r="A19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="12" customFormat="1">
-      <c r="A20" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="12" customFormat="1">
-      <c r="A21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="12" customFormat="1">
-      <c r="A22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="12" customFormat="1">
-      <c r="A23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="12" customFormat="1">
-      <c r="A24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="12" customFormat="1">
-      <c r="A25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="12" customFormat="1">
-      <c r="A26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="12" customFormat="1">
-      <c r="A27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="12" customFormat="1">
-      <c r="A28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="12" customFormat="1">
-      <c r="A29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="12" customFormat="1">
-      <c r="A30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="12" customFormat="1" ht="43.2">
-      <c r="A31" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="12" customFormat="1">
-      <c r="A32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1">
-      <c r="A33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1">
-      <c r="A34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="12" customFormat="1">
-      <c r="A35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="12" customFormat="1">
-      <c r="A36" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="12" customFormat="1">
-      <c r="A37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="12" customFormat="1">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="12" customFormat="1">
-      <c r="A39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="12" customFormat="1">
-      <c r="A40" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="12" customFormat="1">
-      <c r="A41" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="12" customFormat="1">
-      <c r="A42" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="12" customFormat="1">
-      <c r="A43" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="12" customFormat="1">
-      <c r="A44" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A45" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="12" customFormat="1">
-      <c r="A46" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="12" customFormat="1">
-      <c r="A47" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="12" customFormat="1">
-      <c r="A48" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="12" customFormat="1">
-      <c r="A49" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="12" customFormat="1">
-      <c r="A50" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="12" customFormat="1">
-      <c r="A51" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="12" customFormat="1">
-      <c r="A52" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A53" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A54" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="12" customFormat="1">
-      <c r="A55" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="12" customFormat="1">
-      <c r="A56" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="12" customFormat="1" ht="57.6">
-      <c r="A57" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="12" customFormat="1" ht="43.2">
-      <c r="A58" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="12" customFormat="1" ht="43.2">
-      <c r="A59" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A60" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A61" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A62" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="12" customFormat="1" ht="43.2">
-      <c r="A63" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8">
-      <c r="A64" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8">
-      <c r="A70" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8">
-      <c r="A71" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.8">
-      <c r="A72" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.8">
-      <c r="A73" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8">
-      <c r="A74" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8">
-      <c r="A75" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="28.8">
-      <c r="A77" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="28.8">
-      <c r="A78" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.8">
-      <c r="A79" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="12" customFormat="1" ht="28.8">
-      <c r="A80" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="12" customFormat="1" ht="28.8">
-      <c r="A81" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="12" customFormat="1" ht="28.8">
-      <c r="A82" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="12" customFormat="1" ht="28.8">
-      <c r="A83" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="12" customFormat="1" ht="28.8">
-      <c r="A84" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="12" customFormat="1" ht="28.8">
-      <c r="A85" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5">
-      <c r="A12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="25.5">
-      <c r="A17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5">
-      <c r="A18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8">
-      <c r="A23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8">
-      <c r="A24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8">
-      <c r="A25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8">
-      <c r="A26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8">
-      <c r="A28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8">
-      <c r="A29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7204,8 +7849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7239,8 +7884,8 @@
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>301</v>
+      <c r="B2" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -7248,16 +7893,16 @@
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>322</v>
+      <c r="E2" s="10" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>301</v>
+      <c r="B3" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -7265,16 +7910,16 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>323</v>
+      <c r="E3" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>305</v>
+      <c r="B4" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -7282,16 +7927,16 @@
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>342</v>
+      <c r="E4" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>302</v>
+      <c r="B5" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -7299,16 +7944,16 @@
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>324</v>
+      <c r="E5" s="10" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>303</v>
+      <c r="B6" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -7316,16 +7961,16 @@
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>325</v>
+      <c r="E6" s="10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>304</v>
+      <c r="B7" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -7333,17 +7978,17 @@
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>306</v>
+        <v>266</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -7351,16 +7996,16 @@
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>327</v>
+      <c r="E8" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>307</v>
+      <c r="B9" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -7368,16 +8013,16 @@
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>328</v>
+      <c r="E9" s="10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.6">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>308</v>
+      <c r="B10" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -7385,16 +8030,16 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>329</v>
+      <c r="E10" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>309</v>
+      <c r="B11" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -7402,16 +8047,16 @@
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>330</v>
+      <c r="E11" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.6">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>310</v>
+      <c r="B12" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -7419,16 +8064,16 @@
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>331</v>
+      <c r="E12" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>311</v>
+      <c r="B13" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -7436,16 +8081,16 @@
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>332</v>
+      <c r="E13" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>312</v>
+      <c r="B14" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -7453,16 +8098,16 @@
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>333</v>
+      <c r="E14" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>313</v>
+      <c r="B15" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -7470,16 +8115,16 @@
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>334</v>
+      <c r="E15" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>314</v>
+      <c r="B16" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -7487,16 +8132,16 @@
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>335</v>
+      <c r="E16" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>315</v>
+      <c r="B17" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -7504,16 +8149,16 @@
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>336</v>
+      <c r="E17" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>316</v>
+      <c r="B18" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -7521,16 +8166,16 @@
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>337</v>
+      <c r="E18" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.299999999999997">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>321</v>
+      <c r="B19" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
@@ -7538,16 +8183,16 @@
       <c r="D19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>343</v>
+      <c r="E19" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25.5">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>317</v>
+      <c r="B20" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
@@ -7555,16 +8200,16 @@
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>338</v>
+      <c r="E20" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>318</v>
+      <c r="B21" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
@@ -7572,16 +8217,16 @@
       <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>339</v>
+      <c r="E21" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.799999999999997">
       <c r="A22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>319</v>
+        <v>267</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -7589,16 +8234,16 @@
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>340</v>
+      <c r="E22" s="10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.799999999999997">
       <c r="A23" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>320</v>
+        <v>268</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
@@ -7606,8 +8251,8 @@
       <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>341</v>
+      <c r="E23" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
@@ -7615,7 +8260,7 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
@@ -7623,8 +8268,8 @@
       <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>375</v>
+      <c r="E24" s="10" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5">
@@ -7632,7 +8277,7 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
@@ -7640,8 +8285,8 @@
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>375</v>
+      <c r="E25" s="10" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5">
@@ -7649,7 +8294,7 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -7657,8 +8302,8 @@
       <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>376</v>
+      <c r="E26" s="10" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5">
@@ -7666,7 +8311,7 @@
         <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -7674,8 +8319,8 @@
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>377</v>
+      <c r="E27" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36.9">
@@ -7683,7 +8328,7 @@
         <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -7691,16 +8336,16 @@
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>378</v>
+      <c r="E28" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -7708,16 +8353,16 @@
       <c r="D29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>379</v>
+      <c r="E29" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="36.9">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -7725,16 +8370,16 @@
       <c r="D30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>380</v>
+      <c r="E30" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>354</v>
+      <c r="B31" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>0</v>
@@ -7742,16 +8387,16 @@
       <c r="D31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>381</v>
+      <c r="E31" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>355</v>
+      <c r="B32" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -7759,16 +8404,16 @@
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>382</v>
+      <c r="E32" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>356</v>
+      <c r="B33" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
@@ -7776,16 +8421,16 @@
       <c r="D33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>383</v>
+      <c r="E33" s="10" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>360</v>
+      <c r="B34" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
@@ -7793,16 +8438,16 @@
       <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>399</v>
+      <c r="E34" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>357</v>
+      <c r="B35" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>0</v>
@@ -7810,16 +8455,16 @@
       <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>384</v>
+      <c r="E35" s="10" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="37.799999999999997">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>361</v>
+      <c r="B36" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -7827,16 +8472,16 @@
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>385</v>
+      <c r="E36" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>358</v>
+      <c r="B37" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -7844,16 +8489,16 @@
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>386</v>
+      <c r="E37" s="10" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>359</v>
+        <v>321</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -7861,8 +8506,8 @@
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>387</v>
+      <c r="E38" s="10" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
@@ -7870,7 +8515,7 @@
         <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>0</v>
@@ -7878,8 +8523,8 @@
       <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>388</v>
+      <c r="E39" s="10" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5">
@@ -7887,7 +8532,7 @@
         <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -7895,8 +8540,8 @@
       <c r="D40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>389</v>
+      <c r="E40" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
@@ -7904,7 +8549,7 @@
         <v>179</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -7912,8 +8557,8 @@
       <c r="D41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>400</v>
+      <c r="E41" s="10" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5">
@@ -7921,7 +8566,7 @@
         <v>177</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -7929,8 +8574,8 @@
       <c r="D42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>390</v>
+      <c r="E42" s="10" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5">
@@ -7938,7 +8583,7 @@
         <v>180</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -7946,8 +8591,8 @@
       <c r="D43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>391</v>
+      <c r="E43" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="49.2">
@@ -7955,7 +8600,7 @@
         <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -7963,8 +8608,8 @@
       <c r="D44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>392</v>
+      <c r="E44" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
@@ -7972,7 +8617,7 @@
         <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>0</v>
@@ -7980,8 +8625,8 @@
       <c r="D45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>393</v>
+      <c r="E45" s="10" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5">
@@ -7989,7 +8634,7 @@
         <v>193</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -7997,8 +8642,8 @@
       <c r="D46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>394</v>
+      <c r="E46" s="10" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.9">
@@ -8006,7 +8651,7 @@
         <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -8014,8 +8659,8 @@
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>395</v>
+      <c r="E47" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27">
@@ -8023,16 +8668,16 @@
         <v>195</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.7">
@@ -8040,7 +8685,7 @@
         <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
@@ -8048,8 +8693,8 @@
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>402</v>
+      <c r="E49" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5">
@@ -8057,7 +8702,7 @@
         <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
@@ -8065,8 +8710,8 @@
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>396</v>
+      <c r="E50" s="9" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5">
@@ -8074,7 +8719,7 @@
         <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -8082,8 +8727,8 @@
       <c r="D51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>397</v>
+      <c r="E51" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8091,7 +8736,7 @@
         <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -8099,8 +8744,8 @@
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>398</v>
+      <c r="E52" s="10" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="573">
   <si>
     <t>XXXX</t>
   </si>
@@ -1389,9 +1389,6 @@
     <t>BASIC_TEXT_NO_OFFICERS</t>
   </si>
   <si>
-    <t>No officers available!</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_RESUME</t>
   </si>
   <si>
@@ -1972,6 +1969,15 @@
   </si>
   <si>
     <t>The ignore button will not send any officers to investigate an incident. *2n*Use this when you do not have enough officers available or the incident is too resource intensive. But, use the option with care, ignored incidents may develop to be much worse</t>
+  </si>
+  <si>
+    <t>Not Enough Officers!</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CLOSE_CASE</t>
+  </si>
+  <si>
+    <t>Close Case</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2887,7 @@
         <v>154</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
@@ -3051,7 +3057,7 @@
         <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -3357,7 +3363,7 @@
         <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -3663,7 +3669,7 @@
         <v>241</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>0</v>
@@ -3867,7 +3873,7 @@
         <v>261</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -4797,7 +4803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -5704,10 +5710,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1">
@@ -5759,16 +5765,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1">
@@ -5785,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1">
@@ -5802,7 +5808,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1">
@@ -5819,16 +5825,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1">
       <c r="A7" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>452</v>
-      </c>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1" ht="14.7" customHeight="1">
@@ -5853,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1">
@@ -5870,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1">
@@ -5887,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1">
@@ -5904,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1">
@@ -5921,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -5938,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1">
@@ -5955,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -5972,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -5989,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1">
@@ -6006,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
@@ -6023,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1">
@@ -6040,16 +6046,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1">
       <c r="A20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>386</v>
-      </c>
       <c r="C20" s="11" t="s">
         <v>0</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
@@ -6074,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
@@ -6091,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1">
@@ -6108,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1">
@@ -6125,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1">
@@ -6142,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1">
@@ -6159,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1">
@@ -6176,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1">
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1">
@@ -6210,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1">
@@ -6227,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="43.2">
@@ -6244,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1">
@@ -6261,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="11" customFormat="1">
@@ -6269,16 +6275,16 @@
         <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="11" customFormat="1">
@@ -6295,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="11" customFormat="1">
@@ -6312,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1">
@@ -6329,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="11" customFormat="1">
@@ -6346,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="11" customFormat="1">
@@ -6363,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="11" customFormat="1">
@@ -6380,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1">
@@ -6397,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="11" customFormat="1">
@@ -6414,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="11" customFormat="1">
@@ -6431,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="11" customFormat="1">
@@ -6448,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="11" customFormat="1">
@@ -6465,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6482,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="11" customFormat="1">
@@ -6490,7 +6496,7 @@
         <v>375</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>376</v>
+        <v>570</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>0</v>
@@ -6499,15 +6505,15 @@
         <v>0</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="11" customFormat="1">
       <c r="A47" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>0</v>
@@ -6516,15 +6522,15 @@
         <v>0</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="11" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>0</v>
@@ -6533,16 +6539,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="11" customFormat="1">
       <c r="A49" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="C49" s="11" t="s">
         <v>0</v>
       </c>
@@ -6550,16 +6556,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="11" customFormat="1">
       <c r="A50" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="C50" s="11" t="s">
         <v>0</v>
       </c>
@@ -6567,16 +6573,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="11" customFormat="1">
       <c r="A51" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="C51" s="11" t="s">
         <v>0</v>
       </c>
@@ -6584,16 +6590,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="11" customFormat="1">
       <c r="A52" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>392</v>
-      </c>
       <c r="C52" s="11" t="s">
         <v>0</v>
       </c>
@@ -6601,15 +6607,15 @@
         <v>0</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="11" customFormat="1" ht="28.8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="11" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>140</v>
+        <v>571</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>141</v>
+        <v>572</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>0</v>
@@ -6618,33 +6624,33 @@
         <v>0</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="11" customFormat="1" ht="28.8">
       <c r="A54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A55" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="11" customFormat="1">
-      <c r="A55" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>394</v>
-      </c>
       <c r="C55" s="11" t="s">
         <v>0</v>
       </c>
@@ -6652,84 +6658,84 @@
         <v>0</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="11" customFormat="1">
       <c r="A56" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="11" customFormat="1">
+      <c r="A57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="C57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A58" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="11" customFormat="1" ht="57.6">
-      <c r="A57" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A58" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="11" customFormat="1" ht="43.2">
       <c r="A59" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="11" customFormat="1" ht="28.8">
-      <c r="A60" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="C60" s="11" t="s">
         <v>0</v>
       </c>
@@ -6737,15 +6743,15 @@
         <v>0</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="11" customFormat="1" ht="28.8">
       <c r="A61" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>0</v>
@@ -6754,33 +6760,33 @@
         <v>0</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="11" customFormat="1" ht="28.8">
       <c r="A62" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="11" customFormat="1" ht="57.6">
-      <c r="A63" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>570</v>
-      </c>
       <c r="C63" s="11" t="s">
         <v>0</v>
       </c>
@@ -6788,12 +6794,12 @@
         <v>0</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>0</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="11" customFormat="1" ht="57.6">
       <c r="A64" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>569</v>
@@ -6808,9 +6814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="65" spans="1:5" s="11" customFormat="1" ht="57.6">
       <c r="A65" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>568</v>
@@ -6827,28 +6833,28 @@
     </row>
     <row r="66" spans="1:5" s="11" customFormat="1" ht="43.2">
       <c r="A66" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8">
-      <c r="A67" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>398</v>
-      </c>
       <c r="C67" s="11" t="s">
         <v>0</v>
       </c>
@@ -6856,12 +6862,12 @@
         <v>0</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8">
       <c r="A68" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>397</v>
@@ -6873,33 +6879,33 @@
         <v>0</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="13" t="s">
-        <v>399</v>
+      <c r="A69" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>401</v>
-      </c>
       <c r="C70" s="11" t="s">
         <v>0</v>
       </c>
@@ -6907,15 +6913,15 @@
         <v>0</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>0</v>
@@ -6924,12 +6930,12 @@
         <v>0</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>453</v>
@@ -6941,15 +6947,15 @@
         <v>0</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>0</v>
@@ -6958,12 +6964,12 @@
         <v>0</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="28.8">
       <c r="A74" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>431</v>
@@ -6975,12 +6981,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8">
       <c r="A75" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>430</v>
@@ -6992,12 +6998,12 @@
         <v>0</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.8">
       <c r="A76" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>429</v>
@@ -7009,12 +7015,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.8">
       <c r="A77" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>428</v>
@@ -7026,66 +7032,66 @@
         <v>0</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8">
       <c r="A78" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8">
+      <c r="A79" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="C79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="B80" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="28.8">
-      <c r="A80" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.8">
       <c r="A81" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>0</v>
@@ -7094,15 +7100,15 @@
         <v>0</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8">
       <c r="A82" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>0</v>
@@ -7111,15 +7117,15 @@
         <v>0</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="11" customFormat="1" ht="28.8">
-      <c r="A83" s="11" t="s">
-        <v>421</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8">
+      <c r="A83" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>0</v>
@@ -7128,16 +7134,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A84" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>426</v>
-      </c>
       <c r="C84" s="11" t="s">
         <v>0</v>
       </c>
@@ -7145,15 +7151,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A85" s="11" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>0</v>
@@ -7162,15 +7168,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A86" s="11" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>0</v>
@@ -7179,15 +7185,15 @@
         <v>0</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A87" s="11" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>0</v>
@@ -7196,33 +7202,33 @@
         <v>0</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A88" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A89" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>437</v>
-      </c>
       <c r="C89" s="11" t="s">
         <v>0</v>
       </c>
@@ -7230,16 +7236,15 @@
         <v>0</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="F89" s="11"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>0</v>
@@ -7254,10 +7259,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>0</v>
@@ -7272,10 +7277,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>0</v>
@@ -7290,10 +7295,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>0</v>
@@ -7307,96 +7312,97 @@
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="13" t="s">
-        <v>455</v>
+      <c r="A94" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>555</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>551</v>
+      <c r="C97" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="13" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>0</v>
@@ -7404,8 +7410,8 @@
       <c r="D99" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>0</v>
+      <c r="E99" s="15" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -7413,7 +7419,7 @@
         <v>558</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>0</v>
@@ -7427,10 +7433,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>0</v>
@@ -7444,11 +7450,11 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>564</v>
-      </c>
       <c r="C102" s="13" t="s">
         <v>0</v>
       </c>
@@ -7456,6 +7462,23 @@
         <v>0</v>
       </c>
       <c r="E102" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="576">
   <si>
     <t>XXXX</t>
   </si>
@@ -1743,9 +1743,6 @@
     <t>Oficiales requeridos</t>
   </si>
   <si>
-    <t>Sobrevivieron gira</t>
-  </si>
-  <si>
     <t>Puntuación más alta</t>
   </si>
   <si>
@@ -1978,6 +1975,18 @@
   </si>
   <si>
     <t>Close Case</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CASES_RESOLVED</t>
+  </si>
+  <si>
+    <t>Cases Resolved</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_TURNS_SURVIVED</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -5710,10 +5719,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5757,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1">
@@ -6343,7 +6352,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>373</v>
+        <v>575</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>0</v>
@@ -6352,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="11" customFormat="1">
@@ -6369,15 +6378,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="11" customFormat="1">
       <c r="A39" s="11" t="s">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>115</v>
+        <v>573</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>0</v>
@@ -6386,15 +6395,15 @@
         <v>0</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>112</v>
+        <v>373</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>0</v>
@@ -6403,15 +6412,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="11" customFormat="1">
       <c r="A41" s="11" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>0</v>
@@ -6420,15 +6429,15 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="11" customFormat="1">
       <c r="A42" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>0</v>
@@ -6437,15 +6446,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="11" customFormat="1">
       <c r="A43" s="11" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>372</v>
+        <v>114</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>0</v>
@@ -6454,15 +6463,15 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="11" customFormat="1">
       <c r="A44" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>0</v>
@@ -6471,15 +6480,15 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="11" customFormat="1" ht="28.8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="11" customFormat="1">
       <c r="A45" s="11" t="s">
-        <v>136</v>
+        <v>371</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>0</v>
@@ -6488,15 +6497,15 @@
         <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="11" customFormat="1">
       <c r="A46" s="11" t="s">
-        <v>375</v>
+        <v>110</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>570</v>
+        <v>109</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>0</v>
@@ -6505,15 +6514,15 @@
         <v>0</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="11" customFormat="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="11" customFormat="1" ht="28.8">
       <c r="A47" s="11" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>380</v>
+        <v>137</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>0</v>
@@ -6522,15 +6531,15 @@
         <v>0</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="11" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>381</v>
+        <v>569</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>0</v>
@@ -6539,15 +6548,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="11" customFormat="1">
       <c r="A49" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>0</v>
@@ -6556,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="11" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>0</v>
@@ -6573,15 +6582,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="11" customFormat="1">
       <c r="A51" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>0</v>
@@ -6590,15 +6599,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="11" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>0</v>
@@ -6607,321 +6616,321 @@
         <v>0</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="11" customFormat="1">
       <c r="A53" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="11" customFormat="1">
+      <c r="A54" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="11" customFormat="1">
+      <c r="A55" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="11" customFormat="1" ht="28.8">
-      <c r="A54" s="11" t="s">
+      <c r="C55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A56" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="11" customFormat="1" ht="28.8">
-      <c r="A55" s="11" t="s">
+      <c r="C56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A57" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="C57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="11" customFormat="1">
+      <c r="A58" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="11" customFormat="1">
-      <c r="A56" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="12" t="s">
+    <row r="59" spans="1:5" s="11" customFormat="1">
+      <c r="A59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="11" customFormat="1">
-      <c r="A57" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12" t="s">
+    <row r="60" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A60" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="11" customFormat="1" ht="57.6">
-      <c r="A58" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12" t="s">
+    <row r="61" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A59" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12" t="s">
+    <row r="62" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A62" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A60" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="11" customFormat="1" ht="28.8">
-      <c r="A61" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="11" customFormat="1" ht="28.8">
-      <c r="A62" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="11" customFormat="1" ht="28.8">
       <c r="A63" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A64" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1" ht="28.8">
+      <c r="A65" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="C65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A66" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="A67" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A68" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="A69" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="11" customFormat="1" ht="57.6">
-      <c r="A64" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="11" customFormat="1" ht="57.6">
-      <c r="A65" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A66" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="11" customFormat="1" ht="43.2">
-      <c r="A67" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="12" t="s">
+    <row r="70" spans="1:5" ht="28.8">
+      <c r="A70" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28.8">
-      <c r="A68" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>0</v>
@@ -6930,15 +6939,15 @@
         <v>0</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="11" t="s">
-        <v>401</v>
+      <c r="A72" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>453</v>
+        <v>47</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>0</v>
@@ -6947,50 +6956,50 @@
         <v>0</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.8">
-      <c r="A74" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8">
-      <c r="A75" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>430</v>
-      </c>
       <c r="C75" s="11" t="s">
         <v>0</v>
       </c>
@@ -6998,15 +7007,15 @@
         <v>0</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.8">
       <c r="A76" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>0</v>
@@ -7015,15 +7024,15 @@
         <v>0</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.8">
       <c r="A77" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>0</v>
@@ -7032,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8">
       <c r="A78" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>0</v>
@@ -7049,118 +7058,118 @@
         <v>0</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8">
       <c r="A79" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8">
+      <c r="A80" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8">
+      <c r="A81" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="12" t="s">
+      <c r="C81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="28.8">
-      <c r="A81" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8">
-      <c r="A82" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.8">
       <c r="A83" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.8">
+      <c r="A84" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.8">
+      <c r="A85" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="11" customFormat="1" ht="28.8">
-      <c r="A84" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="11" customFormat="1" ht="28.8">
-      <c r="A85" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>425</v>
-      </c>
       <c r="C85" s="11" t="s">
         <v>0</v>
       </c>
@@ -7168,15 +7177,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A86" s="11" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>0</v>
@@ -7185,15 +7194,15 @@
         <v>0</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A87" s="11" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>0</v>
@@ -7202,15 +7211,15 @@
         <v>0</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A88" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>0</v>
@@ -7219,51 +7228,50 @@
         <v>0</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A89" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A90" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="A91" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="F90" s="11"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>442</v>
-      </c>
       <c r="C91" s="11" t="s">
         <v>0</v>
       </c>
@@ -7271,16 +7279,15 @@
         <v>0</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F91" s="11"/>
+        <v>539</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>0</v>
@@ -7289,16 +7296,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>0</v>
@@ -7307,16 +7314,16 @@
         <v>0</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>0</v>
@@ -7325,101 +7332,103 @@
         <v>0</v>
       </c>
       <c r="E94" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>555</v>
-      </c>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B98" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D98" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="11" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B99" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D99" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E99" s="14" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="13" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>0</v>
@@ -7427,16 +7436,16 @@
       <c r="D100" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="13" t="s">
-        <v>0</v>
+      <c r="E100" s="15" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="13" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>0</v>
@@ -7444,13 +7453,13 @@
       <c r="D101" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="13" t="s">
-        <v>0</v>
+      <c r="E101" s="15" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>561</v>
@@ -7467,18 +7476,52 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="13" t="s">
+      <c r="C104" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="586">
   <si>
     <t>XXXX</t>
   </si>
@@ -1987,6 +1987,36 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>TIPS_SATISFACTION</t>
+  </si>
+  <si>
+    <t>{0}% Citizen Satisfaction*n*Keep the badge out of the red area by making good choices</t>
+  </si>
+  <si>
+    <t>{0} Active Cases*n*Close cases by making good choices to make a big difference to citizen satisfaction</t>
+  </si>
+  <si>
+    <t>TIPS_INCIDENT</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICER</t>
+  </si>
+  <si>
+    <t>TIPS_OFFICERS</t>
+  </si>
+  <si>
+    <t>TIPS_INCIDENTS</t>
+  </si>
+  <si>
+    <t>{0} Active Case*n*Close cases by making good choices to make a big difference to citizen satisfaction</t>
+  </si>
+  <si>
+    <t>{0} Available Officer*n*A limited number available so be careful, you never know when a severe incident may occur</t>
+  </si>
+  <si>
+    <t>{0} Available Officers*n*A limited number available so be careful, you never know when a severe incident may occur</t>
   </si>
 </sst>
 </file>
@@ -5719,10 +5749,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7522,6 +7552,91 @@
         <v>0</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8">
+      <c r="A106" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.8">
+      <c r="A107" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.8">
+      <c r="A108" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8">
+      <c r="A109" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="28.8">
+      <c r="A110" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="590">
   <si>
     <t>XXXX</t>
   </si>
@@ -2017,6 +2017,18 @@
   </si>
   <si>
     <t>{0} Available Officers*n*A limited number available so be careful, you never know when a severe incident may occur</t>
+  </si>
+  <si>
+    <t>TIPS_TURN</t>
+  </si>
+  <si>
+    <t>TIPS_TURNS</t>
+  </si>
+  <si>
+    <t>{0} Turns Survived*n*Each turn will consist of a number of cases with choices to make</t>
+  </si>
+  <si>
+    <t>{0} Turn Survived*n*Each turn will consist of a number of cases with choices to make</t>
   </si>
 </sst>
 </file>
@@ -5749,10 +5761,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7637,6 +7649,40 @@
         <v>0</v>
       </c>
       <c r="E110" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.8">
+      <c r="A111" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.8">
+      <c r="A112" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="608">
   <si>
     <t>XXXX</t>
   </si>
@@ -1560,9 +1560,6 @@
     <t>Great Job!</t>
   </si>
   <si>
-    <t>Remember thet officers sent to incidents requiring just 1 turn will return at the start of the next turn</t>
-  </si>
-  <si>
     <t>TIPS_OFFICER_ONE_TURN_NEGATIVE_1</t>
   </si>
   <si>
@@ -1671,18 +1668,6 @@
     <t>Los oficiales no pueden hacer ninguna detención en relación con el caso</t>
   </si>
   <si>
-    <t>¡Pedir a los ciudadanos en busca de ayuda!</t>
-  </si>
-  <si>
-    <t>Ciudadanos proporcionan evidencia a través de la aplicación INSPEC2T, 2 han sido acusados</t>
-  </si>
-  <si>
-    <t>Ciudadano no proporciona ninguna evidencia sólida para el caso</t>
-  </si>
-  <si>
-    <t>Sin más incidentes para comprobar esta vuelta</t>
-  </si>
-  <si>
     <t>Ir</t>
   </si>
   <si>
@@ -1710,9 +1695,6 @@
     <t>Oficiales</t>
   </si>
   <si>
-    <t>Detenciones</t>
-  </si>
-  <si>
     <t>Casos activos</t>
   </si>
   <si>
@@ -1722,9 +1704,6 @@
     <t>Juego terminado</t>
   </si>
   <si>
-    <t>Usted sobrevivió {0} Activa*2n*La felicidad ciudadana caído por debajo del 10%, los ciudadanos ya no se sienten seguros bajo su control</t>
-  </si>
-  <si>
     <t>Disponible</t>
   </si>
   <si>
@@ -1758,15 +1737,9 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Descargar la aplicación INSPEC2T Ahora!</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
-    <t>¡ADVERTENCIA! Selección de espera hará que el caso de expirar, la reducción de satisfacción de los ciudadanos</t>
-  </si>
-  <si>
     <t>No hay directores disponibles!</t>
   </si>
   <si>
@@ -1788,45 +1761,18 @@
     <t>Cambiar locación</t>
   </si>
   <si>
-    <t>Ayudar a su fuerza de policía local para resolver crímenes reales con la aplicación Inspeccionar</t>
-  </si>
-  <si>
     <t>Cómo jugar</t>
   </si>
   <si>
     <t>Pulse para continuar…</t>
   </si>
   <si>
-    <t>La parte superior de la pantalla muestra el estado actual de la satisfacción, más allá en rojo que vaya, cuanto más cerca esté a punto de perder. Resolver los casos de mantenerse fuera de la zona roja</t>
-  </si>
-  <si>
-    <t>La barra de estado muestra la satisfacción real, tratar de mantener esta por encima del 10% para el mayor número de vueltas como puedas</t>
-  </si>
-  <si>
-    <t>El indicador oficial le informa cuántos agentes están disponibles y el número de vueltas hasta que los oficiales en el campo, no vuelva y vuelven a estar disponibles</t>
-  </si>
-  <si>
-    <t>Este cuadro le dará información sobre el caso actual y mantendrá informados de su condición</t>
-  </si>
-  <si>
-    <t>Cada caso se necesita un número de oficiales para asistir a un número determinado de vueltas</t>
-  </si>
-  <si>
-    <t>Aquí podrás ver todos sus incidentes activos, que son de color coordinado por la gravedad. El rojo es más grave</t>
-  </si>
-  <si>
     <t>Cada caso puede tener hasta 3 opciones, esperar a más oficiales, mandan a los funcionarios requeridos o pedir a los ciudadanos en busca de ayuda cuando esté disponible</t>
   </si>
   <si>
-    <t>Ayúdanos para que la aplicación mejor, mediante el envío de su respuesta!</t>
-  </si>
-  <si>
     <t>Enviar comentarios!</t>
   </si>
   <si>
-    <t>{0}% de satisfacción</t>
-  </si>
-  <si>
     <t>{0} No haga caso de la caja {1}*2n*-{2}% Satisfacción</t>
   </si>
   <si>
@@ -1842,75 +1788,12 @@
     <t>Los ciudadanos pueden ser capaces de ayudar con los casos con información o pruebas, aprovechar al máximo la opción</t>
   </si>
   <si>
-    <t>Forse la prossima volta chiedere ai cittadini di informazioni, potrebbe ridurre gli ufficiali richiesti</t>
-  </si>
-  <si>
-    <t>Forse la prossima volta chiedere aiuto dei cittadini dalla INSPEC2T app, si potrebbe ridurre il numero di giri richiesto</t>
-  </si>
-  <si>
-    <t>Ignorando un caso abbasserà la soddisfazione alla fine del turno, cerca di chiudere il maggior numero di casi possibili</t>
-  </si>
-  <si>
-    <t>A volte è meglio risparmiare ufficiali per un caso più grave</t>
-  </si>
-  <si>
-    <t>Ignorando incidenti è più probabile che dare risoluzioni negativi per gli incidenti, cerca di non ignorare i casi</t>
-  </si>
-  <si>
-    <t>Alcuni incidenti si svilupperà meno di altri, ricordati di valutare le informazioni fornite con attenzione</t>
-  </si>
-  <si>
-    <t>Fare attenzione, a volte incidenti ignorando causerà loro di svilupparsi.</t>
-  </si>
-  <si>
-    <t>Ricordatevi di tenere d'occhio le prossime incidenti per mantenere ufficiali per gli incidenti potenzialmente più gravi</t>
-  </si>
-  <si>
-    <t>Agenti di invio condurranno sempre ad una risoluzione positiva, ma a costo di risorse, fare attenzione decisioni</t>
-  </si>
-  <si>
-    <t>Ricordate gli ufficiali inviati agli incidenti che richiedono solo 1 giro tornerà all'inizio del turno successivo</t>
-  </si>
-  <si>
-    <t>L'invio di agenti di incidenti che richiedono solo 1 giro è un ottimo modo per cancellare i casi attivi</t>
-  </si>
-  <si>
-    <t>Ignorando alti casi di gravità avrà un grande impatto sulla soddisfazione.</t>
-  </si>
-  <si>
-    <t>Assicurati di dare alta priorità gravità dei casi, non riuscendo a risolvere le darà un grande rigore soddisfazione!</t>
-  </si>
-  <si>
-    <t>¡Bello!</t>
-  </si>
-  <si>
-    <t>¡Eccezionale!</t>
-  </si>
-  <si>
-    <t>¡Ottimo lavoro!</t>
-  </si>
-  <si>
-    <t>¡Bella scelta!</t>
-  </si>
-  <si>
-    <t>¡Ben fatto!</t>
-  </si>
-  <si>
-    <t>Si prega di impostare la posizione qui sotto per ottenere la migliore esperienza!</t>
-  </si>
-  <si>
-    <t>Benvenuti a risorsa forza, assumere il ruolo di un operatore di polizia e contribuire a risolvere i crimini in tutta la città. È necessario utilizzare con attenzione le risorse per risolvere i casi e mantenere i civili felici e sentirsi al sicuro. *2n*Ma attenzione, gli ufficiali sono limitati in modo da utilizzare con saggezza</t>
-  </si>
-  <si>
     <t>WARNING_TEXT_LOCATION</t>
   </si>
   <si>
     <t>WARNING_TEXT_LANGUAGE</t>
   </si>
   <si>
-    <t>establecer una posición</t>
-  </si>
-  <si>
     <t>establecer un idioma</t>
   </si>
   <si>
@@ -1926,9 +1809,6 @@
     <t>Selecciona un idioma</t>
   </si>
   <si>
-    <t>Requrires {0} officers for {1} turns</t>
-  </si>
-  <si>
     <t>BASIC_TEXT_REQUIREMENT_PLURAL</t>
   </si>
   <si>
@@ -1944,9 +1824,6 @@
     <t>Requires {0} officers for 1 turn</t>
   </si>
   <si>
-    <t>Requrires 1 officer for 1 turn</t>
-  </si>
-  <si>
     <t>Requires 1 officer for {0} turns</t>
   </si>
   <si>
@@ -2029,6 +1906,183 @@
   </si>
   <si>
     <t>{0} Turn Survived*n*Each turn will consist of a number of cases with choices to make</t>
+  </si>
+  <si>
+    <t>Asegúrese de dar alta prioridad a los casos de gravedad, no resolverlo dará una gran pena de satisfacción!</t>
+  </si>
+  <si>
+    <t>Ignorar los casos de alta severidad tendrá un gran impacto en la satisfacción.</t>
+  </si>
+  <si>
+    <t>Envío de oficiales a incidentes que sólo requieren 1 turno es una gran manera de borrar los casos activos</t>
+  </si>
+  <si>
+    <t>Remember that officers sent to incidents requiring just 1 turn will return at the start of the next turn</t>
+  </si>
+  <si>
+    <t>Requires {0} officers for {1} turns</t>
+  </si>
+  <si>
+    <t>Requires 1 officer for 1 turn</t>
+  </si>
+  <si>
+    <t>Recuerde que los oficiales enviados a incidentes que requieren sólo 1 vuelta regresarán al inicio del siguiente turno</t>
+  </si>
+  <si>
+    <t>Los oficiales de envío siempre darán lugar a una resolución positiva, pero a costa de los recursos, tomarán decisiones con cuidado</t>
+  </si>
+  <si>
+    <t>Recuerde mantener un ojo en los próximos incidentes para mantener a los oficiales de los incidentes potencialmente más graves</t>
+  </si>
+  <si>
+    <t>Tenga cuidado, a veces ignorar incidentes hará que se desarrollen.</t>
+  </si>
+  <si>
+    <t>¡Bien hecho!</t>
+  </si>
+  <si>
+    <t>¡Buena elección!</t>
+  </si>
+  <si>
+    <t>¡Gran trabajo!</t>
+  </si>
+  <si>
+    <t>¡Increíble!</t>
+  </si>
+  <si>
+    <t>¡Bonito!</t>
+  </si>
+  <si>
+    <t>Establecer una ubicación</t>
+  </si>
+  <si>
+    <t>Algunos incidentes se desarrollarán menos que otros, recuerde evaluar la información proporcionada cuidadosamente</t>
+  </si>
+  <si>
+    <t>Ignorar los incidentes es más probable que dé resoluciones negativas para los incidentes, tratar de no ignorar los casos</t>
+  </si>
+  <si>
+    <t>A veces es mejor salvar a los oficiales para un caso más severo</t>
+  </si>
+  <si>
+    <t>Ignorar un caso reducirá la satisfacción al final del turno, tratar de cerrar el mayor número posible de casos</t>
+  </si>
+  <si>
+    <t>Tal vez la próxima vez que pida ayuda a los ciudadanos de la aplicación INSPEC2T, podría reducir el número de turnos requeridos</t>
+  </si>
+  <si>
+    <t>Tal vez la próxima vez que pidan información a los ciudadanos, podría reducir los oficiales requeridos</t>
+  </si>
+  <si>
+    <t>{0}% Satisfacción</t>
+  </si>
+  <si>
+    <t>¡Ayúdanos a mejorar la aplicación, enviándonos tus comentarios!</t>
+  </si>
+  <si>
+    <t>Enviando el número requerido de oficiales a un incidente descubrirá más información o llevará a resolver un caso. *2n* Los oficiales enviados a un incidente no estarán disponibles hasta que regresen</t>
+  </si>
+  <si>
+    <t>A veces, el botón de ciudadanía estará disponible donde se puede pedir a los miembros del público que ayuden a brindar asistencia con un incidente. *2n* Un recurso efectivo, pero pedir ayuda en todos los incidentes no será beneficioso y puede poner en peligro a los ciudadanos</t>
+  </si>
+  <si>
+    <t>El botón de ignorar no enviará a ningún oficial a investigar un incidente. *2n* Use esto cuando no tenga suficientes oficiales disponibles o el incidente sea demasiado intensivo en recursos. Pero, use la opción con cuidado, los incidentes ignorados pueden desarrollarse para ser mucho peor</t>
+  </si>
+  <si>
+    <t>Aquí verá todos sus incidentes activos, que son el color coordinado por la gravedad. El rojo es más severo</t>
+  </si>
+  <si>
+    <t>Cada caso necesitará un número de oficiales para asistir por un número determinado de vueltas</t>
+  </si>
+  <si>
+    <t>Esta casilla te dará información sobre el caso actual y te mantendrá informado sobre su estado</t>
+  </si>
+  <si>
+    <t>El indicador de oficial le informa cuántos oficiales están disponibles y cuántos turnos hasta que los oficiales en el campo regresan y vuelven a estar disponibles</t>
+  </si>
+  <si>
+    <t>La barra de estado muestra la satisfacción real, intenta mantener esto por encima del 10% para tantas vueltas como puedas</t>
+  </si>
+  <si>
+    <t>La parte superior de la pantalla muestra el estado de satisfacción actual, cuanto más en rojo que ir, más cerca está de perder. Resolver los casos para mantenerse fuera del rojo</t>
+  </si>
+  <si>
+    <t>Ayude a su policía local a resolver crímenes reales con la aplicación Inspec2t</t>
+  </si>
+  <si>
+    <t>Por favor, establezca su ubicación a continuación para obtener la mejor experiencia!</t>
+  </si>
+  <si>
+    <t>Caso cerrado</t>
+  </si>
+  <si>
+    <t>¡ADVERTENCIA! Seleccionar la espera hará que el caso expire, reduciendo la satisfacción ciudadana</t>
+  </si>
+  <si>
+    <t>Descargue la aplicación INSPEC2T ahora!</t>
+  </si>
+  <si>
+    <t>vueltas sobrevivientes</t>
+  </si>
+  <si>
+    <t>Casos Resueltos</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Sobreviviste {0} Vueltas *2n* La felicidad ciudadana cae por debajo del 10%, los ciudadanos ya no se sienten seguros bajo tu control</t>
+  </si>
+  <si>
+    <t>arrestos</t>
+  </si>
+  <si>
+    <t>El ciudadano no proporciona ninguna evidencia sólida para el caso</t>
+  </si>
+  <si>
+    <t>No más incidentes para comprobar este turno</t>
+  </si>
+  <si>
+    <t>Los ciudadanos aportan pruebas a través de la aplicación INSPEC2T, 2 han sido acusados</t>
+  </si>
+  <si>
+    <t>¡Pida ayuda a los ciudadanos!</t>
+  </si>
+  <si>
+    <t>Bienvenido a la fuerza de recursos, asumir el papel de un operador de policía y ayudar a resolver los crímenes en toda la ciudad. Debes usar tus recursos cuidadosamente para resolver casos y mantener a los civiles contentos y seguros. *2n* Pero ten cuidado, los oficiales son limitados, así que úsalos sabiamente</t>
+  </si>
+  <si>
+    <t>Requiere 1 oficial durante 1 turno</t>
+  </si>
+  <si>
+    <t>Requiere {0} oficiales para {1} vueltas</t>
+  </si>
+  <si>
+    <t>Requiere {0} oficiales para 1 turno</t>
+  </si>
+  <si>
+    <t>Requiere 1 oficial para {0} turnos</t>
+  </si>
+  <si>
+    <t>{0}% Satisfacción ciudadana *n* Mantenga la insignia fuera del área roja haciendo buenas elecciones</t>
+  </si>
+  <si>
+    <t>{0} Caso Activo *n* Cierre los casos tomando buenas decisiones para hacer una gran diferencia en la satisfacción de los ciudadanos</t>
+  </si>
+  <si>
+    <t>{0} Casos activos *n* Cierre los casos haciendo buenas elecciones para hacer una gran diferencia en la satisfacción de los ciudadanos</t>
+  </si>
+  <si>
+    <t>{0} Oficial disponible *n* Un número limitado disponible, así que tenga cuidado, nunca se sabe cuándo puede ocurrir un incidente grave</t>
+  </si>
+  <si>
+    <t>{0} Oficiales Disponibles *n* Un número limitado disponible, así que ten cuidado, nunca se sabe cuándo puede ocurrir un incidente grave</t>
+  </si>
+  <si>
+    <t>{0} Turn Survived *n* Cada turno consistirá en un número de casos con opciones para hacer</t>
+  </si>
+  <si>
+    <t>{0} Turnos Sobrevividos *n* Cada turno consistirá en un número de casos con opciones para hacer</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2165,17 +2219,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5763,18 +5823,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.83984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.89453125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="13"/>
+    <col min="1" max="1" width="49.15625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.9453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.89453125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.47265625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1">
@@ -5790,7 +5850,7 @@
       <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5807,8 +5867,8 @@
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>546</v>
+      <c r="E2" s="16" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1">
@@ -5816,16 +5876,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1">
@@ -5841,8 +5901,8 @@
       <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>460</v>
+      <c r="E4" s="15" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1">
@@ -5858,8 +5918,8 @@
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>461</v>
+      <c r="E5" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1">
@@ -5875,25 +5935,25 @@
       <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>462</v>
+      <c r="E6" s="15" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1">
       <c r="A7" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>451</v>
-      </c>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>463</v>
+      <c r="E7" s="15" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1" ht="14.7" customHeight="1">
@@ -5909,8 +5969,8 @@
       <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>464</v>
+      <c r="E8" s="15" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1">
@@ -5926,8 +5986,8 @@
       <c r="D9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>465</v>
+      <c r="E9" s="15" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1">
@@ -5943,8 +6003,8 @@
       <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>466</v>
+      <c r="E10" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1">
@@ -5960,8 +6020,8 @@
       <c r="D11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>467</v>
+      <c r="E11" s="15" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1">
@@ -5977,8 +6037,8 @@
       <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>468</v>
+      <c r="E12" s="15" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -5994,8 +6054,8 @@
       <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>469</v>
+      <c r="E13" s="15" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1">
@@ -6011,8 +6071,8 @@
       <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>470</v>
+      <c r="E14" s="17" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6028,8 +6088,8 @@
       <c r="D15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>471</v>
+      <c r="E15" s="17" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6045,8 +6105,8 @@
       <c r="D16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>472</v>
+      <c r="E16" s="17" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1">
@@ -6062,8 +6122,8 @@
       <c r="D17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>473</v>
+      <c r="E17" s="17" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
@@ -6079,8 +6139,8 @@
       <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>474</v>
+      <c r="E18" s="15" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1">
@@ -6096,8 +6156,8 @@
       <c r="D19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>475</v>
+      <c r="E19" s="15" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1">
@@ -6113,8 +6173,8 @@
       <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>476</v>
+      <c r="E20" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
@@ -6130,8 +6190,8 @@
       <c r="D21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>477</v>
+      <c r="E21" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
@@ -6147,8 +6207,8 @@
       <c r="D22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>478</v>
+      <c r="E22" s="15" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1">
@@ -6164,8 +6224,8 @@
       <c r="D23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>479</v>
+      <c r="E23" s="15" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1">
@@ -6181,8 +6241,8 @@
       <c r="D24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>480</v>
+      <c r="E24" s="15" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1">
@@ -6198,8 +6258,8 @@
       <c r="D25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>481</v>
+      <c r="E25" s="15" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1">
@@ -6215,8 +6275,8 @@
       <c r="D26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>482</v>
+      <c r="E26" s="15" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1">
@@ -6232,8 +6292,8 @@
       <c r="D27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>483</v>
+      <c r="E27" s="17" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1">
@@ -6249,8 +6309,8 @@
       <c r="D28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>484</v>
+      <c r="E28" s="15" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1">
@@ -6266,8 +6326,8 @@
       <c r="D29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>485</v>
+      <c r="E29" s="15" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1">
@@ -6283,8 +6343,8 @@
       <c r="D30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>486</v>
+      <c r="E30" s="15" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="43.2">
@@ -6300,8 +6360,8 @@
       <c r="D31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>487</v>
+      <c r="E31" s="16" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1">
@@ -6317,8 +6377,8 @@
       <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>488</v>
+      <c r="E32" s="15" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="11" customFormat="1">
@@ -6326,7 +6386,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>0</v>
@@ -6334,8 +6394,8 @@
       <c r="D33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>490</v>
+      <c r="E33" s="15" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="11" customFormat="1">
@@ -6351,8 +6411,8 @@
       <c r="D34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>493</v>
+      <c r="E34" s="15" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="11" customFormat="1">
@@ -6368,8 +6428,8 @@
       <c r="D35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>492</v>
+      <c r="E35" s="15" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="11" customFormat="1">
@@ -6385,8 +6445,8 @@
       <c r="D36" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>491</v>
+      <c r="E36" s="15" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="11" customFormat="1">
@@ -6394,7 +6454,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>0</v>
@@ -6402,8 +6462,8 @@
       <c r="D37" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>0</v>
+      <c r="E37" s="16" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="11" customFormat="1">
@@ -6419,16 +6479,16 @@
       <c r="D38" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>494</v>
+      <c r="E38" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="11" customFormat="1">
       <c r="A39" s="11" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>0</v>
@@ -6436,13 +6496,13 @@
       <c r="D39" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>0</v>
+      <c r="E39" s="16" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="11" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>373</v>
@@ -6453,8 +6513,8 @@
       <c r="D40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>0</v>
+      <c r="E40" s="17" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="11" customFormat="1">
@@ -6470,8 +6530,8 @@
       <c r="D41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>495</v>
+      <c r="E41" s="15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="11" customFormat="1">
@@ -6487,8 +6547,8 @@
       <c r="D42" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>496</v>
+      <c r="E42" s="15" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="11" customFormat="1">
@@ -6504,8 +6564,8 @@
       <c r="D43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>497</v>
+      <c r="E43" s="15" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="11" customFormat="1">
@@ -6521,8 +6581,8 @@
       <c r="D44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>498</v>
+      <c r="E44" s="15" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="11" customFormat="1">
@@ -6538,8 +6598,8 @@
       <c r="D45" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>499</v>
+      <c r="E45" s="16" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="11" customFormat="1">
@@ -6555,8 +6615,8 @@
       <c r="D46" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>500</v>
+      <c r="E46" s="15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6572,8 +6632,8 @@
       <c r="D47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>501</v>
+      <c r="E47" s="16" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="11" customFormat="1">
@@ -6581,7 +6641,7 @@
         <v>375</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>0</v>
@@ -6589,8 +6649,8 @@
       <c r="D48" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>502</v>
+      <c r="E48" s="15" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="11" customFormat="1">
@@ -6606,8 +6666,8 @@
       <c r="D49" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>503</v>
+      <c r="E49" s="15" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="11" customFormat="1">
@@ -6623,8 +6683,8 @@
       <c r="D50" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>504</v>
+      <c r="E50" s="15" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="11" customFormat="1">
@@ -6640,8 +6700,8 @@
       <c r="D51" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>505</v>
+      <c r="E51" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="11" customFormat="1">
@@ -6657,8 +6717,8 @@
       <c r="D52" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>506</v>
+      <c r="E52" s="15" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="11" customFormat="1">
@@ -6674,8 +6734,8 @@
       <c r="D53" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>507</v>
+      <c r="E53" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="11" customFormat="1">
@@ -6691,16 +6751,16 @@
       <c r="D54" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>508</v>
+      <c r="E54" s="17" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="11" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>0</v>
@@ -6708,8 +6768,8 @@
       <c r="D55" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>0</v>
+      <c r="E55" s="17" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6725,8 +6785,8 @@
       <c r="D56" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>545</v>
+      <c r="E56" s="17" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6742,8 +6802,8 @@
       <c r="D57" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>509</v>
+      <c r="E57" s="17" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="11" customFormat="1">
@@ -6759,8 +6819,8 @@
       <c r="D58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>510</v>
+      <c r="E58" s="15" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="11" customFormat="1">
@@ -6776,8 +6836,8 @@
       <c r="D59" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>511</v>
+      <c r="E59" s="15" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="11" customFormat="1" ht="57.6">
@@ -6793,8 +6853,8 @@
       <c r="D60" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>512</v>
+      <c r="E60" s="17" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="11" customFormat="1" ht="43.2">
@@ -6810,8 +6870,8 @@
       <c r="D61" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>513</v>
+      <c r="E61" s="17" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="11" customFormat="1" ht="43.2">
@@ -6827,8 +6887,8 @@
       <c r="D62" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>514</v>
+      <c r="E62" s="16" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6844,8 +6904,8 @@
       <c r="D63" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>515</v>
+      <c r="E63" s="17" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6861,8 +6921,8 @@
       <c r="D64" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>516</v>
+      <c r="E64" s="16" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="11" customFormat="1" ht="28.8">
@@ -6878,16 +6938,16 @@
       <c r="D65" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="E65" s="17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="11" customFormat="1" ht="72">
       <c r="A66" s="11" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>0</v>
@@ -6895,16 +6955,16 @@
       <c r="D66" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="11" customFormat="1" ht="57.6">
+      <c r="E66" s="16" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="11" customFormat="1" ht="72">
       <c r="A67" s="11" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>0</v>
@@ -6912,16 +6972,16 @@
       <c r="D67" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="11" customFormat="1" ht="43.2">
+      <c r="E67" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="11" customFormat="1" ht="57.6">
       <c r="A68" s="11" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>0</v>
@@ -6929,8 +6989,8 @@
       <c r="D68" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>0</v>
+      <c r="E68" s="17" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="11" customFormat="1" ht="43.2">
@@ -6946,8 +7006,8 @@
       <c r="D69" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>518</v>
+      <c r="E69" s="15" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8">
@@ -6963,8 +7023,8 @@
       <c r="D70" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>519</v>
+      <c r="E70" s="17" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6980,12 +7040,12 @@
       <c r="D71" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>520</v>
+      <c r="E71" s="15" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>398</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -6997,8 +7057,8 @@
       <c r="D72" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>488</v>
+      <c r="E72" s="15" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7014,8 +7074,8 @@
       <c r="D73" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>521</v>
+      <c r="E73" s="17" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -7023,7 +7083,7 @@
         <v>401</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>0</v>
@@ -7031,8 +7091,8 @@
       <c r="D74" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>522</v>
+      <c r="E74" s="15" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -7040,7 +7100,7 @@
         <v>402</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>0</v>
@@ -7048,8 +7108,8 @@
       <c r="D75" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>523</v>
+      <c r="E75" s="15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.8">
@@ -7065,8 +7125,8 @@
       <c r="D76" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>524</v>
+      <c r="E76" s="15" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.8">
@@ -7082,8 +7142,8 @@
       <c r="D77" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>525</v>
+      <c r="E77" s="15" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.8">
@@ -7099,8 +7159,8 @@
       <c r="D78" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>526</v>
+      <c r="E78" s="15" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8">
@@ -7116,11 +7176,11 @@
       <c r="D79" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="28.8">
+      <c r="E79" s="17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="43.2">
       <c r="A80" s="11" t="s">
         <v>412</v>
       </c>
@@ -7133,8 +7193,8 @@
       <c r="D80" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>528</v>
+      <c r="E80" s="17" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.8">
@@ -7150,11 +7210,11 @@
       <c r="D81" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="E81" s="17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8">
       <c r="A82" s="11" t="s">
         <v>415</v>
       </c>
@@ -7167,12 +7227,12 @@
       <c r="D82" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>530</v>
+      <c r="E82" s="17" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.8">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="12" t="s">
         <v>417</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -7184,12 +7244,12 @@
       <c r="D83" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="28.8">
-      <c r="A84" s="13" t="s">
+      <c r="E83" s="17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="43.2">
+      <c r="A84" s="12" t="s">
         <v>418</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -7201,12 +7261,12 @@
       <c r="D84" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>532</v>
+      <c r="E84" s="17" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.8">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>419</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -7218,11 +7278,11 @@
       <c r="D85" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="E85" s="17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="11" customFormat="1" ht="43.2">
       <c r="A86" s="11" t="s">
         <v>420</v>
       </c>
@@ -7235,11 +7295,11 @@
       <c r="D86" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="E86" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="11" customFormat="1" ht="43.2">
       <c r="A87" s="11" t="s">
         <v>421</v>
       </c>
@@ -7252,16 +7312,16 @@
       <c r="D87" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="11" customFormat="1" ht="28.8">
+      <c r="E87" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="11" customFormat="1" ht="43.2">
       <c r="A88" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>0</v>
@@ -7269,16 +7329,16 @@
       <c r="D88" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>536</v>
+      <c r="E88" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A89" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>0</v>
@@ -7286,16 +7346,16 @@
       <c r="D89" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>537</v>
+      <c r="E89" s="17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A90" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>0</v>
@@ -7303,33 +7363,33 @@
       <c r="D90" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>538</v>
+      <c r="E90" s="17" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="11" customFormat="1" ht="28.8">
       <c r="A91" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>439</v>
-      </c>
       <c r="C91" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>539</v>
+      <c r="E91" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>0</v>
@@ -7337,17 +7397,17 @@
       <c r="D92" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="12" t="s">
-        <v>544</v>
+      <c r="E92" s="16" t="s">
+        <v>559</v>
       </c>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>0</v>
@@ -7355,14 +7415,14 @@
       <c r="D93" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="12" t="s">
-        <v>543</v>
+      <c r="E93" s="17" t="s">
+        <v>560</v>
       </c>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>432</v>
@@ -7373,17 +7433,17 @@
       <c r="D94" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>542</v>
+      <c r="E94" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>0</v>
@@ -7391,35 +7451,35 @@
       <c r="D95" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>541</v>
+      <c r="E95" s="17" t="s">
+        <v>562</v>
       </c>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="C96" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>540</v>
+      <c r="E96" s="17" t="s">
+        <v>563</v>
       </c>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="13" t="s">
-        <v>454</v>
+      <c r="A97" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>0</v>
@@ -7427,263 +7487,263 @@
       <c r="D97" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>554</v>
+      <c r="E97" s="15" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>456</v>
-      </c>
       <c r="C98" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="E98" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>458</v>
+      <c r="C99" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E99" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8">
+      <c r="A106" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="43.2">
+      <c r="A107" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="43.2">
+      <c r="A108" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="43.2">
+      <c r="A109" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="43.2">
+      <c r="A110" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.8">
+      <c r="A111" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.8">
+      <c r="A112" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B100" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="28.8">
-      <c r="A106" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="28.8">
-      <c r="A107" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="28.8">
-      <c r="A108" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="28.8">
-      <c r="A109" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.8">
-      <c r="A110" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="28.8">
-      <c r="A111" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="28.8">
-      <c r="A112" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>0</v>
+      <c r="C112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5580" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="771">
   <si>
     <t>XXXX</t>
   </si>
@@ -2084,12 +2084,684 @@
   <si>
     <t>{0} Turnos Sobrevividos *n* Cada turno consistirá en un número de casos con opciones para hacer</t>
   </si>
+  <si>
+    <t>A man is trying to climb a bridge in the old river channel of the city, with an obvious danger of fall</t>
+  </si>
+  <si>
+    <t>A girl who was seeing the situation decides to take a video and send it through INSPEC2T.</t>
+  </si>
+  <si>
+    <t>One anonymous citizen climbs the bridge trying to help the suicidal. Unfortunately he drops into the void.</t>
+  </si>
+  <si>
+    <t>An ambulance cares the “hero” in situ.</t>
+  </si>
+  <si>
+    <t>The police negotiation team arrive and catch the man while the negotiation was being performed. Unfortunately one office is damaged during the struggle with the man, trying to help him from falling</t>
+  </si>
+  <si>
+    <t>The man jumps and falls into the channel. Results seriously wounded.</t>
+  </si>
+  <si>
+    <t>The CPO of the area recognizes the suicidal and goes to the bridge, in order to convince him to stop his attempt, since he knows him for a long time. Makes the negotiation of the police team faster and the suicidal desists and goes down the bridge.</t>
+  </si>
+  <si>
+    <t>A woman has suffered a robbery of her wallet at the market</t>
+  </si>
+  <si>
+    <t>A witness can afford a description of the thief. The problem is that it is a vague description of the colthes that the burgular wears</t>
+  </si>
+  <si>
+    <t>While more patrols are looking for the suspect, two more customers of the market have also suffered robberies</t>
+  </si>
+  <si>
+    <t>The thief escapes wuthout being identified</t>
+  </si>
+  <si>
+    <t>Thanks to the stored data in the INSPEC2T system, the coordinator sends via INSPEC2T app images of usual suspects to the CPO. The witness recognizes one of them as the author of the robbery and the image is sent to the patrols in the area. Finally, one of the units catch the thief. The wallet is missing</t>
+  </si>
+  <si>
+    <t>The municipal services of clean up  while working in the area after the market find a wallet and send an image of it through INSPEC2T to the police coordinator. He compares the image and checks that is the one of the old woman. The woman is called to pick her wallet.</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_INDEX_7</t>
+  </si>
+  <si>
+    <t>A bystander claims about the presence of an exhibitionist who has showed her his private parts</t>
+  </si>
+  <si>
+    <t>The CPO of the area is sent to try to locate the suspect. As the officer arrives, the suspect escapes</t>
+  </si>
+  <si>
+    <t>A group of minor students is harassed by the exhibitionist when they were going to visit the City of Arts &amp; Sciences of Valencia</t>
+  </si>
+  <si>
+    <t>A witness aprehends the attitude of the exhibitionist and starts a fight with him, resulting injuries. The disturbed exhibitionist flees.</t>
+  </si>
+  <si>
+    <t>One INSPEC2T   user meets the injured man after the fight in the street and brings a complete description of him. Has recorded the all
+ whole incident and sends it through the system.</t>
+  </si>
+  <si>
+    <t>Thanks to the police presence this day the suspect will not appear in the area for a while, but surely in the next days will return to the area to continue his criminal actions.</t>
+  </si>
+  <si>
+    <r>
+      <t>All the patrols in the area are trying to find the suspect. Thanks to the support of the info submitted  through INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T   the exhibitionist is found and arrested</t>
+    </r>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_INDEX_8</t>
+  </si>
+  <si>
+    <t>A 5 year old boy disappears from the inside of a church, with a stranger</t>
+  </si>
+  <si>
+    <t>Since the place is a crowded area of tourism, some user could bring information of the child. 20 users send information of potential lost boys, but none of them match with the required</t>
+  </si>
+  <si>
+    <t>One patrol is required and is in the area looking for the boy, with the description given by the parents. Is complicated to find anyone between many people.</t>
+  </si>
+  <si>
+    <r>
+      <t>The representative of the neighborhood association of the area, as a request of the INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T   coordinator, gives information of potential eyewitnesses, like one beggar who is always near the main door of the church but leaves the place when the police arrive. He usually spends his time in a near park.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two more patrols are in the area, including CPO walking in the area, the child is still missing</t>
+  </si>
+  <si>
+    <t>Although the number of police effectiveness increases, the lack of useful witness information results in a failure of finding the child</t>
+  </si>
+  <si>
+    <t>One boy, the disappeared one, appear in the proximities, naked and injured. Seems that has been raped. No one has seen the author of the aggression</t>
+  </si>
+  <si>
+    <t>The testimony of the beggar is crucial for solving the case. He saw one old aged man with a boy getting in a parked car. The car is founded in the very moment when the man was trying to abuse the child. The man is captured and the boy is rescued without damage.</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_INDEX_6</t>
+  </si>
+  <si>
+    <t>A group of people have been seen dumping some kind of materials in a public plot</t>
+  </si>
+  <si>
+    <t>One patrol with two police officers go to the area and find household appliances and debris, but no one is there</t>
+  </si>
+  <si>
+    <t>Some neighbours give details of a van seen there minutes before. The plate mentioned appears to belong to a stolen van</t>
+  </si>
+  <si>
+    <t>Two police vehicles are patrolling the area and one of them locates the robbed car. There are no fingerprints or signs of the owners</t>
+  </si>
+  <si>
+    <t>Some claims about burglaries in the neighbourhood are incoming</t>
+  </si>
+  <si>
+    <t>In the INSPEC2T   archive, the coordinator finds info about previous incidents in the area about burglaries. The address of the gang is
+Stored</t>
+  </si>
+  <si>
+    <t>The stolen van is recuperated, but the group of burglars have escaped</t>
+  </si>
+  <si>
+    <t>The presence of police patrols in the area avoid the group of burglaries committing more robberies, but flee from there before the arrival of the officers</t>
+  </si>
+  <si>
+    <t>Thanks to the stored info in the system one patrol verifies the address mentioned are stored stolen materials from houses in the area. The owner of the house is arrested</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_INDEX_1</t>
+  </si>
+  <si>
+    <t>In a close park of the school a numerous student’s group is  coming together, apparently to organize a big fight.</t>
+  </si>
+  <si>
+    <t>One CPO is sent to speak with the youth group and, when he tries to mediate with them, receives a hit in his head with a bottle of glass, resulting wounded.</t>
+  </si>
+  <si>
+    <t>Both groups begin to fight</t>
+  </si>
+  <si>
+    <t>The concierge take pictures of the members of the group and send those through the system, recognizing some of the young boys as students of the school</t>
+  </si>
+  <si>
+    <t>One police motorbike and two police patrols arrives but only find two students with serious wounds, produced by a knife.</t>
+  </si>
+  <si>
+    <t>The images sent by the concierge and the information of some of the contenders give the clue to identify previous facts of fights in the area. But another witness and user of the system sends another picture of a young boy fleeing while carrying a bloody knife with large size.</t>
+  </si>
+  <si>
+    <t>After the aggression, the group escapes, leaving the CPO on the ground , wounded.</t>
+  </si>
+  <si>
+    <t>The police patrols require an ambulance to assist the injured students.  Some of the participants involved in the fight are arrested, but not the one with the knife.</t>
+  </si>
+  <si>
+    <t>The images of the bloody knife’s owner bring the solution of the author of the injuries to the students, and the information of the concierge gives the address of the main suspect of the attack.</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_INDEX_7</t>
+  </si>
+  <si>
+    <t>At the main entry of the city a group of false police officers stops cars to fine them and get cash, mainly foreign cars.</t>
+  </si>
+  <si>
+    <t>A two officer’s patrol is sent to the place. However, as the group see the police arriving, rob a car and flee from there quickly. Begins a pursuit.</t>
+  </si>
+  <si>
+    <r>
+      <t>Some INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T users bring information about the car robbed in their escape.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>In order to slow down the traffic in the city and stop the robbed car, the coordinator of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T decides to demand a regulation of the red phase in the traffic lights, and this makes the robbed car get trapped in a main avenue by prolonging this phase</t>
+    </r>
+  </si>
+  <si>
+    <t>Requesting info from the users brings data of the plate of the robbed car but an incident of this quickness requires a patrol response</t>
+  </si>
+  <si>
+    <t>Waiting in this type of quick frauds causes the success of the criminal Act</t>
+  </si>
+  <si>
+    <t>The stopped traffic leads to the arrest of the gang by the patrol who was chasing them</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_6</t>
+  </si>
+  <si>
+    <t>Two neighbor women are disputing and begin to fight, not only verbally</t>
+  </si>
+  <si>
+    <r>
+      <t>Another neighbor of the women records the insults hiding himself in his home, and the women don’t notice it. He sends the recording through INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.</t>
+    </r>
+  </si>
+  <si>
+    <t>After a while, one woman enters at her home and takes a kitchen knife, and attacks the other women, who results seriously injured. In the fight, the attacker woman falls downstairs, hitting her head with the floor, remaining unconscious</t>
+  </si>
+  <si>
+    <t>Two women seriously injured, being no clues of who was the attacker, since both of them have a different version of the facts.</t>
+  </si>
+  <si>
+    <t>Listening the recorded archive of the witness is possible to determinate who was the attacker in first place, solving the case</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_INDEX_8</t>
+  </si>
+  <si>
+    <t>Close to the entrance of the train station appears a left suitcase</t>
+  </si>
+  <si>
+    <t>The patrol that arrives to the place sees no danger and takes the suitcase to deliver it at the lost property office of the city</t>
+  </si>
+  <si>
+    <r>
+      <t>One train driver who was ending his shift sees a nervous man leaving deliberately a suitcase at the entrance of the train station. He decides to send the advice through INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.</t>
+    </r>
+  </si>
+  <si>
+    <t>According to the message received of the witness, the police coordinator decides to begin the protocol of objects left that could represent a menace. Call  the bomb disposal experts</t>
+  </si>
+  <si>
+    <t>One explosion occurs in the Xativa Street. One police patrol is completely destroyed and two police officers are dead. The suitcase contained a bomb.</t>
+  </si>
+  <si>
+    <t>The minor who took the suitcase goes to a kindergarten near from there to open it. Suddenly, a big explosion occurs. Unfortunately, the suitcase explodes, killing the minor and also two children who were playing in the playground</t>
+  </si>
+  <si>
+    <t>The bomb disposal experts discover a bomb in the suitcase. The area is cordoned off by another police units and, finally, the bomb is disconnected</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_INDEX_7</t>
+  </si>
+  <si>
+    <t>At the kitchen of the “Convento Jerusalén” falla, a fire begins</t>
+  </si>
+  <si>
+    <t>One patrol arrives and enter in the local while the firemen are coming, to rescue some people who were yet inside.</t>
+  </si>
+  <si>
+    <t>Three police patrols arrive and cordon off the surrounding area, waiting for the firemen</t>
+  </si>
+  <si>
+    <t>One “fallero” sends an image of the inside of the space and the coordinator sees fireworks and firecrackers in the image</t>
+  </si>
+  <si>
+    <t>The first police patrols rescue some people but suddenly a great explosion (the fireworks and firecrackers stored) causes serious burn injuries on them and also on other falleros</t>
+  </si>
+  <si>
+    <t>Once the firemen have arrived and begin to do their work, an explosion occurs and hurts some of them, because the firecrackers stored.</t>
+  </si>
+  <si>
+    <t>The information provided through the image allows to the police units to prevent the firemen of the presence of the firework stored, and they act on that assumption, without exposing themselves to a dangerous situation.</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_INDEX_8</t>
+  </si>
+  <si>
+    <t>At a rave of minors, one security guard sees traffic dealers selling drugs</t>
+  </si>
+  <si>
+    <t>One patrol is required and decides to enter in the enclosure. There are many people, and, when a traffic dealer sees the effectives, escapes from the inside</t>
+  </si>
+  <si>
+    <t>Some minors, as they see the police chasing the dealers, begin to run since they are in possession of drugs. Unfortunately, this creates a chain reaction and everybody begins to run. An avalanche of people occurs.</t>
+  </si>
+  <si>
+    <t>Since there are in the place around 2000 people, its preferable to use more police effectives in order to manage the situation. With 6 police officers is possible to stablish a check at the entrance to identify the suspects</t>
+  </si>
+  <si>
+    <t>The security guard takes images of the group while were selling drugs</t>
+  </si>
+  <si>
+    <t>10 minors are seriously injured by crushing and the dealers have fled</t>
+  </si>
+  <si>
+    <t>At the checkpoint the officers confiscate 50 g of cocaine and another dangerous drugs, and make 5 arrests</t>
+  </si>
+  <si>
+    <t>The images, taken in a crowded place and in the darkness, are useless for law enforcement purposes</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_7</t>
+  </si>
+  <si>
+    <t>One lion has escaped from its jail in a careless mistake of the keeper, at the municipal zoo called “Bioparc”</t>
+  </si>
+  <si>
+    <t>A two officer’s patrol is sent to the place. With their guns ready, they try to find the lion. During the research, one  officer is injured by the lion and the other tries to shoot, but fails and the lion escapes into the park</t>
+  </si>
+  <si>
+    <t>While the rest of the patrols arrive, the lion has attacked one group of students who were visiting the park this morning</t>
+  </si>
+  <si>
+    <t>The chairman of the zoo shares a map of the enclosure through INSPEC2T, and highlights the area where he believes the lion is going</t>
+  </si>
+  <si>
+    <t>The confrontation between the lion and the police results in a slashed arm of the officer and the escape of the lion</t>
+  </si>
+  <si>
+    <t>Some students are injured and the lion is shot by the police effectives.</t>
+  </si>
+  <si>
+    <t>The information of the specific area where probably the lion goes allow the police to mobilize resources of action (such as take tranquilizer darts avoiding guns, since the area is out of danger for the visitors) in order to not killing the animal. Finally is found and immobilized.</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_INDEX_7</t>
+  </si>
+  <si>
+    <t>A fisherman slips into the sea while was fishing at the breakwater.</t>
+  </si>
+  <si>
+    <t>A two officer’s patrol is sent to the place. The officers prevent the rest of the fishermen to dive into the sea in their attempt to rescue the rugged. Even so, one officer decides to do it by himself.</t>
+  </si>
+  <si>
+    <t>Waiting for a patrol boat causes that the rest of the fishermen try to rescue their partner and now 4 people are drowning. The patrol rescue 2 of them, but the other 2 are lost.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thanks to the INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T system, some captains of pleasure boats in the area decide to help in the rescue as they saw the alert in INSPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.</t>
+    </r>
+  </si>
+  <si>
+    <t>Although no fishermen are jeopardizing themselves thanks to the quick presence of the patrol, unfortunately the office can’t find the fallen fisherman. Two days later, a dead body is found in the beach</t>
+  </si>
+  <si>
+    <t>One police patrol boat arrives to the area and can rescue half of the fishermen in the sea, but due to the bad conditions of the water, returns to the port. Two fishermen are disappeared.</t>
+  </si>
+  <si>
+    <t>Despite the police patrol boat only has rescued two fishermen, the rest of the drowned fishermen are rescued by the pleasure boats</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2139,8 +2811,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2170,6 +2854,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2184,7 +2874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2236,6 +2926,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2524,14 +3247,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="5" max="5" width="48.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2568,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2585,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2602,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="26.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2619,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
+    <row r="6" spans="1:5" ht="26.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="26.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2687,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="26.25">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -2721,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5">
+    <row r="12" spans="1:5" ht="26.25">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -2738,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -2772,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -2806,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="26.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2823,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2874,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="26.25">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -2891,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A22" s="3" t="s">
         <v>142</v>
       </c>
@@ -2908,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5">
+    <row r="23" spans="1:5" ht="26.25">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -2942,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5">
+    <row r="25" spans="1:5" ht="26.25">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -2959,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5">
+    <row r="26" spans="1:5" ht="26.25">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -2993,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -3010,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5">
+    <row r="29" spans="1:5" ht="26.25">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -3027,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.5">
+    <row r="30" spans="1:5" ht="26.25">
       <c r="A30" s="1" t="s">
         <v>156</v>
       </c>
@@ -3061,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="37.799999999999997">
+    <row r="32" spans="1:5" ht="39">
       <c r="A32" s="1" t="s">
         <v>158</v>
       </c>
@@ -3078,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A33" s="3" t="s">
         <v>163</v>
       </c>
@@ -3095,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5">
+    <row r="34" spans="1:5" ht="26.25">
       <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
@@ -3112,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5">
+    <row r="35" spans="1:5" ht="26.25">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
@@ -3129,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.5">
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="1" t="s">
         <v>166</v>
       </c>
@@ -3146,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5">
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="1" t="s">
         <v>167</v>
       </c>
@@ -3163,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.5">
+    <row r="38" spans="1:5" ht="26.25">
       <c r="A38" s="1" t="s">
         <v>168</v>
       </c>
@@ -3197,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1">
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A40" s="3" t="s">
         <v>176</v>
       </c>
@@ -3214,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.5">
+    <row r="41" spans="1:5" ht="26.25">
       <c r="A41" s="1" t="s">
         <v>177</v>
       </c>
@@ -3248,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="1" t="s">
         <v>179</v>
       </c>
@@ -3282,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.5">
+    <row r="45" spans="1:5" ht="26.25">
       <c r="A45" s="1" t="s">
         <v>181</v>
       </c>
@@ -3316,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="37.799999999999997">
+    <row r="47" spans="1:5" ht="39">
       <c r="A47" s="1" t="s">
         <v>183</v>
       </c>
@@ -3333,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A48" s="3" t="s">
         <v>192</v>
       </c>
@@ -3384,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5">
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="1" t="s">
         <v>195</v>
       </c>
@@ -3401,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5">
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="1" t="s">
         <v>196</v>
       </c>
@@ -3418,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5">
+    <row r="53" spans="1:5" ht="26.25">
       <c r="A53" s="1" t="s">
         <v>197</v>
       </c>
@@ -3435,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.5">
+    <row r="54" spans="1:5" ht="26.25">
       <c r="A54" s="1" t="s">
         <v>198</v>
       </c>
@@ -3452,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.5">
+    <row r="55" spans="1:5" ht="26.25">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
@@ -3469,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.5">
+    <row r="56" spans="1:5" ht="26.25">
       <c r="A56" s="1" t="s">
         <v>200</v>
       </c>
@@ -3520,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="59" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A59" s="3" t="s">
         <v>212</v>
       </c>
@@ -3537,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="26.25">
       <c r="A60" s="1" t="s">
         <v>213</v>
       </c>
@@ -3554,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.5">
+    <row r="61" spans="1:5" ht="26.25">
       <c r="A61" s="1" t="s">
         <v>214</v>
       </c>
@@ -3605,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.5">
+    <row r="64" spans="1:5" ht="26.25">
       <c r="A64" s="1" t="s">
         <v>217</v>
       </c>
@@ -3656,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A67" s="3" t="s">
         <v>228</v>
       </c>
@@ -3707,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="25.5">
+    <row r="70" spans="1:5" ht="39">
       <c r="A70" s="1" t="s">
         <v>231</v>
       </c>
@@ -3758,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="73" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A73" s="3" t="s">
         <v>240</v>
       </c>
@@ -3792,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.5">
+    <row r="75" spans="1:5" ht="26.25">
       <c r="A75" s="1" t="s">
         <v>242</v>
       </c>
@@ -3809,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="76" spans="1:5" s="3" customFormat="1" ht="39">
       <c r="A76" s="3" t="s">
         <v>245</v>
       </c>
@@ -3826,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.5">
+    <row r="77" spans="1:5" ht="26.25">
       <c r="A77" s="1" t="s">
         <v>246</v>
       </c>
@@ -3843,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.5">
+    <row r="78" spans="1:5" ht="26.25">
       <c r="A78" s="1" t="s">
         <v>247</v>
       </c>
@@ -3877,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="25.5">
+    <row r="80" spans="1:5" ht="26.25">
       <c r="A80" s="1" t="s">
         <v>249</v>
       </c>
@@ -3894,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.5">
+    <row r="81" spans="1:5" ht="26.25">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -3928,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.5">
+    <row r="83" spans="1:5" ht="26.25">
       <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
@@ -3962,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="26.25">
       <c r="A85" s="1" t="s">
         <v>260</v>
       </c>
@@ -3979,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5">
+    <row r="86" spans="1:5" ht="26.25">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -4010,14 +4733,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4071,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.7">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -4140,7 +4863,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="24.6">
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
@@ -4174,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="26.25">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5">
+    <row r="11" spans="1:6" ht="26.25">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -4208,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -4242,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -4259,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -4276,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -4293,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="26.25">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -4327,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27">
+    <row r="19" spans="1:5" ht="27.75">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
@@ -4344,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5">
+    <row r="20" spans="1:5" ht="26.25">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -4361,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.6">
+    <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -4378,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.799999999999997">
+    <row r="22" spans="1:5" ht="39">
       <c r="A22" s="1" t="s">
         <v>267</v>
       </c>
@@ -4395,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5">
+    <row r="23" spans="1:5" ht="26.25">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -4412,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -4429,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="26.25">
       <c r="A25" s="1" t="s">
         <v>155</v>
       </c>
@@ -4446,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5">
+    <row r="26" spans="1:5" ht="26.25">
       <c r="A26" s="1" t="s">
         <v>156</v>
       </c>
@@ -4463,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5">
+    <row r="27" spans="1:5" ht="26.25">
       <c r="A27" s="1" t="s">
         <v>157</v>
       </c>
@@ -4480,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5">
+    <row r="28" spans="1:5" ht="39">
       <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
@@ -4514,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.5">
+    <row r="30" spans="1:5" ht="26.25">
       <c r="A30" s="1" t="s">
         <v>313</v>
       </c>
@@ -4582,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27">
+    <row r="34" spans="1:5" ht="27.75">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -4599,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
         <v>167</v>
       </c>
@@ -4616,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24.6">
+    <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -4633,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5">
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -4650,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24.6">
+    <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
         <v>321</v>
       </c>
@@ -4667,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A39" s="3" t="s">
         <v>176</v>
       </c>
@@ -4684,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5">
+    <row r="40" spans="1:5" ht="26.25">
       <c r="A40" s="1" t="s">
         <v>178</v>
       </c>
@@ -4701,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.7">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="1" t="s">
         <v>179</v>
       </c>
@@ -4718,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5">
+    <row r="42" spans="1:5" ht="26.25">
       <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
@@ -4735,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
@@ -4752,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="37.799999999999997">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="1" t="s">
         <v>181</v>
       </c>
@@ -4769,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A45" s="3" t="s">
         <v>192</v>
       </c>
@@ -4820,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.5">
+    <row r="48" spans="1:5" ht="26.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -4837,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="39.299999999999997">
+    <row r="49" spans="1:5" ht="53.25">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
@@ -4854,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.5">
+    <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -4871,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5">
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
@@ -4918,14 +5641,14 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4979,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.7">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -4996,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -5048,7 +5771,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="24.6">
+    <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
@@ -5082,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="26.25">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -5099,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5">
+    <row r="11" spans="1:6" ht="26.25">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -5116,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -5150,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -5167,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -5184,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
@@ -5201,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="26.25">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -5235,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27">
+    <row r="19" spans="1:5" ht="27.75">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
@@ -5252,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5">
+    <row r="20" spans="1:5" ht="26.25">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
@@ -5269,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.6">
+    <row r="21" spans="1:5" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -5286,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.799999999999997">
+    <row r="22" spans="1:5" ht="39">
       <c r="A22" s="1" t="s">
         <v>267</v>
       </c>
@@ -5303,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5">
+    <row r="23" spans="1:5" ht="26.25">
       <c r="A23" s="1" t="s">
         <v>268</v>
       </c>
@@ -5320,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -5337,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="26.25">
       <c r="A25" s="1" t="s">
         <v>155</v>
       </c>
@@ -5354,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5">
+    <row r="26" spans="1:5" ht="26.25">
       <c r="A26" s="1" t="s">
         <v>156</v>
       </c>
@@ -5371,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5">
+    <row r="27" spans="1:5" ht="26.25">
       <c r="A27" s="1" t="s">
         <v>157</v>
       </c>
@@ -5388,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5">
+    <row r="28" spans="1:5" ht="39">
       <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
@@ -5422,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.5">
+    <row r="30" spans="1:5" ht="26.25">
       <c r="A30" s="1" t="s">
         <v>313</v>
       </c>
@@ -5490,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27">
+    <row r="34" spans="1:5" ht="27.75">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -5507,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
         <v>167</v>
       </c>
@@ -5524,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24.6">
+    <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -5541,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5">
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -5558,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24.6">
+    <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="1" t="s">
         <v>321</v>
       </c>
@@ -5575,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A39" s="3" t="s">
         <v>176</v>
       </c>
@@ -5592,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5">
+    <row r="40" spans="1:5" ht="26.25">
       <c r="A40" s="1" t="s">
         <v>178</v>
       </c>
@@ -5609,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.7">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="1" t="s">
         <v>179</v>
       </c>
@@ -5626,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5">
+    <row r="42" spans="1:5" ht="26.25">
       <c r="A42" s="1" t="s">
         <v>177</v>
       </c>
@@ -5643,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
@@ -5660,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="37.799999999999997">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="1" t="s">
         <v>181</v>
       </c>
@@ -5677,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="25.5">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="26.25">
       <c r="A45" s="3" t="s">
         <v>192</v>
       </c>
@@ -5728,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.5">
+    <row r="48" spans="1:5" ht="26.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -5745,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="39.299999999999997">
+    <row r="49" spans="1:5" ht="53.25">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
@@ -5762,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.5">
+    <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -5779,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5">
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
@@ -5823,18 +6546,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.83984375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.89453125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="12"/>
+    <col min="1" max="1" width="49.1328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.46484375" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1">
@@ -5854,7 +6577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="86.4">
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="85.5">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -5956,7 +6679,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="14.7" customHeight="1">
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="14.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>118</v>
       </c>
@@ -6041,7 +6764,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
@@ -6075,7 +6798,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -6092,7 +6815,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -6347,7 +7070,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="42.75">
       <c r="A31" s="11" t="s">
         <v>51</v>
       </c>
@@ -6619,7 +7342,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="47" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A47" s="11" t="s">
         <v>136</v>
       </c>
@@ -6772,7 +7495,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="56" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A56" s="11" t="s">
         <v>140</v>
       </c>
@@ -6789,7 +7512,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="57" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A57" s="11" t="s">
         <v>382</v>
       </c>
@@ -6840,7 +7563,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="11" customFormat="1" ht="57.6">
+    <row r="60" spans="1:5" s="11" customFormat="1" ht="57">
       <c r="A60" s="11" t="s">
         <v>122</v>
       </c>
@@ -6857,7 +7580,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="61" spans="1:5" s="11" customFormat="1" ht="42.75">
       <c r="A61" s="11" t="s">
         <v>124</v>
       </c>
@@ -6874,7 +7597,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="62" spans="1:5" s="11" customFormat="1" ht="42.75">
       <c r="A62" s="11" t="s">
         <v>126</v>
       </c>
@@ -6891,7 +7614,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="63" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A63" s="11" t="s">
         <v>127</v>
       </c>
@@ -6908,7 +7631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="64" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A64" s="11" t="s">
         <v>133</v>
       </c>
@@ -6925,7 +7648,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="11" customFormat="1" ht="28.8">
+    <row r="65" spans="1:5" s="11" customFormat="1" ht="28.5">
       <c r="A65" s="11" t="s">
         <v>129</v>
       </c>
@@ -6942,7 +7665,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="11" customFormat="1" ht="72">
+    <row r="66" spans="1:5" s="11" customFormat="1" ht="71.25">
       <c r="A66" s="11" t="s">
         <v>522</v>
       </c>
@@ -6959,7 +7682,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="11" customFormat="1" ht="72">
+    <row r="67" spans="1:5" s="11" customFormat="1" ht="71.25">
       <c r="A67" s="11" t="s">
         <v>523</v>
       </c>
@@ -6976,7 +7699,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="11" customFormat="1" ht="57.6">
+    <row r="68" spans="1:5" s="11" customFormat="1" ht="57">
       <c r="A68" s="11" t="s">
         <v>524</v>
       </c>
@@ -6993,7 +7716,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="11" customFormat="1" ht="43.2">
+    <row r="69" spans="1:5" s="11" customFormat="1" ht="42.75">
       <c r="A69" s="11" t="s">
         <v>131</v>
       </c>
@@ -7010,7 +7733,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8">
+    <row r="70" spans="1:5" ht="28.5">
       <c r="A70" s="11" t="s">
         <v>394</v>
       </c>
@@ -7112,7 +7835,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8">
+    <row r="76" spans="1:5" ht="28.5">
       <c r="A76" s="11" t="s">
         <v>408</v>
       </c>
@@ -7129,7 +7852,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8">
+    <row r="77" spans="1:5" ht="28.5">
       <c r="A77" s="11" t="s">
         <v>409</v>
       </c>
@@ -7146,7 +7869,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8">
+    <row r="78" spans="1:5" ht="28.5">
       <c r="A78" s="11" t="s">
         <v>410</v>
       </c>
@@ -7163,7 +7886,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8">
+    <row r="79" spans="1:5" ht="28.5">
       <c r="A79" s="11" t="s">
         <v>411</v>
       </c>
@@ -7180,7 +7903,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="43.2">
+    <row r="80" spans="1:5" ht="42.75">
       <c r="A80" s="11" t="s">
         <v>412</v>
       </c>
@@ -7197,7 +7920,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8">
+    <row r="81" spans="1:6" ht="28.5">
       <c r="A81" s="11" t="s">
         <v>413</v>
       </c>
@@ -7214,7 +7937,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8">
+    <row r="82" spans="1:6" ht="28.5">
       <c r="A82" s="11" t="s">
         <v>415</v>
       </c>
@@ -7231,7 +7954,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8">
+    <row r="83" spans="1:6" ht="28.5">
       <c r="A83" s="12" t="s">
         <v>417</v>
       </c>
@@ -7248,7 +7971,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="43.2">
+    <row r="84" spans="1:6" ht="42.75">
       <c r="A84" s="12" t="s">
         <v>418</v>
       </c>
@@ -7265,7 +7988,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8">
+    <row r="85" spans="1:6" ht="28.5">
       <c r="A85" s="12" t="s">
         <v>419</v>
       </c>
@@ -7282,7 +8005,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="11" customFormat="1" ht="43.2">
+    <row r="86" spans="1:6" s="11" customFormat="1" ht="42.75">
       <c r="A86" s="11" t="s">
         <v>420</v>
       </c>
@@ -7299,7 +8022,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="11" customFormat="1" ht="43.2">
+    <row r="87" spans="1:6" s="11" customFormat="1" ht="42.75">
       <c r="A87" s="11" t="s">
         <v>421</v>
       </c>
@@ -7316,7 +8039,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="11" customFormat="1" ht="43.2">
+    <row r="88" spans="1:6" s="11" customFormat="1" ht="42.75">
       <c r="A88" s="11" t="s">
         <v>433</v>
       </c>
@@ -7333,7 +8056,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="11" customFormat="1" ht="28.8">
+    <row r="89" spans="1:6" s="11" customFormat="1" ht="28.5">
       <c r="A89" s="11" t="s">
         <v>440</v>
       </c>
@@ -7350,7 +8073,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="11" customFormat="1" ht="28.8">
+    <row r="90" spans="1:6" s="11" customFormat="1" ht="28.5">
       <c r="A90" s="11" t="s">
         <v>434</v>
       </c>
@@ -7367,7 +8090,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="11" customFormat="1" ht="28.8">
+    <row r="91" spans="1:6" s="11" customFormat="1" ht="28.5">
       <c r="A91" s="11" t="s">
         <v>437</v>
       </c>
@@ -7627,7 +8350,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8">
+    <row r="106" spans="1:5" ht="28.5">
       <c r="A106" s="12" t="s">
         <v>535</v>
       </c>
@@ -7644,7 +8367,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="43.2">
+    <row r="107" spans="1:5" ht="42.75">
       <c r="A107" s="12" t="s">
         <v>538</v>
       </c>
@@ -7661,7 +8384,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="43.2">
+    <row r="108" spans="1:5" ht="42.75">
       <c r="A108" s="12" t="s">
         <v>541</v>
       </c>
@@ -7678,7 +8401,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="43.2">
+    <row r="109" spans="1:5" ht="42.75">
       <c r="A109" s="12" t="s">
         <v>539</v>
       </c>
@@ -7695,7 +8418,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="43.2">
+    <row r="110" spans="1:5" ht="42.75">
       <c r="A110" s="12" t="s">
         <v>540</v>
       </c>
@@ -7712,7 +8435,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.8">
+    <row r="111" spans="1:5" ht="28.5">
       <c r="A111" s="12" t="s">
         <v>545</v>
       </c>
@@ -7729,7 +8452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.8">
+    <row r="112" spans="1:5" ht="28.5">
       <c r="A112" s="12" t="s">
         <v>546</v>
       </c>
@@ -7760,14 +8483,14 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.9453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.9296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="5" max="5" width="48.46484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7804,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -7821,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -7838,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="5" spans="1:5" ht="26.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -7855,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
+    <row r="6" spans="1:5" ht="26.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -7872,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="26.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -7923,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="26.25">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -7957,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5">
+    <row r="12" spans="1:5" ht="26.25">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -7974,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -8008,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -8042,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5">
+    <row r="17" spans="1:5" ht="26.25">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -8059,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -8110,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="26.25">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
@@ -8134,908 +8857,2540 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="49.1328125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="48.46484375" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.86328125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="25.5">
+      <c r="A5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.6">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="25.5">
+      <c r="A7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="25.5">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="38.25">
+      <c r="A8" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.6">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="25.5">
+      <c r="A10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="25.5">
+      <c r="A11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.6">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="A12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="25.5">
+      <c r="A13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25.5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="25.5">
+      <c r="A18" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39.299999999999997">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="39.75">
+      <c r="A19" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="38.25">
+      <c r="A20" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.799999999999997">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" ht="38.25">
+      <c r="A22" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="37.799999999999997">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" ht="38.25">
+      <c r="A23" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="25.5">
+      <c r="A24" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25.5">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36.9">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" ht="38.25">
+      <c r="A28" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="25.5">
+      <c r="A29" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36.9">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="38.25">
+      <c r="A30" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" ht="25.5">
+      <c r="A31" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" ht="25.5">
+      <c r="A32" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="C32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="C34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="C35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="37.799999999999997">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" ht="38.25">
+      <c r="A36" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="C37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25.5">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:5" ht="38.25">
+      <c r="A39" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="C39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="C40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="C41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="49.2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" ht="63.75">
+      <c r="A44" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="37.799999999999997">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" ht="51">
+      <c r="A45" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="C45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="C46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="36.9">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" ht="38.25">
+      <c r="A47" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" ht="39.75">
+      <c r="A48" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="C48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="50.7">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:5" ht="65.25">
+      <c r="A49" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="C50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="25.5">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="C51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:5" ht="25.5">
+      <c r="A52" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="C52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.5">
+      <c r="A53" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5">
+      <c r="A54" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5">
+      <c r="A55" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="38.25">
+      <c r="A57" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="51">
+      <c r="A59" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.5">
+      <c r="A61" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.5">
+      <c r="A62" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="63.75">
+      <c r="A64" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="51">
+      <c r="A65" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.5">
+      <c r="A66" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="25.5">
+      <c r="A67" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="25.5">
+      <c r="A68" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="25.5">
+      <c r="A69" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="38.25">
+      <c r="A70" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="38.25">
+      <c r="A71" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="39.75">
+      <c r="A72" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="38.25">
+      <c r="A74" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="38.25">
+      <c r="A75" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="65.25">
+      <c r="A76" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.5">
+      <c r="A77" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5">
+      <c r="A78" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.5">
+      <c r="A79" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="51">
+      <c r="A80" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="25.5">
+      <c r="A81" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="25.5">
+      <c r="A82" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="25.5">
+      <c r="A83" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.5">
+      <c r="A84" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="38.25">
+      <c r="A86" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="38.25">
+      <c r="A88" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="38.25">
+      <c r="A89" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="25.5">
+      <c r="A90" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="38.25">
+      <c r="A91" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="38.25">
+      <c r="A93" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.5">
+      <c r="A94" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="51">
+      <c r="A95" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.5">
+      <c r="A96" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="38.25">
+      <c r="A97" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="38.25">
+      <c r="A98" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="25.5">
+      <c r="A99" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="25.5">
+      <c r="A100" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="27">
+      <c r="A101" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="52.5">
+      <c r="A102" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="25.5">
+      <c r="A103" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="25.5">
+      <c r="A105" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="39.75">
+      <c r="A108" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="51">
+      <c r="A109" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="25.5">
+      <c r="A110" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="25.5">
+      <c r="A111" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="25.5">
+      <c r="A114" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="39.75">
+      <c r="A115" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="38.25">
+      <c r="A116" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="25.5">
+      <c r="A117" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="51">
+      <c r="A118" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="25.5">
+      <c r="A119" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="25.5">
+      <c r="A121" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="25.5">
+      <c r="A122" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="25.5">
+      <c r="A123" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="38.25">
+      <c r="A124" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5">
+      <c r="A125" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="38.25">
+      <c r="A126" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="38.25">
+      <c r="A128" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="38.25">
+      <c r="A129" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="38.25">
+      <c r="A130" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="25.5">
+      <c r="A133" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="25.5">
+      <c r="A134" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="25.5">
+      <c r="A135" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="38.25">
+      <c r="A136" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="25.5">
+      <c r="A137" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="25.5">
+      <c r="A138" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.5">
+      <c r="A139" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="51">
+      <c r="A141" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="38.25">
+      <c r="A143" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="38.25">
+      <c r="A144" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="28.5">
+      <c r="A145" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="38.25">
+      <c r="A146" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="38.25">
+      <c r="A147" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="25.5">
+      <c r="A148" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="872">
   <si>
     <t>XXXX</t>
   </si>
@@ -2756,12 +2756,315 @@
   <si>
     <t>Despite the police patrol boat only has rescued two fishermen, the rest of the drowned fishermen are rescued by the pleasure boats</t>
   </si>
+  <si>
+    <t>SCENARIO_1_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_11</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_12</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_INDEX_13</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_INDEX_12</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_11</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_INDEX_12</t>
+  </si>
+  <si>
+    <t>A neighbor complains about noise from nearby house</t>
+  </si>
+  <si>
+    <t>A neighbor's dog is barking</t>
+  </si>
+  <si>
+    <t>As a result of the fight a woman is screaming out of her lungs to her husband regarding a difference they had related to their child.</t>
+  </si>
+  <si>
+    <t>A citizen reports that a kid is heard crying produsely from the back side of the house looking through the slightly open door</t>
+  </si>
+  <si>
+    <t>As soon as the parents realise the absense of the kid they decide to file a report through the INSPEC2T app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The woman rushes out of the house gets in the car and starts looking for the kid; she is in panic mode and drives recklessly. As a result she hits an electricity pillar</t>
+  </si>
+  <si>
+    <t>The police surrounds the area to avoid any chances of electrocution or the generation of fire</t>
+  </si>
+  <si>
+    <t>returned to the nearby police station</t>
+  </si>
+  <si>
+    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. None of the parents wanted to file the incident.</t>
+  </si>
+  <si>
+    <t>The officer visited the reported location and resolved the issue. A couple was arguing in the precense of a 9 yr old kid. However the officer needed to transfer the child to the social services and ensure that everything is ok</t>
+  </si>
+  <si>
+    <t>Officers find the kid and they immediately contact hs parents</t>
+  </si>
+  <si>
+    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by citizens</t>
+  </si>
+  <si>
+    <t>The situation escalated with no reason. The woman was saved by miracle and the boy was found by officers</t>
+  </si>
+  <si>
+    <t>A citizen reported littering in around his neighbourhood. His newly moved neighbors do not seem to respect others' space</t>
+  </si>
+  <si>
+    <t>The citizen's trust in police is decreased</t>
+  </si>
+  <si>
+    <t>A citizen reported littering in around his neighbourhood for the second time</t>
+  </si>
+  <si>
+    <t>The two neighbours are involved in an argument</t>
+  </si>
+  <si>
+    <t>The argument escalated on a fight which required the intervention of the police.  The two neighbours seem to be unfriendly with each other with the issue between them still unresolved</t>
+  </si>
+  <si>
+    <t>A police officer resolves the issue and the two neighbours restored their trust in police and managed to build a strong relationship</t>
+  </si>
+  <si>
+    <t>A citizen reported that her dog got sick after their walk around the neighbourhood and claimed the existence of pet poison around the area</t>
+  </si>
+  <si>
+    <t>Multiple citizens reported the existense of pet poison through the use of the INSPEC2T app. Some of them also associated the event with a number of locations. Thanks to the spatiotemporal processing in INSPEC2T. The system suggested the correlation of some reports and provided an estimation of the location.</t>
+  </si>
+  <si>
+    <t>Thanks to system indications and the contribution of citizens the officer managed to find and remove the poison within the area</t>
+  </si>
+  <si>
+    <t>The officers spent a long time on this but it paid off. They have managed to identify the poison and cleared the area.</t>
+  </si>
+  <si>
+    <t>Broadcasted a message to the area and urged anyone knowing anything about the event to contact the police or file a report. The case is not closed until the perpetrator is found</t>
+  </si>
+  <si>
+    <t>Multiple citizens provided key information to the police about a person that seems to be responsible for putting the poison to the area</t>
+  </si>
+  <si>
+    <t>The suspect is being arrested and is sent for questioning</t>
+  </si>
+  <si>
+    <t>The public seems to be losing trust in the police. They feel that the system does not work and get discouraged in providing input in the future</t>
+  </si>
+  <si>
+    <t>Report from user George names a suspect and reports multiple harassment events and damages on his asstes</t>
+  </si>
+  <si>
+    <t>George who has previously filed a report called a suspect messing with his parck car. George comes in arguments outside his hhouse and a neighbour files an anonymous report</t>
+  </si>
+  <si>
+    <t>The two officers managed to trace down the suspect who declines allegations.</t>
+  </si>
+  <si>
+    <t>Ignoring the case resulted in the generation of even more aggressive hostile reaction on behalf of the two parties</t>
+  </si>
+  <si>
+    <t>The citizens provide valuable information to the police, such information has helped to resolve the issue</t>
+  </si>
+  <si>
+    <t>Affter a lot of effort the officers managed to calm down the situation and suggested the intervention of consulting for resolving their issues</t>
+  </si>
+  <si>
+    <t>Progress on the investigation revealed that George and the reported suspect have a long run of financial differences. The police suggests the invasion of lawyers for resolving the issue</t>
+  </si>
+  <si>
+    <t>A report from a user states race discrimination in employment. Their employer does not treat them equally</t>
+  </si>
+  <si>
+    <t>The reporter is in the process of forming an awareness campaign against their employer, clearly stating the ignorance of police,. Dedicate some forces to minimise the dissatisfaction</t>
+  </si>
+  <si>
+    <t>The officer approached the employer and the apporpriate public body and explained the policies behind equal rights. You are now presented with an option to find the employer</t>
+  </si>
+  <si>
+    <t>You ignored the case and the public lost their trust in you. They believe that these things should matter</t>
+  </si>
+  <si>
+    <t>Your officer tried to exploain the restrictions of police when it comes to their resources but it wasn't enough</t>
+  </si>
+  <si>
+    <t>Your actions weren't transparent to the public and the victim dim not come to closure</t>
+  </si>
+  <si>
+    <t>You have broadcasted messages through the INSPEC2T Platform and social media stating that such behaviours are not acceptable and should not be tolerated. The offender however has left unpunished</t>
+  </si>
+  <si>
+    <t>You have fined the employer and broadcasted messages through the INSPEC2T platform and the social media stating that such behaviours are not acceptable and should not be tolerated</t>
+  </si>
+  <si>
+    <t>A report has been received from a hotel manager stating that a suspicious substance has been found in a room</t>
+  </si>
+  <si>
+    <t>Your officers have visited the hotel, carefully collected the substance which was sent to the appropriate lab which confirmed the existence of large amounts of drugs. The room tenant has gone missing</t>
+  </si>
+  <si>
+    <t>You have requested citizens contribution. Through which you managed to get valuable information. allowing you to trace down the suspec's location</t>
+  </si>
+  <si>
+    <t>The room tenant returns to the room after the police has departed from the area. The hotel manager was assaulted while damages were caused in the reception area. The manager ended up in the nearest hospital with a serious concussion</t>
+  </si>
+  <si>
+    <t>The officer managed to trace down the suspect after organised efforts he was apprehended and was sent to questioning. The hotel manager is satisfied and the citizens' trust in the police has increased due to transparency</t>
+  </si>
+  <si>
+    <t>The officers manage to trace down the suspect and after organised efforts he was apprehended and was sent to questioning. The hotel manager is satisfied</t>
+  </si>
+  <si>
+    <t>A report has been received from a third country national anonymous user indicating that they are mistreated by their employer being forced to work too many hours every week</t>
+  </si>
+  <si>
+    <t>You have chosen not to take active action at this time but took the time to raise some awareness of the matter</t>
+  </si>
+  <si>
+    <t>An officer investigates the situation and finds out that the employer hires the victim's services to their relatives</t>
+  </si>
+  <si>
+    <t>Working together with public services resulted in finding a new home for the victim and filing charges to the offender. The extra time you have taken did not cause any significant consequences</t>
+  </si>
+  <si>
+    <t>You decided to ignore the case. The victim could not find an escape and ran away from their home. A person has now gone missing and the initial issue is still pending</t>
+  </si>
+  <si>
+    <t>Working together with public services resulted in finding a new home for the victim and filing charges to the offender.</t>
+  </si>
+  <si>
+    <t>Intelligence coming from citizens reports that the reporting victim was found on the streets in apretty bad shape. The public opinion in negative and does not support your actions</t>
+  </si>
+  <si>
+    <t>Your officers did not manage to solve the issues. The issues are still pending. You can either dedicate more forces and solve the matters or ask for citizen intelligence</t>
+  </si>
+  <si>
+    <t>The public returns valuable information that results in tracing down the missing person. It is now time to deal with the offender</t>
+  </si>
+  <si>
+    <t>Your officers managed to apprehend the offending employer and are in search of the missing person</t>
+  </si>
+  <si>
+    <t>You decided to ignore the case. Th public opinion is negative and does not support your actions</t>
+  </si>
+  <si>
+    <t>Your officers managed to apprehend the offending employer. Well done, you have managed to dela with the situation in resonable time</t>
+  </si>
+  <si>
+    <t>A report has been received from a registered citizen indicating that a car on Griva Digeni Ave. has just caught on fire. The fire department has already been called and dispatched resources</t>
+  </si>
+  <si>
+    <t>You selected to ignore the case. You are putting citizens in danger</t>
+  </si>
+  <si>
+    <t>Messages have been broadcasted to the citizens with information about the event. Take some security measures or wait to close the case</t>
+  </si>
+  <si>
+    <t>Two officers were sent to ensure public safety during the process. The police officers capture images from the site. Dedicate some resources to ensure the area is secure for use by the public</t>
+  </si>
+  <si>
+    <t>The case is now closed. You have left the area unsecured through and citizens are in danger</t>
+  </si>
+  <si>
+    <t>Messages have been broadcasted to the citizens with diverting instructions and pictoral content for avoiding any accidents. You have left the area unsecured though</t>
+  </si>
+  <si>
+    <t>The area is now open for use by the public. You are now faced with the choice to inform the publice about the event or close the case</t>
+  </si>
+  <si>
+    <t>The case is successfully closed. You have taken the right precautions. Well Done</t>
+  </si>
+  <si>
+    <t>Messages have been broadcasted to the citizens for their information. You are gaining their trust</t>
+  </si>
+  <si>
+    <t>A suspicious person is seen inside a green van outside a pharmacy in the middle of the night. The filed report contains the van's number plate</t>
+  </si>
+  <si>
+    <t>A robbery has been reported. The alarm of the pharmacy was activated. The pharmacist who was resting at the back of the room is wounded. A quantity of drugs have gone missing</t>
+  </si>
+  <si>
+    <t>Gathered citizen intelligence! Citizens confirm that there is indeed an unknown and suspicious person in the area. They even mention that this person was previously seen with 2 other parties</t>
+  </si>
+  <si>
+    <t>The officer went to the area. The suspicious person pretended to be busy on their phone. The officer approached the suspect who claimed that he parker there to speak on the phone and he immediately drove away</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Citizens point the direction of suspects. Along with vehicle number plates. The number plates match the initial report</t>
+  </si>
+  <si>
+    <t>The officers investigate the area and gather evidence. The investigation of the crime is forwarded to the appropriate department</t>
+  </si>
+  <si>
+    <t>You check the van's number plate and find out that they do not belong to that vehicle.</t>
+  </si>
+  <si>
+    <t>The suspect was apprehended and was sent for questioning. Well done</t>
+  </si>
+  <si>
+    <t>The suspect was arrested and it was proved that he was involved in a planned robbery. Good Job!</t>
+  </si>
+  <si>
+    <t>A report mentions that a car is left on the side of a field a few days now. parked in a messy way. They also provide the number plates.</t>
+  </si>
+  <si>
+    <t>You decided to do nothing on the matter. No major backlash is caused but you certainly did not satisfy the reporter and victim's immediate community</t>
+  </si>
+  <si>
+    <t>The number plates point to the owner who was contacted and mentioned that his daughter, who is studying in a nearby city, drives the car. The concerned parent mentions that his daughter suffers from memory problems</t>
+  </si>
+  <si>
+    <t>You decided to ask more information from citizens on the abandoned car. Citizens managed to provide you with some useful information</t>
+  </si>
+  <si>
+    <t>An officer visited the abandoned car and gathered some evidence They also managed to trace down the girl. Who mentioned that a few days ago she went to a party and on the way back she lost her orientation and forgot where she left her car</t>
+  </si>
+  <si>
+    <t>Great Job! You managed to solve the problem</t>
+  </si>
+  <si>
+    <t>Thank the citizen for their participation in bringing the matter to the plice's attention</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2823,6 +3126,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2874,7 +3188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2959,6 +3273,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4729,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5635,19 +5970,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
@@ -5655,33 +5990,33 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="30" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5689,30 +6024,30 @@
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -5723,218 +6058,218 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="38.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.25">
+      <c r="A10" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25">
+      <c r="A11" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5">
+      <c r="A13" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25">
-      <c r="A10" s="1" t="s">
+      <c r="B15" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25">
-      <c r="A11" s="1" t="s">
+      <c r="B16" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.25">
-      <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="25.5">
-      <c r="A16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25">
-      <c r="A17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="33" t="s">
+        <v>801</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -5943,287 +6278,287 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63.75">
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5">
+      <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.75">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5">
+      <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.25">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25">
+      <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5">
+      <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="39">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25">
-      <c r="A23" s="1" t="s">
+      <c r="B27" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5">
+      <c r="A28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="26.25">
-      <c r="A24" s="3" t="s">
+      <c r="B28" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5">
+      <c r="A29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="26.25">
-      <c r="A25" s="1" t="s">
+      <c r="B29" s="34" t="s">
+        <v>813</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25">
+      <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="26.25">
-      <c r="A26" s="1" t="s">
+      <c r="B30" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5">
+      <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="26.25">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="25.5">
+      <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="39">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5">
+      <c r="A33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="25.5">
+      <c r="A34" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25">
-      <c r="A30" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.75">
-      <c r="A34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -6232,307 +6567,970 @@
     </row>
     <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="38.25">
+      <c r="A36" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="25.5">
+      <c r="A37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="38.25">
+      <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="38.25">
+      <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5">
+      <c r="A40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.5">
+      <c r="A41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.5">
-      <c r="A36" s="1" t="s">
+      <c r="B41" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5">
+      <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="26.25">
-      <c r="A37" s="1" t="s">
+      <c r="B42" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="38.25">
+      <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="25.5">
-      <c r="A38" s="1" t="s">
+      <c r="B43" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="38.25">
+      <c r="A44" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="26.25">
-      <c r="A39" s="3" t="s">
+      <c r="B44" s="34" t="s">
+        <v>827</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="25.5">
+      <c r="A45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25">
-      <c r="A40" s="1" t="s">
+      <c r="B45" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25.5">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="38.25">
+      <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="1" t="s">
+      <c r="B47" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5">
+      <c r="A48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="26.25">
-      <c r="A42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="26.25">
-      <c r="A43" s="1" t="s">
+      <c r="B48" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="51">
+      <c r="A49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="39">
-      <c r="A44" s="1" t="s">
+      <c r="B49" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="51">
+      <c r="A50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="26.25">
-      <c r="A45" s="3" t="s">
+      <c r="B50" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="38.25">
+      <c r="A51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="38.25">
+      <c r="A52" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+      <c r="B52" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="25.5">
+      <c r="A53" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+      <c r="B53" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="25.5">
+      <c r="A54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="26.25">
-      <c r="A48" s="1" t="s">
+      <c r="B54" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="38.25">
+      <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="53.25">
-      <c r="A49" s="1" t="s">
+      <c r="B55" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="38.25">
+      <c r="A56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.25">
-      <c r="A50" s="1" t="s">
+      <c r="B56" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="25.5">
+      <c r="A57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="26.25">
-      <c r="A51" s="1" t="s">
+      <c r="B57" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="38.25">
+      <c r="A58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+      <c r="B58" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="38.25">
+      <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="B59" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="25.5">
+      <c r="A60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="25.5">
+      <c r="A61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="25.5">
+      <c r="A62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="25.5">
+      <c r="A63" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="38.25">
+      <c r="A64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="25.5">
+      <c r="A66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="38.25">
+      <c r="A67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="25.5">
+      <c r="A68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="38.25">
+      <c r="A69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="25.5">
+      <c r="A70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="25.5">
+      <c r="A71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.5">
+      <c r="A72" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.5">
+      <c r="A73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="38.25">
+      <c r="A74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="38.25">
+      <c r="A75" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="38.25">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5">
+      <c r="A78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.5">
+      <c r="A79" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.5">
+      <c r="A80" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="25.5">
+      <c r="A84" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="25.5">
+      <c r="A85" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5">
+      <c r="A86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="38.25">
+      <c r="A87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="25.5">
+      <c r="A88" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="51">
+      <c r="A89" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="25.5">
+      <c r="A91" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8479,7 +9477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8859,7 +9857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="874">
   <si>
     <t>XXXX</t>
   </si>
@@ -3058,6 +3058,12 @@
   </si>
   <si>
     <t>Thank the citizen for their participation in bringing the matter to the plice's attention</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_REPLAY_TUTORIAL</t>
+  </si>
+  <si>
+    <t>Replay Tutorial</t>
   </si>
 </sst>
 </file>
@@ -5972,7 +5978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7542,10 +7548,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -9213,62 +9219,62 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="11" t="s">
-        <v>454</v>
+      <c r="A98" s="12" t="s">
+        <v>872</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>455</v>
+        <v>873</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E98" t="s">
-        <v>455</v>
+        <v>0</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B100" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C100" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D100" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>0</v>
@@ -9276,16 +9282,16 @@
       <c r="D101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>511</v>
+      <c r="E101" s="17" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>0</v>
@@ -9293,16 +9299,16 @@
       <c r="D102" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>597</v>
+      <c r="E102" s="15" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>0</v>
@@ -9311,15 +9317,15 @@
         <v>0</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>0</v>
@@ -9327,67 +9333,67 @@
       <c r="D104" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>599</v>
+      <c r="E104" s="16" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B106" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.5">
-      <c r="A106" s="12" t="s">
+    <row r="107" spans="1:5" ht="28.5">
+      <c r="A107" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B107" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="16" t="s">
+      <c r="C107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="42.75">
-      <c r="A107" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="42.75">
       <c r="A108" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>0</v>
@@ -9396,15 +9402,15 @@
         <v>0</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="42.75">
       <c r="A109" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>0</v>
@@ -9413,57 +9419,74 @@
         <v>0</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="42.75">
       <c r="A110" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="42.75">
+      <c r="A111" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="17" t="s">
+      <c r="C111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="28.5">
-      <c r="A111" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="28.5">
       <c r="A112" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="28.5">
+      <c r="A113" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B113" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="C113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>607</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1194">
   <si>
     <t>XXXX</t>
   </si>
@@ -3646,6 +3646,670 @@
       </rPr>
       <t>T</t>
     </r>
+  </si>
+  <si>
+    <t>Vandalism</t>
+  </si>
+  <si>
+    <t>Lack of Support</t>
+  </si>
+  <si>
+    <t>Citizen Support</t>
+  </si>
+  <si>
+    <t>Multiple Acts of Vandalism</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Drug Use</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Injury
+(possible severity)</t>
+  </si>
+  <si>
+    <t>Citizen support</t>
+  </si>
+  <si>
+    <t>Traffic accident</t>
+  </si>
+  <si>
+    <t>Multiple accidents</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Noise complaint (loud music)</t>
+  </si>
+  <si>
+    <t>Persecution</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>Gender Violence</t>
+  </si>
+  <si>
+    <t>CP assistance</t>
+  </si>
+  <si>
+    <t>The minor in dangerous situation</t>
+  </si>
+  <si>
+    <t>Citizen collaboration</t>
+  </si>
+  <si>
+    <t>Dog bite</t>
+  </si>
+  <si>
+    <t>Escape of the aggressor dog</t>
+  </si>
+  <si>
+    <t>Theft from the inside vehicles</t>
+  </si>
+  <si>
+    <t>Police presence</t>
+  </si>
+  <si>
+    <t>Man climbing a bridge</t>
+  </si>
+  <si>
+    <t>Sudden Hero</t>
+  </si>
+  <si>
+    <t>Pickpocketing</t>
+  </si>
+  <si>
+    <t>More Pickpocketing</t>
+  </si>
+  <si>
+    <t>Exhibitionism</t>
+  </si>
+  <si>
+    <t>CPO Required</t>
+  </si>
+  <si>
+    <t>Moinor Corruption</t>
+  </si>
+  <si>
+    <t>Witness</t>
+  </si>
+  <si>
+    <t>Disappearance</t>
+  </si>
+  <si>
+    <t>Patrol Required</t>
+  </si>
+  <si>
+    <t>Specific Citizen Collaboration</t>
+  </si>
+  <si>
+    <t>More Police effectives are required</t>
+  </si>
+  <si>
+    <t>Dumping</t>
+  </si>
+  <si>
+    <t>Send Patrol</t>
+  </si>
+  <si>
+    <t>Request Citizen Info</t>
+  </si>
+  <si>
+    <t>Send More Patrols</t>
+  </si>
+  <si>
+    <t>Burglaries</t>
+  </si>
+  <si>
+    <t>Search internal info of previous cases</t>
+  </si>
+  <si>
+    <t>Group Gathering</t>
+  </si>
+  <si>
+    <t>CPO Injured</t>
+  </si>
+  <si>
+    <t>Multiple Fights</t>
+  </si>
+  <si>
+    <t>INSPEC2T Witness</t>
+  </si>
+  <si>
+    <t>Three Patrols in the area</t>
+  </si>
+  <si>
+    <t>Request INSPEC2T info</t>
+  </si>
+  <si>
+    <t>False Police Check</t>
+  </si>
+  <si>
+    <t>One police patrol set</t>
+  </si>
+  <si>
+    <t>Request Traffic light regulation</t>
+  </si>
+  <si>
+    <t>Nighbours Dispute</t>
+  </si>
+  <si>
+    <t>Police Action</t>
+  </si>
+  <si>
+    <t>Citizen Request</t>
+  </si>
+  <si>
+    <t>Both women injured</t>
+  </si>
+  <si>
+    <t>Suspicious Suitcase</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Police Intervention</t>
+  </si>
+  <si>
+    <t>Bomb disposal experts</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>More Patrols</t>
+  </si>
+  <si>
+    <t>Drug Dealers</t>
+  </si>
+  <si>
+    <t>One police patrol sent</t>
+  </si>
+  <si>
+    <t>Avalanche of people</t>
+  </si>
+  <si>
+    <t>Three patrols sent</t>
+  </si>
+  <si>
+    <t>Lion's escape</t>
+  </si>
+  <si>
+    <t>More patrols required</t>
+  </si>
+  <si>
+    <t>Fisherman falls in the sea</t>
+  </si>
+  <si>
+    <t>A patrol boat is required</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_TITLE_RESOLUTION</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_4_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_11_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_12_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_13_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_14_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_16_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_17_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_18_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_TITLE_1</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_TITLE_2</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_TITLE_3</t>
+  </si>
+  <si>
+    <t>SCENARIO_20_TITLE_4</t>
+  </si>
+  <si>
+    <t>Noise Pollution</t>
+  </si>
+  <si>
+    <t>Woman is acreaming</t>
+  </si>
+  <si>
+    <t>Kid is crying profusly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid Runs Away. </t>
+  </si>
+  <si>
+    <t>Woman looking for the kid recklessly driving</t>
+  </si>
+  <si>
+    <t>Damages on vehicle, Passenger lightly injured</t>
+  </si>
+  <si>
+    <t>Kid Found by a couple</t>
+  </si>
+  <si>
+    <t>Littering Complaints</t>
+  </si>
+  <si>
+    <t>Nothing Happens this turn</t>
+  </si>
+  <si>
+    <t>Tension Generated</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Citizen complains about pet poison on the streets</t>
+  </si>
+  <si>
+    <t>Multiple complaints about poisons</t>
+  </si>
+  <si>
+    <t>Location of poisons</t>
+  </si>
+  <si>
+    <t>Ask for citizen input</t>
+  </si>
+  <si>
+    <t>Receive reports</t>
+  </si>
+  <si>
+    <t>Suspect Arrested</t>
+  </si>
+  <si>
+    <t>Inconvenience to the public</t>
+  </si>
+  <si>
+    <t>Bullying</t>
+  </si>
+  <si>
+    <t>Discrimination</t>
+  </si>
+  <si>
+    <t>Drug Dealing</t>
+  </si>
+  <si>
+    <t>Racism</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>Abandoned Car</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_1_TITLE_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_2_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_3_TITLE_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_9</t>
+  </si>
+  <si>
+    <t>SCENARIO_7_TITLE_10</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_8_TITLE_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_4</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_9_TITLE_8</t>
+  </si>
+  <si>
+    <t>SCENARIO_10_TITLE_7</t>
+  </si>
+  <si>
+    <t>Missing Person</t>
+  </si>
+  <si>
+    <t>Investigate</t>
+  </si>
+  <si>
+    <t>Citizen Help</t>
+  </si>
+  <si>
+    <t>Neighbour dispute</t>
+  </si>
+  <si>
+    <t>Development - verbal assault</t>
+  </si>
+  <si>
+    <t>Development - physical assault</t>
+  </si>
+  <si>
+    <t>Minor Altercation</t>
+  </si>
+  <si>
+    <t>Rape</t>
+  </si>
+  <si>
+    <t>Traffic Incident</t>
+  </si>
+  <si>
+    <t>Verbal Abuse</t>
+  </si>
+  <si>
+    <t>Possible Assault</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Multiple Assault</t>
+  </si>
+  <si>
+    <t>Loitering</t>
+  </si>
+  <si>
+    <t>Possible Missing Person</t>
+  </si>
+  <si>
+    <t>Drunk Driving</t>
+  </si>
+  <si>
+    <t>Theft</t>
+  </si>
+  <si>
+    <t>SCENARIO_5_TITLE_6</t>
+  </si>
+  <si>
+    <t>SCENARIO_6_TITLE_6</t>
   </si>
 </sst>
 </file>
@@ -3698,12 +4362,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3764,8 +4422,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,12 +4457,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3815,7 +4471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3880,25 +4536,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3910,19 +4557,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -4204,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -5682,6 +6349,737 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:5" s="3" customFormat="1">
+      <c r="A87" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="3" customFormat="1">
+      <c r="A90" s="39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="24" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="24" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="3" customFormat="1">
+      <c r="A96" s="39" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="24" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="3" customFormat="1">
+      <c r="A99" s="39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="3" customFormat="1">
+      <c r="A101" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="24" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="3" customFormat="1">
+      <c r="A104" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B104" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="3" customFormat="1">
+      <c r="A108" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="24" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="24" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="24" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="24" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="3" customFormat="1">
+      <c r="A116" s="39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="24" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="24" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="3" customFormat="1">
+      <c r="A120" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="24" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="24" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="3" customFormat="1">
+      <c r="A124" s="39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="3" customFormat="1">
+      <c r="A125" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="3" customFormat="1">
+      <c r="A128" s="39" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5690,10 +7088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A76" activeCellId="6" sqref="A53:XFD53 A57:XFD57 A61:XFD61 A65:XFD65 A69:XFD69 A73:XFD73 A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -6591,6 +7989,465 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:5" s="3" customFormat="1">
+      <c r="A53" s="40" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>973</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="34" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="34" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="3" customFormat="1">
+      <c r="A57" s="40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>978</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.5">
+      <c r="A59" s="34" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="34" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>981</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="3" customFormat="1">
+      <c r="A61" s="40" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>982</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="34" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>983</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="34" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1">
+      <c r="A65" s="40" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>985</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="34" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>986</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="34" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>987</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="34" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1">
+      <c r="A69" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>988</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="34" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>989</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="34" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1">
+      <c r="A73" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="34" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="34" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1">
+      <c r="A76" s="40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="34" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6598,18 +8455,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="49.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.9296875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="62.9296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="27" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.86328125" style="1"/>
   </cols>
@@ -6618,33 +8475,33 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="30" customFormat="1">
+    <row r="2" spans="1:6" s="27" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6652,13 +8509,13 @@
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>773</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -6669,13 +8526,13 @@
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -6686,13 +8543,13 @@
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -6703,13 +8560,13 @@
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -6720,31 +8577,31 @@
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -6755,13 +8612,13 @@
       <c r="A9" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -6772,13 +8629,13 @@
       <c r="A10" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -6789,13 +8646,13 @@
       <c r="A11" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -6806,13 +8663,13 @@
       <c r="A12" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -6823,13 +8680,13 @@
       <c r="A13" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -6840,13 +8697,13 @@
       <c r="A14" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -6857,13 +8714,13 @@
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -6874,13 +8731,13 @@
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -6891,13 +8748,13 @@
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -6908,13 +8765,13 @@
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>788</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -6925,13 +8782,13 @@
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -6942,13 +8799,13 @@
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -6959,13 +8816,13 @@
       <c r="A21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -6976,13 +8833,13 @@
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -6993,13 +8850,13 @@
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -7010,13 +8867,13 @@
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>794</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -7027,13 +8884,13 @@
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -7044,13 +8901,13 @@
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -7061,13 +8918,13 @@
       <c r="A27" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -7078,13 +8935,13 @@
       <c r="A28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -7095,13 +8952,13 @@
       <c r="A29" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -7112,13 +8969,13 @@
       <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -7129,13 +8986,13 @@
       <c r="A31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -7146,13 +9003,13 @@
       <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -7163,13 +9020,13 @@
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -7180,13 +9037,13 @@
       <c r="A34" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -7197,13 +9054,13 @@
       <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -7214,13 +9071,13 @@
       <c r="A36" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="31" t="s">
         <v>805</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -7231,13 +9088,13 @@
       <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -7248,13 +9105,13 @@
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -7265,13 +9122,13 @@
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -7282,13 +9139,13 @@
       <c r="A40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -7299,13 +9156,13 @@
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="31" t="s">
         <v>810</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -7316,13 +9173,13 @@
       <c r="A42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -7333,13 +9190,13 @@
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -7350,13 +9207,13 @@
       <c r="A44" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>813</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -7367,13 +9224,13 @@
       <c r="A45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -7384,13 +9241,13 @@
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -7401,13 +9258,13 @@
       <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="C47" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -7418,13 +9275,13 @@
       <c r="A48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="31" t="s">
         <v>816</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -7435,13 +9292,13 @@
       <c r="A49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="31" t="s">
         <v>817</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="30" t="s">
+      <c r="C49" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -7452,13 +9309,13 @@
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="C50" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -7469,13 +9326,13 @@
       <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="30" t="s">
+      <c r="C51" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -7486,13 +9343,13 @@
       <c r="A52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="31" t="s">
         <v>820</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="C52" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="10" t="s">
@@ -7503,13 +9360,13 @@
       <c r="A53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="31" t="s">
         <v>821</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30" t="s">
+      <c r="C53" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -7520,13 +9377,13 @@
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30" t="s">
+      <c r="C54" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="10" t="s">
@@ -7537,13 +9394,13 @@
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="31" t="s">
         <v>823</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -7554,13 +9411,13 @@
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="31" t="s">
         <v>824</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="30" t="s">
+      <c r="C56" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -7571,13 +9428,13 @@
       <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="31" t="s">
         <v>825</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="10" t="s">
@@ -7588,13 +9445,13 @@
       <c r="A58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="31" t="s">
         <v>826</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -7605,13 +9462,13 @@
       <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="31" t="s">
         <v>827</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="C59" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -7622,13 +9479,13 @@
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="31" t="s">
         <v>828</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="C60" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -7639,13 +9496,13 @@
       <c r="A61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="31" t="s">
         <v>829</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="C61" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -7656,13 +9513,13 @@
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="30" t="s">
+      <c r="C62" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -7673,13 +9530,13 @@
       <c r="A63" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="31" t="s">
         <v>831</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="30" t="s">
+      <c r="C63" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -7690,13 +9547,13 @@
       <c r="A64" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="31" t="s">
         <v>832</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="30" t="s">
+      <c r="C64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -7707,13 +9564,13 @@
       <c r="A65" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="30" t="s">
+      <c r="C65" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="10" t="s">
@@ -7724,13 +9581,13 @@
       <c r="A66" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="31" t="s">
         <v>834</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="30" t="s">
+      <c r="C66" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -7741,13 +9598,13 @@
       <c r="A67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C67" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="30" t="s">
+      <c r="C67" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="10" t="s">
@@ -7758,13 +9615,13 @@
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="C68" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="C68" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="10" t="s">
@@ -7775,13 +9632,13 @@
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="10" t="s">
@@ -7792,13 +9649,13 @@
       <c r="A70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="31" t="s">
         <v>838</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="C70" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="10" t="s">
@@ -7809,13 +9666,13 @@
       <c r="A71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="31" t="s">
         <v>839</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="C71" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -7826,13 +9683,13 @@
       <c r="A72" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="31" t="s">
         <v>840</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -7843,13 +9700,13 @@
       <c r="A73" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="31" t="s">
         <v>841</v>
       </c>
-      <c r="C73" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="C73" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -7860,13 +9717,13 @@
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>842</v>
       </c>
-      <c r="C74" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="30" t="s">
+      <c r="C74" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -7877,13 +9734,13 @@
       <c r="A75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="31" t="s">
         <v>843</v>
       </c>
-      <c r="C75" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="30" t="s">
+      <c r="C75" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -7894,13 +9751,13 @@
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="30" t="s">
+      <c r="C76" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E76" s="10" t="s">
@@ -7911,13 +9768,13 @@
       <c r="A77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="C77" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="C77" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="10" t="s">
@@ -7928,13 +9785,13 @@
       <c r="A78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="C78" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="30" t="s">
+      <c r="C78" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="10" t="s">
@@ -7945,13 +9802,13 @@
       <c r="A79" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="31" t="s">
         <v>847</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="30" t="s">
+      <c r="C79" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -7962,13 +9819,13 @@
       <c r="A80" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="C80" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="10" t="s">
@@ -7979,13 +9836,13 @@
       <c r="A81" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="C81" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="10" t="s">
@@ -7996,13 +9853,13 @@
       <c r="A82" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="C82" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="10" t="s">
@@ -8013,13 +9870,13 @@
       <c r="A83" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="30" t="s">
+      <c r="C83" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="10" t="s">
@@ -8030,13 +9887,13 @@
       <c r="A84" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="31" t="s">
         <v>850</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="C84" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="10" t="s">
@@ -8047,13 +9904,13 @@
       <c r="A85" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="10" t="s">
@@ -8064,13 +9921,13 @@
       <c r="A86" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="31" t="s">
         <v>852</v>
       </c>
-      <c r="C86" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="C86" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="10" t="s">
@@ -8081,13 +9938,13 @@
       <c r="A87" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="C87" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="10" t="s">
@@ -8098,13 +9955,13 @@
       <c r="A88" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="30" t="s">
+      <c r="C88" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="10" t="s">
@@ -8115,13 +9972,13 @@
       <c r="A89" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="31" t="s">
         <v>855</v>
       </c>
-      <c r="C89" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="30" t="s">
+      <c r="C89" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E89" s="10" t="s">
@@ -8132,13 +9989,13 @@
       <c r="A90" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="C90" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="30" t="s">
+      <c r="C90" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E90" s="10" t="s">
@@ -8149,16 +10006,917 @@
       <c r="A91" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C91" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="30" t="s">
+      <c r="C91" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" customFormat="1">
+      <c r="A92" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" customFormat="1">
+      <c r="A93" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" customFormat="1">
+      <c r="A94" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" customFormat="1">
+      <c r="A95" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" customFormat="1">
+      <c r="A96" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" customFormat="1">
+      <c r="A97" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" customFormat="1">
+      <c r="A98" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" customFormat="1">
+      <c r="A99" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" customFormat="1">
+      <c r="A100" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" customFormat="1">
+      <c r="A101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" customFormat="1">
+      <c r="A102" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" customFormat="1">
+      <c r="A103" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" customFormat="1">
+      <c r="A104" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" customFormat="1">
+      <c r="A105" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" customFormat="1">
+      <c r="A106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" customFormat="1">
+      <c r="A107" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" customFormat="1">
+      <c r="A108" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B108" t="s">
+        <v>977</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" customFormat="1">
+      <c r="A109" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" customFormat="1">
+      <c r="A110" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" customFormat="1">
+      <c r="A111" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" customFormat="1">
+      <c r="A112" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" customFormat="1">
+      <c r="A113" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" customFormat="1">
+      <c r="A114" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" customFormat="1">
+      <c r="A115" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" customFormat="1">
+      <c r="A116" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" customFormat="1">
+      <c r="A117" s="37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" customFormat="1">
+      <c r="A118" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" customFormat="1">
+      <c r="A119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" customFormat="1">
+      <c r="A120" s="37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" customFormat="1">
+      <c r="A121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" customFormat="1">
+      <c r="A122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" customFormat="1">
+      <c r="A123" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" customFormat="1">
+      <c r="A124" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" customFormat="1">
+      <c r="A125" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" customFormat="1">
+      <c r="A126" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" customFormat="1">
+      <c r="A127" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" customFormat="1">
+      <c r="A128" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" customFormat="1">
+      <c r="A129" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" customFormat="1">
+      <c r="A130" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" customFormat="1">
+      <c r="A131" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" customFormat="1">
+      <c r="A132" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" customFormat="1">
+      <c r="A133" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" customFormat="1">
+      <c r="A134" s="37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" customFormat="1">
+      <c r="A135" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" customFormat="1">
+      <c r="A136" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" customFormat="1">
+      <c r="A137" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" customFormat="1">
+      <c r="A138" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" customFormat="1">
+      <c r="A139" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" customFormat="1">
+      <c r="A140" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" customFormat="1">
+      <c r="A141" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" customFormat="1">
+      <c r="A142" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" customFormat="1">
+      <c r="A143" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" customFormat="1">
+      <c r="A144" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8170,10 +10928,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -9853,7 +12611,7 @@
       <c r="D98" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="36" t="s">
+      <c r="E98" s="33" t="s">
         <v>859</v>
       </c>
     </row>
@@ -10110,6 +12868,23 @@
       </c>
       <c r="E113" s="16" t="s">
         <v>597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="21" customFormat="1">
+      <c r="A114" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10122,8 +12897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -10500,15 +13275,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.1328125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="49.1328125" customWidth="1"/>
     <col min="2" max="2" width="62.9296875" style="21" customWidth="1"/>
     <col min="3" max="3" width="10.86328125" style="21" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" style="21" customWidth="1"/>
@@ -10517,7 +13292,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -10534,10 +13309,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>268</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -10551,10 +13326,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>268</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -10568,10 +13343,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>272</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -10585,10 +13360,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -10602,10 +13377,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>270</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -10619,10 +13394,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>271</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -10636,10 +13411,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42.75">
-      <c r="A8" s="22" t="s">
+      <c r="A8" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>273</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -10653,10 +13428,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>868</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -10670,10 +13445,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>275</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -10687,10 +13462,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -10704,10 +13479,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>277</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -10721,10 +13496,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>867</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -10738,10 +13513,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -10755,10 +13530,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>866</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -10772,10 +13547,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>281</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -10789,10 +13564,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>282</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -10806,10 +13581,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -10823,10 +13598,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="44.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -10840,10 +13615,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>284</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -10857,10 +13632,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -10874,10 +13649,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.75">
-      <c r="A22" s="22" t="s">
+      <c r="A22" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>286</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -10891,10 +13666,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="42.75">
-      <c r="A23" s="22" t="s">
+      <c r="A23" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -10908,10 +13683,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -10925,10 +13700,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>312</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -10942,10 +13717,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.5">
-      <c r="A26" s="21" t="s">
+      <c r="A26" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>313</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -10959,10 +13734,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>314</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -10976,10 +13751,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="42.75">
-      <c r="A28" s="21" t="s">
+      <c r="A28" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>315</v>
       </c>
       <c r="C28" s="21" t="s">
@@ -10993,10 +13768,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="21" t="s">
+      <c r="A29" t="s">
         <v>309</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>316</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -11010,10 +13785,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="42.75">
-      <c r="A30" s="21" t="s">
+      <c r="A30" t="s">
         <v>310</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>317</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -11027,10 +13802,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>319</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -11044,10 +13819,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>320</v>
       </c>
       <c r="C32" s="21" t="s">
@@ -11061,10 +13836,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>321</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -11078,10 +13853,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="22" t="s">
+      <c r="A34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>325</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -11095,10 +13870,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -11112,10 +13887,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="42.75">
-      <c r="A36" s="22" t="s">
+      <c r="A36" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>326</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -11129,10 +13904,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="21" t="s">
@@ -11146,10 +13921,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" t="s">
         <v>318</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>324</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -11163,10 +13938,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="42.75">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>327</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -11180,10 +13955,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="21" t="s">
+      <c r="A40" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>328</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -11197,10 +13972,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="21" t="s">
+      <c r="A41" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>338</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -11214,10 +13989,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.5">
-      <c r="A42" s="21" t="s">
+      <c r="A42" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>329</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -11231,10 +14006,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="28.5">
-      <c r="A43" s="21" t="s">
+      <c r="A43" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>330</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -11248,10 +14023,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="57">
-      <c r="A44" s="21" t="s">
+      <c r="A44" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>331</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -11265,10 +14040,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="57">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>332</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -11282,10 +14057,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="28.5">
-      <c r="A46" s="25" t="s">
+      <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>333</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -11299,10 +14074,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="25" t="s">
+      <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>333</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -11316,10 +14091,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="25" t="s">
+      <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>334</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -11333,10 +14108,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="72.75">
-      <c r="A49" s="25" t="s">
+      <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>339</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -11350,10 +14125,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="28.5">
-      <c r="A50" s="25" t="s">
+      <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>335</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -11367,10 +14142,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.5">
-      <c r="A51" s="25" t="s">
+      <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -11384,10 +14159,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.5">
-      <c r="A52" s="25" t="s">
+      <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>337</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -11401,7 +14176,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -11418,7 +14193,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="28.5">
-      <c r="A54" s="26" t="s">
+      <c r="A54" t="s">
         <v>212</v>
       </c>
       <c r="B54" s="18" t="s">
@@ -11435,7 +14210,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="28.5">
-      <c r="A55" s="26" t="s">
+      <c r="A55" t="s">
         <v>213</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -11452,10 +14227,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="26" t="s">
+      <c r="A56" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>601</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -11469,7 +14244,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="57">
-      <c r="A57" s="26" t="s">
+      <c r="A57" t="s">
         <v>215</v>
       </c>
       <c r="B57" s="18" t="s">
@@ -11486,7 +14261,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.5">
-      <c r="A58" s="26" t="s">
+      <c r="A58" t="s">
         <v>216</v>
       </c>
       <c r="B58" s="18" t="s">
@@ -11503,10 +14278,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="71.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="24" t="s">
         <v>604</v>
       </c>
       <c r="C59" s="21" t="s">
@@ -11520,7 +14295,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="37" t="s">
         <v>227</v>
       </c>
       <c r="B60" s="18" t="s">
@@ -11537,7 +14312,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="42.75">
-      <c r="A61" s="25" t="s">
+      <c r="A61" t="s">
         <v>228</v>
       </c>
       <c r="B61" s="18" t="s">
@@ -11554,7 +14329,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="28.5">
-      <c r="A62" s="25" t="s">
+      <c r="A62" t="s">
         <v>229</v>
       </c>
       <c r="B62" s="19" t="s">
@@ -11571,7 +14346,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="25" t="s">
+      <c r="A63" t="s">
         <v>230</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -11588,7 +14363,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="85.5">
-      <c r="A64" s="25" t="s">
+      <c r="A64" t="s">
         <v>231</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -11605,7 +14380,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="71.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" t="s">
         <v>232</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -11622,7 +14397,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.5">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="37" t="s">
         <v>239</v>
       </c>
       <c r="B66" s="18" t="s">
@@ -11639,7 +14414,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="28.5">
-      <c r="A67" s="26" t="s">
+      <c r="A67" t="s">
         <v>240</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -11656,7 +14431,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="26" t="s">
+      <c r="A68" t="s">
         <v>241</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -11673,7 +14448,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="42.75">
-      <c r="A69" s="26" t="s">
+      <c r="A69" t="s">
         <v>611</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -11690,7 +14465,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="42.75">
-      <c r="A70" s="26" t="s">
+      <c r="A70" t="s">
         <v>612</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -11707,7 +14482,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="57">
-      <c r="A71" s="26" t="s">
+      <c r="A71" t="s">
         <v>613</v>
       </c>
       <c r="B71" s="19" t="s">
@@ -11724,7 +14499,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="42.75">
-      <c r="A72" s="26" t="s">
+      <c r="A72" t="s">
         <v>614</v>
       </c>
       <c r="B72" s="19" t="s">
@@ -11741,7 +14516,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="28.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="37" t="s">
         <v>244</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -11758,7 +14533,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="57">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="38" t="s">
         <v>245</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -11775,7 +14550,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="25" t="s">
+      <c r="A75" t="s">
         <v>246</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -11792,7 +14567,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="25" t="s">
+      <c r="A76" t="s">
         <v>247</v>
       </c>
       <c r="B76" s="19" t="s">
@@ -11809,7 +14584,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.5">
-      <c r="A77" s="25" t="s">
+      <c r="A77" t="s">
         <v>248</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -11826,7 +14601,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="42.75">
-      <c r="A78" s="25" t="s">
+      <c r="A78" t="s">
         <v>249</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -11843,7 +14618,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="42.75">
-      <c r="A79" s="25" t="s">
+      <c r="A79" t="s">
         <v>621</v>
       </c>
       <c r="B79" s="19" t="s">
@@ -11860,7 +14635,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="71.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" t="s">
         <v>622</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -11877,7 +14652,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.5">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="37" t="s">
         <v>256</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -11894,7 +14669,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="28.5">
-      <c r="A82" s="26" t="s">
+      <c r="A82" t="s">
         <v>257</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -11911,7 +14686,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="42.75">
-      <c r="A83" s="26" t="s">
+      <c r="A83" t="s">
         <v>258</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -11928,7 +14703,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="42.75">
-      <c r="A84" s="26" t="s">
+      <c r="A84" t="s">
         <v>259</v>
       </c>
       <c r="B84" s="19" t="s">
@@ -11945,7 +14720,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="26" t="s">
+      <c r="A85" t="s">
         <v>260</v>
       </c>
       <c r="B85" s="19" t="s">
@@ -11962,7 +14737,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="42.75">
-      <c r="A86" s="26" t="s">
+      <c r="A86" t="s">
         <v>633</v>
       </c>
       <c r="B86" s="19" t="s">
@@ -11979,7 +14754,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="28.5">
-      <c r="A87" s="26" t="s">
+      <c r="A87" t="s">
         <v>632</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -11996,7 +14771,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="42.75">
-      <c r="A88" s="26" t="s">
+      <c r="A88" t="s">
         <v>631</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -12013,7 +14788,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="57">
-      <c r="A89" s="26" t="s">
+      <c r="A89" t="s">
         <v>630</v>
       </c>
       <c r="B89" s="20" t="s">
@@ -12030,7 +14805,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="42.75">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="37" t="s">
         <v>651</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -12047,7 +14822,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="42.75">
-      <c r="A91" s="25" t="s">
+      <c r="A91" t="s">
         <v>650</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -12064,7 +14839,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="25" t="s">
+      <c r="A92" t="s">
         <v>649</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -12081,7 +14856,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="42.75">
-      <c r="A93" s="25" t="s">
+      <c r="A93" t="s">
         <v>648</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -12098,7 +14873,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="42.75">
-      <c r="A94" s="25" t="s">
+      <c r="A94" t="s">
         <v>647</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -12115,7 +14890,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="85.5">
-      <c r="A95" s="25" t="s">
+      <c r="A95" t="s">
         <v>646</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -12132,7 +14907,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.5">
-      <c r="A96" s="25" t="s">
+      <c r="A96" t="s">
         <v>645</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -12149,7 +14924,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="57">
-      <c r="A97" s="25" t="s">
+      <c r="A97" t="s">
         <v>644</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -12166,7 +14941,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="57">
-      <c r="A98" s="25" t="s">
+      <c r="A98" t="s">
         <v>643</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -12183,7 +14958,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="42.75">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="37" t="s">
         <v>660</v>
       </c>
       <c r="B99" s="19" t="s">
@@ -12200,7 +14975,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="57">
-      <c r="A100" s="26" t="s">
+      <c r="A100" t="s">
         <v>661</v>
       </c>
       <c r="B100" s="19" t="s">
@@ -12217,7 +14992,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="28.5">
-      <c r="A101" s="26" t="s">
+      <c r="A101" t="s">
         <v>662</v>
       </c>
       <c r="B101" s="19" t="s">
@@ -12234,10 +15009,10 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="71.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" t="s">
         <v>663</v>
       </c>
-      <c r="B102" s="28" t="s">
+      <c r="B102" s="25" t="s">
         <v>670</v>
       </c>
       <c r="C102" s="21" t="s">
@@ -12251,7 +15026,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="42.75">
-      <c r="A103" s="26" t="s">
+      <c r="A103" t="s">
         <v>664</v>
       </c>
       <c r="B103" s="19" t="s">
@@ -12268,7 +15043,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="28.5">
-      <c r="A104" s="26" t="s">
+      <c r="A104" t="s">
         <v>665</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -12285,7 +15060,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="28.5">
-      <c r="A105" s="26" t="s">
+      <c r="A105" t="s">
         <v>666</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -12302,7 +15077,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="28.5">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="37" t="s">
         <v>674</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -12319,7 +15094,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="42.75">
-      <c r="A107" s="25" t="s">
+      <c r="A107" t="s">
         <v>675</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -12336,7 +15111,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="42.75">
-      <c r="A108" s="25" t="s">
+      <c r="A108" t="s">
         <v>676</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -12353,7 +15128,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="71.25">
-      <c r="A109" s="25" t="s">
+      <c r="A109" t="s">
         <v>677</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -12370,7 +15145,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="42.75">
-      <c r="A110" s="25" t="s">
+      <c r="A110" t="s">
         <v>678</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -12387,7 +15162,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="42.75">
-      <c r="A111" s="25" t="s">
+      <c r="A111" t="s">
         <v>679</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -12404,7 +15179,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="28.5">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="37" t="s">
         <v>685</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -12421,7 +15196,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="28.5">
-      <c r="A113" s="26" t="s">
+      <c r="A113" t="s">
         <v>686</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -12438,7 +15213,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="42.75">
-      <c r="A114" s="26" t="s">
+      <c r="A114" t="s">
         <v>687</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -12455,7 +15230,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="57">
-      <c r="A115" s="26" t="s">
+      <c r="A115" t="s">
         <v>688</v>
       </c>
       <c r="B115" s="20" t="s">
@@ -12472,7 +15247,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="57">
-      <c r="A116" s="26" t="s">
+      <c r="A116" t="s">
         <v>689</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -12489,7 +15264,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="42.75">
-      <c r="A117" s="26" t="s">
+      <c r="A117" t="s">
         <v>690</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -12506,7 +15281,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="71.25">
-      <c r="A118" s="26" t="s">
+      <c r="A118" t="s">
         <v>691</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -12523,7 +15298,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="42.75">
-      <c r="A119" s="26" t="s">
+      <c r="A119" t="s">
         <v>692</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -12540,7 +15315,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="28.5">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="37" t="s">
         <v>700</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -12557,7 +15332,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="42.75">
-      <c r="A121" s="25" t="s">
+      <c r="A121" t="s">
         <v>701</v>
       </c>
       <c r="B121" s="20" t="s">
@@ -12574,7 +15349,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="28.5">
-      <c r="A122" s="25" t="s">
+      <c r="A122" t="s">
         <v>702</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -12591,7 +15366,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="28.5">
-      <c r="A123" s="25" t="s">
+      <c r="A123" t="s">
         <v>703</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -12608,7 +15383,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="71.25">
-      <c r="A124" s="25" t="s">
+      <c r="A124" t="s">
         <v>704</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -12625,7 +15400,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="42.75">
-      <c r="A125" s="25" t="s">
+      <c r="A125" t="s">
         <v>705</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -12642,7 +15417,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="57">
-      <c r="A126" s="25" t="s">
+      <c r="A126" t="s">
         <v>706</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -12659,7 +15434,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="28.5">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="37" t="s">
         <v>714</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -12676,7 +15451,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="38.25">
-      <c r="A128" s="26" t="s">
+      <c r="A128" t="s">
         <v>715</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -12693,7 +15468,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="71.25">
-      <c r="A129" s="26" t="s">
+      <c r="A129" t="s">
         <v>716</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -12710,7 +15485,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="57">
-      <c r="A130" s="26" t="s">
+      <c r="A130" t="s">
         <v>717</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -12727,7 +15502,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="28.5">
-      <c r="A131" s="26" t="s">
+      <c r="A131" t="s">
         <v>718</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -12744,7 +15519,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="28.5">
-      <c r="A132" s="26" t="s">
+      <c r="A132" t="s">
         <v>719</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -12761,7 +15536,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="42.75">
-      <c r="A133" s="26" t="s">
+      <c r="A133" t="s">
         <v>720</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -12778,7 +15553,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="28.5">
-      <c r="A134" s="26" t="s">
+      <c r="A134" t="s">
         <v>721</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -12795,7 +15570,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="28.5">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="37" t="s">
         <v>730</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -12812,7 +15587,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="57">
-      <c r="A136" s="25" t="s">
+      <c r="A136" t="s">
         <v>731</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -12829,7 +15604,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="42.75">
-      <c r="A137" s="25" t="s">
+      <c r="A137" t="s">
         <v>732</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -12846,7 +15621,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="42.75">
-      <c r="A138" s="25" t="s">
+      <c r="A138" t="s">
         <v>733</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -12863,7 +15638,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="28.5">
-      <c r="A139" s="25" t="s">
+      <c r="A139" t="s">
         <v>734</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -12880,7 +15655,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="28.5">
-      <c r="A140" s="25" t="s">
+      <c r="A140" t="s">
         <v>735</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -12897,7 +15672,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="71.25">
-      <c r="A141" s="25" t="s">
+      <c r="A141" t="s">
         <v>736</v>
       </c>
       <c r="B141" s="20" t="s">
@@ -12914,7 +15689,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="28.5">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="37" t="s">
         <v>743</v>
       </c>
       <c r="B142" s="20" t="s">
@@ -12931,7 +15706,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="57">
-      <c r="A143" s="26" t="s">
+      <c r="A143" t="s">
         <v>744</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -12948,7 +15723,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="57">
-      <c r="A144" s="26" t="s">
+      <c r="A144" t="s">
         <v>745</v>
       </c>
       <c r="B144" s="20" t="s">
@@ -12965,7 +15740,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="42.75">
-      <c r="A145" s="26" t="s">
+      <c r="A145" t="s">
         <v>746</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -12982,7 +15757,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="71.25">
-      <c r="A146" s="26" t="s">
+      <c r="A146" t="s">
         <v>747</v>
       </c>
       <c r="B146" s="20" t="s">
@@ -12999,7 +15774,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="57">
-      <c r="A147" s="26" t="s">
+      <c r="A147" t="s">
         <v>748</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -13016,7 +15791,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="42.75">
-      <c r="A148" s="26" t="s">
+      <c r="A148" t="s">
         <v>749</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -13030,6 +15805,1468 @@
       </c>
       <c r="E148" s="1" t="s">
         <v>966</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>973</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B153" s="35" t="s">
+        <v>978</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B154" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="28.5">
+      <c r="A155" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B155" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>981</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>982</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>983</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B161" s="34" t="s">
+        <v>985</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>986</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>987</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>988</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B166" s="34" t="s">
+        <v>989</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B167" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B168" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B169" s="34" t="s">
+        <v>992</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>994</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B173" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B174" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B175" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="37" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="37" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B231" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B232" s="36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>991</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -8457,8 +8457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -10922,6 +10922,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10930,7 +10931,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1316">
   <si>
     <t>XXXX</t>
   </si>
@@ -4478,6 +4478,204 @@
   </si>
   <si>
     <t>Sending officers will help to resolve the missing girl issue but will also improve relations with community members</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_INDEX_7</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_INDEX_8</t>
+  </si>
+  <si>
+    <t>Report of a drunken male causing problems inside a hotel foyer</t>
+  </si>
+  <si>
+    <t>Male soils himself and becomes abusive towards staff</t>
+  </si>
+  <si>
+    <t>Male identified as known individual who has caused similar problems</t>
+  </si>
+  <si>
+    <t>Male Removed from the premises without issue and returned to partner agencies to address long term issue</t>
+  </si>
+  <si>
+    <t>Male eventually arrested and prosecuted for public order</t>
+  </si>
+  <si>
+    <t>Male becomes violent towards staff and assualts one of them</t>
+  </si>
+  <si>
+    <t>Male arrested and charged with pulblic order &amp; section 39 assault</t>
+  </si>
+  <si>
+    <t>Male makes off due to lack of response and unable to progress further as there is no CCTV</t>
+  </si>
+  <si>
+    <t>A report has been received regarding a small child who has been separated from their mother in a busy city centre shop</t>
+  </si>
+  <si>
+    <t>Officers begin searching the city centre shops for a child</t>
+  </si>
+  <si>
+    <t>Child is hit by a bus trying to cross a busy road</t>
+  </si>
+  <si>
+    <t>Picture of the child was circulated on the INSPEC2T platform and as such, the child was found nearby a shop. Mother and Child have been reunited</t>
+  </si>
+  <si>
+    <t>After much time used by your officers, mother and child have been reunited</t>
+  </si>
+  <si>
+    <t>Report received regarding a large amount of musical noise coming from a neighbouring property. The informant says to the call taker that if the police doesn't sort it, they'll do it themselves</t>
+  </si>
+  <si>
+    <t>Officers attend and ask the problematic property to turn the music down</t>
+  </si>
+  <si>
+    <t>Due to the delay in responding, the informant goes to the problematic address and confronts the occupants, which results in the informant getting assaulted</t>
+  </si>
+  <si>
+    <t>Offender arrested for assault and noise has been turned down</t>
+  </si>
+  <si>
+    <t>Informant reacts to the assault and smashes a window due to frustration of having to wait</t>
+  </si>
+  <si>
+    <t>Numerous officers deployed resulting in 2 arrests being made and music being turned down</t>
+  </si>
+  <si>
+    <t>Due to lack of deployment a serious assault occurs due to increasing tensions</t>
+  </si>
+  <si>
+    <t>Report of a group of youths causing havoc on a small residential estate. The report can only describe the youths as "the usual ones"</t>
+  </si>
+  <si>
+    <t>On arrival, the youths who have their faces concealed, run away.</t>
+  </si>
+  <si>
+    <t>Issue subsides without police intervention. The community are very unhappy with the lack of response and no long term solution</t>
+  </si>
+  <si>
+    <t>Information provided from a neighbour gives the identity of several of the youths</t>
+  </si>
+  <si>
+    <t>Officer deals with incident and is able to provide high quality evidence toward court orders to prevent future issues</t>
+  </si>
+  <si>
+    <t>Issues subside without police intervention, the community are unhappy but with help from citizens some evidence came forward and court orders are obtained</t>
+  </si>
+  <si>
+    <t>Report regarding concerns for the welfare of a family member who is elderly and lives on their own and not answering the telephone. Informant lives in another part of the country and is unable to visit them</t>
+  </si>
+  <si>
+    <t>Officer discovers elderly person has fallen inside the property and cannot get up but requires assistance in gaining entry to help them</t>
+  </si>
+  <si>
+    <t>Due to lack of deployment the elderly person has had to be admitted to hospital for a fall in the house. The community are not happy with this outcome</t>
+  </si>
+  <si>
+    <t>Request locates a close friend that the informant is not aware of. The friend confirms that the elderly family member is safe and well but has broken their phone.</t>
+  </si>
+  <si>
+    <t>Patrols gain entry and help the elderly person get medical assistance.</t>
+  </si>
+  <si>
+    <t>The condition of the elderly person deteriorates and requires considerably more medical assistance</t>
+  </si>
+  <si>
+    <t>Report received that there are a group of males fighting outside a shop on a residential estate with weapons. The informant is unable to provide any ID or further information on the weapons as they're driving past</t>
+  </si>
+  <si>
+    <t>Officers attend and makes several arrests and the community are satisfied, however, as specifics regarding which weapons were being used an officer is hurt</t>
+  </si>
+  <si>
+    <t>Citizen gives names of males involved and provides specifics of weapons being used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to lack of deployment, one of the males fighting is critically injured, resulting in community outrage </t>
+  </si>
+  <si>
+    <t>Officers deal with the incident by making several arrests without any significant harm to officers or the public</t>
+  </si>
+  <si>
+    <t>Report received regarding a transit van driving recklessly and at high speeds around a residential area. There is significant concern as a local primary school is due to finish for the day and pupils will be walking home</t>
+  </si>
+  <si>
+    <t>Due to lack of deployment the behaviour of the driver becomes more reckless, serveral other calls are received which provide direction of travel</t>
+  </si>
+  <si>
+    <t>Information is gathered about the travel direction and number plate of the vehicle</t>
+  </si>
+  <si>
+    <t>A vehicle matching the description is found abandoned nearby. However without a registration it's not possible to confirm that this is the vehicle.</t>
+  </si>
+  <si>
+    <t>Vehicle is involved in a high speed collision with a child crossing the road</t>
+  </si>
+  <si>
+    <t>Vehicle stopped near home address. Driver is found to be under the infulence of alcohol and arrested.</t>
+  </si>
+  <si>
+    <t>Patrols deal with collision, it comes to light that the friver is under the influence of alcohol is arrested. The chile receives meddical assistance</t>
+  </si>
+  <si>
+    <t>Driver does not wait and drives off, focusing on the wellbeing of the child, nobody takes note of the registration of the vehicle, no further action can be taken</t>
+  </si>
+  <si>
+    <t>Report received that there is a dangerous dog out of control in a local park. Nearby there is a play area which is currently very busy</t>
+  </si>
+  <si>
+    <t>Due to the delay in finding the dog, a further report in made that a dog has bitten a small child in the play area and ran away</t>
+  </si>
+  <si>
+    <t>Information provided on the location of the dog and the person who is believed to be the owner</t>
+  </si>
+  <si>
+    <t>No one is able to provide any information regarding the dog or its owner.</t>
+  </si>
+  <si>
+    <t>Park is searched but no one is able to provide any more information regarding the dog or its owner, and so, is not located</t>
+  </si>
+  <si>
+    <t>Park is searched, but the dog is not found, however, due to the owner information being known, officers go to the address and advise owner on controlling their dog in the future</t>
+  </si>
+  <si>
+    <t>Disruption</t>
+  </si>
+  <si>
+    <t>Search Started</t>
+  </si>
+  <si>
+    <t>Noise Complaint</t>
+  </si>
+  <si>
+    <t>Property Damage</t>
+  </si>
+  <si>
+    <t>Concern Raised</t>
+  </si>
+  <si>
+    <t>Assistance Required</t>
+  </si>
+  <si>
+    <t>Armed Assault</t>
+  </si>
+  <si>
+    <t>Reckless Driving</t>
+  </si>
+  <si>
+    <t>Information Gathered</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Dangerous Dog</t>
+  </si>
+  <si>
+    <t>SCENARIO_15_TITLE_5</t>
+  </si>
+  <si>
+    <t>SCENARIO_19_TITLE_5</t>
   </si>
 </sst>
 </file>
@@ -5033,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -6512,733 +6710,1974 @@
       </c>
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="25.5">
+      <c r="A90" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="25.5">
+      <c r="A94" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A95" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="25.5">
+      <c r="A98" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" ht="38.25">
+      <c r="A100" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="38.25">
+      <c r="A102" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="25.5">
+      <c r="A104" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="25.5">
+      <c r="A105" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="25.5">
+      <c r="A106" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A107" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="25.5">
+      <c r="A109" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="25.5">
+      <c r="A110" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="25.5">
+      <c r="A111" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="38.25">
+      <c r="A112" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="3" customFormat="1" ht="38.25">
+      <c r="A113" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="25.5">
+      <c r="A114" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="38.25">
+      <c r="A115" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="38.25">
+      <c r="A116" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="25.5">
+      <c r="A118" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="3" customFormat="1" ht="38.25">
+      <c r="A119" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="38.25">
+      <c r="A120" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="25.5">
+      <c r="A121" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="25.5">
+      <c r="A122" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="25.5">
+      <c r="A123" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="3" customFormat="1" ht="38.25">
+      <c r="A124" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5">
+      <c r="A125" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="25.5">
+      <c r="A126" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5">
+      <c r="A127" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="25.5">
+      <c r="A129" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.5">
+      <c r="A130" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="38.25">
+      <c r="A131" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="3" customFormat="1" ht="25.5">
+      <c r="A132" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="25.5">
+      <c r="A133" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="25.5">
+      <c r="A134" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="25.5">
+      <c r="A136" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="38.25">
+      <c r="A137" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="3" customFormat="1">
+      <c r="A138" s="35" t="s">
         <v>1038</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B138" s="35" t="s">
         <v>1172</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="20" t="s">
+      <c r="C138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="20" t="s">
         <v>1040</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B139" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="20" t="s">
+      <c r="C139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B140" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="3" customFormat="1">
-      <c r="A90" s="35" t="s">
+      <c r="C140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="3" customFormat="1">
+      <c r="A141" s="35" t="s">
         <v>1043</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B141" s="35" t="s">
         <v>1175</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="20" t="s">
+      <c r="C141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="20" t="s">
         <v>1044</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B142" s="20" t="s">
         <v>1176</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="20" t="s">
+      <c r="C142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="20" t="s">
         <v>1045</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B143" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="20" t="s">
+      <c r="C143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B144" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="20" t="s">
+      <c r="C144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B145" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="20" t="s">
+      <c r="C145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B146" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="3" customFormat="1">
-      <c r="A96" s="35" t="s">
+      <c r="C146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="3" customFormat="1">
+      <c r="A147" s="35" t="s">
         <v>1047</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B147" s="35" t="s">
         <v>1178</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="20" t="s">
+      <c r="C147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="20" t="s">
         <v>1049</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B148" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="20" t="s">
+      <c r="C148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="20" t="s">
         <v>1155</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B149" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="3" customFormat="1">
-      <c r="A99" s="35" t="s">
+      <c r="C149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="3" customFormat="1">
+      <c r="A150" s="35" t="s">
         <v>1051</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B150" s="35" t="s">
         <v>1180</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="20" t="s">
+      <c r="C150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="20" t="s">
         <v>1054</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B151" s="20" t="s">
         <v>1180</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="3" customFormat="1">
-      <c r="A101" s="35" t="s">
+      <c r="C151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="3" customFormat="1">
+      <c r="A152" s="35" t="s">
         <v>1055</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B152" s="35" t="s">
         <v>1181</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="20" t="s">
+      <c r="C152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="20" t="s">
         <v>1057</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B153" s="20" t="s">
         <v>1181</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="20" t="s">
+      <c r="C153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="20" t="s">
         <v>1189</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B154" s="20" t="s">
         <v>1181</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="3" customFormat="1">
-      <c r="A104" s="35" t="s">
+      <c r="C154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="3" customFormat="1">
+      <c r="A155" s="35" t="s">
         <v>1059</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B155" s="35" t="s">
         <v>1182</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="20" t="s">
+      <c r="C155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="20" t="s">
         <v>1060</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B156" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="20" t="s">
+      <c r="C156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B157" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="20" t="s">
+      <c r="C157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="20" t="s">
         <v>1190</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B158" s="20" t="s">
         <v>1182</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="3" customFormat="1">
-      <c r="A108" s="35" t="s">
+      <c r="C158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="3" customFormat="1">
+      <c r="A159" s="35" t="s">
         <v>1062</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B159" s="35" t="s">
         <v>1183</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="20" t="s">
+      <c r="C159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B160" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="20" t="s">
+      <c r="C160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="20" t="s">
         <v>1064</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B161" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="20" t="s">
+      <c r="C161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="20" t="s">
         <v>1065</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B162" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="20" t="s">
+      <c r="C162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="20" t="s">
         <v>1160</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B163" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="20" t="s">
+      <c r="C163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="20" t="s">
         <v>1161</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B164" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="20" t="s">
+      <c r="C164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="20" t="s">
         <v>1163</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B165" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="20" t="s">
+      <c r="C165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B166" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="3" customFormat="1">
-      <c r="A116" s="35" t="s">
+      <c r="C166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="3" customFormat="1">
+      <c r="A167" s="35" t="s">
         <v>1066</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B167" s="35" t="s">
         <v>1185</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="20" t="s">
+      <c r="C167" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="20" t="s">
         <v>1068</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B168" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="20" t="s">
+      <c r="C168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B169" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="20" t="s">
+      <c r="C169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B170" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="3" customFormat="1">
-      <c r="A120" s="35" t="s">
+      <c r="C170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="3" customFormat="1">
+      <c r="A171" s="35" t="s">
         <v>1070</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B171" s="35" t="s">
         <v>1186</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="20" t="s">
+      <c r="C171" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B172" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="20" t="s">
+      <c r="C172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="20" t="s">
         <v>1168</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B173" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="20" t="s">
+      <c r="C173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="20" t="s">
         <v>1169</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B174" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="3" customFormat="1">
-      <c r="A124" s="35" t="s">
+      <c r="C174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="3" customFormat="1">
+      <c r="A175" s="35" t="s">
         <v>1073</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B175" s="35" t="s">
         <v>1180</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="3" customFormat="1">
-      <c r="A125" s="35" t="s">
+      <c r="C175" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="3" customFormat="1">
+      <c r="A176" s="35" t="s">
         <v>1078</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B176" s="35" t="s">
         <v>1180</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="20" t="s">
+      <c r="C176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="20" t="s">
         <v>1080</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B177" s="20" t="s">
         <v>1187</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="20" t="s">
+      <c r="C177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B178" s="20" t="s">
         <v>1187</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="3" customFormat="1">
-      <c r="A128" s="35" t="s">
+      <c r="C178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="3" customFormat="1">
+      <c r="A179" s="35" t="s">
         <v>1083</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B179" s="35" t="s">
         <v>1188</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="20" t="s">
+      <c r="C179" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B180" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="3" customFormat="1">
+      <c r="A181" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B181" s="35" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="20" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="3" customFormat="1">
+      <c r="A185" s="35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B185" s="35" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="3" customFormat="1">
+      <c r="A187" s="35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="3" customFormat="1">
+      <c r="A190" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="3" customFormat="1">
+      <c r="A192" s="35" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="3" customFormat="1">
+      <c r="A194" s="35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B194" s="35" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="3" customFormat="1">
+      <c r="A196" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B196" s="35" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="3" customFormat="1">
+      <c r="A200" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B200" s="35" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7252,7 +8691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="5580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations_Preston" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1340">
   <si>
     <t>XXXX</t>
   </si>
@@ -4676,6 +4676,78 @@
   </si>
   <si>
     <t>SCENARIO_19_TITLE_5</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CASES</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_CLOSED</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_THIS_TURN</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ACTIVE</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_ACTION_TAKEN</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_IGNORED</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>This turn</t>
+  </si>
+  <si>
+    <t>Action Taken</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Este turno</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Acción tomada</t>
+  </si>
+  <si>
+    <t>Ignorado</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SATISFACTION_IMPACT</t>
+  </si>
+  <si>
+    <t>Satisfaction Impact</t>
+  </si>
+  <si>
+    <t>Impacto de satisfacción</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>Status Update</t>
+  </si>
+  <si>
+    <t>actualización de estado</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total de casos</t>
   </si>
 </sst>
 </file>
@@ -4837,7 +4909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4949,6 +5021,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5233,7 +5308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
@@ -11970,10 +12045,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD114"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -12921,12 +12996,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="28.5">
+    <row r="56" spans="1:5" s="7" customFormat="1">
       <c r="A56" s="7" t="s">
-        <v>139</v>
+        <v>1316</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>140</v>
+        <v>1338</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>0</v>
@@ -12934,16 +13009,16 @@
       <c r="D56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="E56" s="40" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1">
       <c r="A57" s="7" t="s">
-        <v>372</v>
+        <v>1317</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>373</v>
+        <v>1322</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>0</v>
@@ -12951,16 +13026,16 @@
       <c r="D57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>570</v>
+      <c r="E57" s="40" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1">
       <c r="A58" s="7" t="s">
-        <v>382</v>
+        <v>1318</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>383</v>
+        <v>1325</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>0</v>
@@ -12968,16 +13043,16 @@
       <c r="D58" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>490</v>
+      <c r="E58" s="40" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1">
       <c r="A59" s="7" t="s">
-        <v>119</v>
+        <v>1319</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>120</v>
+        <v>1323</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>0</v>
@@ -12985,16 +13060,16 @@
       <c r="D59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="57">
+      <c r="E59" s="40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1">
       <c r="A60" s="7" t="s">
-        <v>121</v>
+        <v>1320</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>122</v>
+        <v>1326</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>0</v>
@@ -13002,16 +13077,16 @@
       <c r="D60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="E60" s="40" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="7" customFormat="1">
       <c r="A61" s="7" t="s">
-        <v>123</v>
+        <v>1321</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>124</v>
+        <v>1324</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>0</v>
@@ -13019,16 +13094,16 @@
       <c r="D61" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="E61" s="40" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="7" customFormat="1">
       <c r="A62" s="7" t="s">
-        <v>125</v>
+        <v>1332</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>134</v>
+        <v>1333</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>0</v>
@@ -13036,16 +13111,16 @@
       <c r="D62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="E62" s="40" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="7" customFormat="1">
       <c r="A63" s="7" t="s">
-        <v>126</v>
+        <v>1335</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>127</v>
+        <v>1336</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>0</v>
@@ -13053,16 +13128,16 @@
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>566</v>
+      <c r="E63" s="40" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="28.5">
       <c r="A64" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>0</v>
@@ -13070,16 +13145,16 @@
       <c r="D64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>565</v>
+      <c r="E64" s="13" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="28.5">
       <c r="A65" s="7" t="s">
-        <v>128</v>
+        <v>372</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>129</v>
+        <v>373</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>0</v>
@@ -13088,15 +13163,15 @@
         <v>0</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="71.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="7" customFormat="1">
       <c r="A66" s="7" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>0</v>
@@ -13104,16 +13179,16 @@
       <c r="D66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="71.25">
+      <c r="E66" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
-        <v>513</v>
+        <v>119</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>516</v>
+        <v>120</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>0</v>
@@ -13121,16 +13196,16 @@
       <c r="D67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>562</v>
+      <c r="E67" s="11" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="57">
       <c r="A68" s="7" t="s">
-        <v>514</v>
+        <v>121</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>515</v>
+        <v>122</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>0</v>
@@ -13139,793 +13214,929 @@
         <v>0</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="42.75">
       <c r="A69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="A71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="A72" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="A73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="7" customFormat="1" ht="71.25">
+      <c r="A74" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="71.25">
+      <c r="A75" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="57">
+      <c r="A76" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A77" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="C77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.5">
-      <c r="A70" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.5">
-      <c r="A76" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="28.5">
-      <c r="A77" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.5">
       <c r="A78" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.5">
+      <c r="A84" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.5">
+      <c r="A85" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.5">
+      <c r="A86" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="C86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.5">
-      <c r="A79" s="7" t="s">
+    <row r="87" spans="1:5" ht="28.5">
+      <c r="A87" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B87" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="13" t="s">
+      <c r="C87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="7" t="s">
+    <row r="88" spans="1:5" ht="42.75">
+      <c r="A88" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="13" t="s">
+      <c r="C88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5">
-      <c r="A81" s="7" t="s">
+    <row r="89" spans="1:5" ht="28.5">
+      <c r="A89" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="13" t="s">
+      <c r="C89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.5">
-      <c r="A82" s="7" t="s">
+    <row r="90" spans="1:5" ht="28.5">
+      <c r="A90" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="C90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.5">
-      <c r="A83" s="8" t="s">
+    <row r="91" spans="1:5" ht="28.5">
+      <c r="A91" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="13" t="s">
+      <c r="C91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="42.75">
-      <c r="A84" s="8" t="s">
+    <row r="92" spans="1:5" ht="42.75">
+      <c r="A92" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13" t="s">
+      <c r="C92" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.5">
-      <c r="A85" s="8" t="s">
+    <row r="93" spans="1:5" ht="28.5">
+      <c r="A93" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="13" t="s">
+      <c r="C93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="13" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="7" customFormat="1" ht="42.75">
-      <c r="A86" s="7" t="s">
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A94" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="C94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="7" customFormat="1" ht="42.75">
-      <c r="A87" s="7" t="s">
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A95" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B95" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="13" t="s">
+      <c r="C95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="7" customFormat="1" ht="42.75">
-      <c r="A88" s="7" t="s">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A96" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12" t="s">
+      <c r="C96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="7" customFormat="1" ht="28.5">
-      <c r="A89" s="7" t="s">
+    <row r="97" spans="1:6" s="7" customFormat="1" ht="28.5">
+      <c r="A97" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B97" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="13" t="s">
+      <c r="C97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="7" customFormat="1" ht="28.5">
-      <c r="A90" s="7" t="s">
+    <row r="98" spans="1:6" s="7" customFormat="1" ht="28.5">
+      <c r="A98" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="13" t="s">
+      <c r="C98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="7" customFormat="1" ht="28.5">
-      <c r="A91" s="7" t="s">
+    <row r="99" spans="1:6" s="7" customFormat="1" ht="28.5">
+      <c r="A99" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="13" t="s">
+      <c r="C99" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="13" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="7" t="s">
+    <row r="100" spans="1:6">
+      <c r="A100" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="12" t="s">
+      <c r="C100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="7" t="s">
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="13" t="s">
+      <c r="C101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="7" t="s">
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="12" t="s">
+      <c r="C102" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="7" t="s">
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="13" t="s">
+      <c r="C103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="7" t="s">
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="13" t="s">
+      <c r="C104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="8" t="s">
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11" t="s">
+      <c r="C105" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="8" t="s">
+    <row r="106" spans="1:6">
+      <c r="A106" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="29" t="s">
+      <c r="C106" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="7" t="s">
+    <row r="107" spans="1:6">
+      <c r="A107" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E107" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="7" t="s">
+    <row r="108" spans="1:6">
+      <c r="A108" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D108" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E108" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="8" t="s">
+    <row r="109" spans="1:6">
+      <c r="A109" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="13" t="s">
+      <c r="C109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="13" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="8" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="C110" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="8" t="s">
+    <row r="111" spans="1:6">
+      <c r="A111" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="12" t="s">
+      <c r="C111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="8" t="s">
+    <row r="112" spans="1:6">
+      <c r="A112" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="12" t="s">
+      <c r="C112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="8" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B113" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="13" t="s">
+      <c r="C113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="13" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="8" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B114" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="C114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="28.5">
-      <c r="A107" s="8" t="s">
+    <row r="115" spans="1:5" ht="28.5">
+      <c r="A115" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B115" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="C115" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.75">
-      <c r="A108" s="8" t="s">
+    <row r="116" spans="1:5" ht="42.75">
+      <c r="A116" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B116" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="13" t="s">
+      <c r="C116" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="42.75">
-      <c r="A109" s="8" t="s">
+    <row r="117" spans="1:5" ht="42.75">
+      <c r="A117" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B117" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="13" t="s">
+      <c r="C117" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="42.75">
-      <c r="A110" s="8" t="s">
+    <row r="118" spans="1:5" ht="42.75">
+      <c r="A118" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B118" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="C118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="42.75">
-      <c r="A111" s="8" t="s">
+    <row r="119" spans="1:5" ht="42.75">
+      <c r="A119" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="13" t="s">
+      <c r="C119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.5">
-      <c r="A112" s="8" t="s">
+    <row r="120" spans="1:5" ht="28.5">
+      <c r="A120" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="13" t="s">
+      <c r="C120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="13" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="28.5">
-      <c r="A113" s="8" t="s">
+    <row r="121" spans="1:5" ht="28.5">
+      <c r="A121" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="12" t="s">
+      <c r="C121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="17" customFormat="1">
-      <c r="A114" s="33" t="s">
+    <row r="122" spans="1:5" s="17" customFormat="1">
+      <c r="A122" s="34" t="s">
         <v>1039</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B122" s="16" t="s">
         <v>974</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="C122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/StringFile.xlsx
+++ b/Assets/Resources/StringFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="1343">
   <si>
     <t>XXXX</t>
   </si>
@@ -4748,6 +4748,15 @@
   </si>
   <si>
     <t>Total de casos</t>
+  </si>
+  <si>
+    <t>BASIC_TEXT_SKIP</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Omitir</t>
   </si>
 </sst>
 </file>
@@ -12045,10 +12054,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -13132,12 +13141,12 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" ht="28.5">
+    <row r="64" spans="1:5" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
-        <v>139</v>
+        <v>1340</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>140</v>
+        <v>1341</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>0</v>
@@ -13145,135 +13154,135 @@
       <c r="D64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>571</v>
+      <c r="E64" s="40" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="28.5">
       <c r="A65" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="28.5">
+      <c r="A66" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="13" t="s">
+      <c r="C66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="7" customFormat="1">
-      <c r="A66" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1">
+      <c r="A68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="C68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="57">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="57">
+      <c r="A69" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="13" t="s">
+      <c r="C69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="42.75">
-      <c r="A69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="42.75">
       <c r="A70" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="42.75">
+      <c r="A71" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="C71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="28.5">
-      <c r="A71" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" 